--- a/outdata/supp2015.xlsx
+++ b/outdata/supp2015.xlsx
@@ -925,13 +925,13 @@
         <v>237.8938598632812</v>
       </c>
       <c r="AG4" s="1">
-        <v>586.32861328125</v>
+        <v>586.3287963867188</v>
       </c>
       <c r="AH4" s="1">
         <v>1920.146728515625</v>
       </c>
       <c r="AI4" s="1">
-        <v>2744.369140625</v>
+        <v>2744.369384765625</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -1629,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="R11" s="1">
-        <v>1.973743677139282</v>
+        <v>1.973743438720703</v>
       </c>
       <c r="S11" s="1">
         <v>0</v>
@@ -2051,13 +2051,13 @@
         <v>937.59814453125</v>
       </c>
       <c r="P15" s="1">
-        <v>40.25152587890625</v>
+        <v>40.25152206420898</v>
       </c>
       <c r="Q15" s="1">
         <v>24.09734344482422</v>
       </c>
       <c r="R15" s="1">
-        <v>14.32883453369141</v>
+        <v>14.32883262634277</v>
       </c>
       <c r="S15" s="1">
         <v>0.9370336532592773</v>
@@ -2158,7 +2158,7 @@
         <v>0.1658376008272171</v>
       </c>
       <c r="P16" s="1">
-        <v>3445.04931640625</v>
+        <v>3445.049072265625</v>
       </c>
       <c r="Q16" s="1">
         <v>0</v>
@@ -2206,10 +2206,10 @@
         <v>0</v>
       </c>
       <c r="AF16" s="1">
-        <v>3516.69775390625</v>
+        <v>3516.697509765625</v>
       </c>
       <c r="AG16" s="1">
-        <v>337.8282775878906</v>
+        <v>337.8283386230469</v>
       </c>
       <c r="AH16" s="1">
         <v>482.6411743164062</v>
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="H17" s="1">
-        <v>0.8339235782623291</v>
+        <v>0.8339235186576843</v>
       </c>
       <c r="I17" s="1">
         <v>0</v>
@@ -2271,7 +2271,7 @@
         <v>11147.5390625</v>
       </c>
       <c r="R17" s="1">
-        <v>16.26130485534668</v>
+        <v>16.26130294799805</v>
       </c>
       <c r="S17" s="1">
         <v>28.99329948425293</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="Y17" s="1">
-        <v>4.689559459686279</v>
+        <v>4.689558982849121</v>
       </c>
       <c r="Z17" s="1">
         <v>11.39813804626465</v>
@@ -2378,13 +2378,13 @@
         <v>3.329250812530518</v>
       </c>
       <c r="R18" s="1">
-        <v>14632.3642578125</v>
+        <v>14632.3623046875</v>
       </c>
       <c r="S18" s="1">
         <v>75.11460876464844</v>
       </c>
       <c r="T18" s="1">
-        <v>-0.0003959889290854335</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
         <v>372.7477416992188</v>
@@ -2411,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="1">
-        <v>-0.0005731560522690415</v>
+        <v>0</v>
       </c>
       <c r="AD18" s="1">
         <v>26.99276924133301</v>
@@ -2420,13 +2420,13 @@
         <v>0</v>
       </c>
       <c r="AF18" s="1">
-        <v>15911.3818359375</v>
+        <v>15911.380859375</v>
       </c>
       <c r="AG18" s="1">
-        <v>86.71939086914062</v>
+        <v>86.71987915039062</v>
       </c>
       <c r="AH18" s="1">
-        <v>625.8206176757812</v>
+        <v>625.820556640625</v>
       </c>
       <c r="AI18" s="1">
         <v>16623.921875</v>
@@ -2512,7 +2512,7 @@
         <v>0</v>
       </c>
       <c r="AA19" s="1">
-        <v>50.64031982421875</v>
+        <v>50.64031600952148</v>
       </c>
       <c r="AB19" s="1">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>10323.6728515625</v>
       </c>
       <c r="AG19" s="1">
-        <v>169.1972045898438</v>
+        <v>169.1971435546875</v>
       </c>
       <c r="AH19" s="1">
         <v>1129.520874023438</v>
@@ -2592,13 +2592,13 @@
         <v>0</v>
       </c>
       <c r="R20" s="1">
-        <v>11.28312206268311</v>
+        <v>11.28312015533447</v>
       </c>
       <c r="S20" s="1">
         <v>131.1018218994141</v>
       </c>
       <c r="T20" s="1">
-        <v>2886.733154296875</v>
+        <v>2886.73291015625</v>
       </c>
       <c r="U20" s="1">
         <v>0</v>
@@ -2634,16 +2634,16 @@
         <v>0</v>
       </c>
       <c r="AF20" s="1">
-        <v>3494.15087890625</v>
+        <v>3494.150390625</v>
       </c>
       <c r="AG20" s="1">
-        <v>120.2688751220703</v>
+        <v>120.2690582275391</v>
       </c>
       <c r="AH20" s="1">
         <v>115.1467208862305</v>
       </c>
       <c r="AI20" s="1">
-        <v>3729.56640625</v>
+        <v>3729.566162109375</v>
       </c>
     </row>
     <row r="21" spans="1:35">
@@ -2693,13 +2693,13 @@
         <v>7.205508708953857</v>
       </c>
       <c r="P21" s="1">
-        <v>32.58184814453125</v>
+        <v>32.58184432983398</v>
       </c>
       <c r="Q21" s="1">
         <v>4.436484813690186</v>
       </c>
       <c r="R21" s="1">
-        <v>30.02754402160645</v>
+        <v>30.02754020690918</v>
       </c>
       <c r="S21" s="1">
         <v>4.666659832000732</v>
@@ -2726,7 +2726,7 @@
         <v>8.312090873718262</v>
       </c>
       <c r="AA21" s="1">
-        <v>32.42189788818359</v>
+        <v>32.42189407348633</v>
       </c>
       <c r="AB21" s="1">
         <v>12.47478199005127</v>
@@ -2854,7 +2854,7 @@
         <v>39.14280700683594</v>
       </c>
       <c r="AH22" s="1">
-        <v>538.065185546875</v>
+        <v>538.0651245117188</v>
       </c>
       <c r="AI22" s="1">
         <v>7805.21484375</v>
@@ -2883,7 +2883,7 @@
         <v>0.2635474801063538</v>
       </c>
       <c r="H23" s="1">
-        <v>3.168917179107666</v>
+        <v>3.168916940689087</v>
       </c>
       <c r="I23" s="1">
         <v>17.46197509765625</v>
@@ -2907,19 +2907,19 @@
         <v>4.04368782043457</v>
       </c>
       <c r="P23" s="1">
-        <v>41.29569625854492</v>
+        <v>41.29569244384766</v>
       </c>
       <c r="Q23" s="1">
         <v>13.67509651184082</v>
       </c>
       <c r="R23" s="1">
-        <v>291.2174072265625</v>
+        <v>291.2173767089844</v>
       </c>
       <c r="S23" s="1">
         <v>92.29073333740234</v>
       </c>
       <c r="T23" s="1">
-        <v>23.46993637084961</v>
+        <v>23.46993255615234</v>
       </c>
       <c r="U23" s="1">
         <v>122.3073196411133</v>
@@ -2934,7 +2934,7 @@
         <v>42.33641052246094</v>
       </c>
       <c r="Y23" s="1">
-        <v>48.74255752563477</v>
+        <v>48.7425537109375</v>
       </c>
       <c r="Z23" s="1">
         <v>28.42301368713379</v>
@@ -3121,19 +3121,19 @@
         <v>40.74268341064453</v>
       </c>
       <c r="P25" s="1">
-        <v>262.7792053222656</v>
+        <v>262.7791748046875</v>
       </c>
       <c r="Q25" s="1">
         <v>26.82926940917969</v>
       </c>
       <c r="R25" s="1">
-        <v>649.7440795898438</v>
+        <v>649.7439575195312</v>
       </c>
       <c r="S25" s="1">
         <v>80.92343902587891</v>
       </c>
       <c r="T25" s="1">
-        <v>29.21466255187988</v>
+        <v>29.21465873718262</v>
       </c>
       <c r="U25" s="1">
         <v>1472.268920898438</v>
@@ -3154,7 +3154,7 @@
         <v>34.51982498168945</v>
       </c>
       <c r="AA25" s="1">
-        <v>236.8541107177734</v>
+        <v>236.8540954589844</v>
       </c>
       <c r="AB25" s="1">
         <v>428.8759460449219</v>
@@ -3172,7 +3172,7 @@
         <v>14418.828125</v>
       </c>
       <c r="AG25" s="1">
-        <v>191.04833984375</v>
+        <v>191.0483551025391</v>
       </c>
       <c r="AH25" s="1">
         <v>3071.703125</v>
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H26" s="1">
-        <v>8.171604156494141</v>
+        <v>8.171603202819824</v>
       </c>
       <c r="I26" s="1">
         <v>32.9248046875</v>
@@ -3234,7 +3234,7 @@
         <v>0.5121839642524719</v>
       </c>
       <c r="R26" s="1">
-        <v>31.16737174987793</v>
+        <v>31.16736793518066</v>
       </c>
       <c r="S26" s="1">
         <v>30.76249313354492</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y26" s="1">
-        <v>47.22128295898438</v>
+        <v>47.22127914428711</v>
       </c>
       <c r="Z26" s="1">
         <v>4715.78076171875</v>
@@ -3347,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="T27" s="1">
-        <v>22.57136917114258</v>
+        <v>22.57136726379395</v>
       </c>
       <c r="U27" s="1">
         <v>0</v>
@@ -3368,7 +3368,7 @@
         <v>81.18502044677734</v>
       </c>
       <c r="AA27" s="1">
-        <v>7522.73681640625</v>
+        <v>7522.736328125</v>
       </c>
       <c r="AB27" s="1">
         <v>0</v>
@@ -3383,7 +3383,7 @@
         <v>0</v>
       </c>
       <c r="AF27" s="1">
-        <v>7809.51708984375</v>
+        <v>7809.5166015625</v>
       </c>
       <c r="AG27" s="1">
         <v>234.2289123535156</v>
@@ -3392,7 +3392,7 @@
         <v>35.02033996582031</v>
       </c>
       <c r="AI27" s="1">
-        <v>8078.7666015625</v>
+        <v>8078.765625</v>
       </c>
     </row>
     <row r="28" spans="1:35">
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="Y28" s="1">
-        <v>44.47089767456055</v>
+        <v>44.47089385986328</v>
       </c>
       <c r="Z28" s="1">
         <v>0</v>
@@ -3662,7 +3662,7 @@
         <v>0</v>
       </c>
       <c r="R30" s="1">
-        <v>87.76699829101562</v>
+        <v>87.76698303222656</v>
       </c>
       <c r="S30" s="1">
         <v>0</v>
@@ -3683,7 +3683,7 @@
         <v>0</v>
       </c>
       <c r="Y30" s="1">
-        <v>0.09647408127784729</v>
+        <v>0.09647407382726669</v>
       </c>
       <c r="Z30" s="1">
         <v>0</v>
@@ -3870,19 +3870,19 @@
         <v>1061.46142578125</v>
       </c>
       <c r="P32" s="1">
-        <v>3911.5361328125</v>
+        <v>3911.53564453125</v>
       </c>
       <c r="Q32" s="1">
         <v>11220.41796875</v>
       </c>
       <c r="R32" s="1">
-        <v>15766.1337890625</v>
+        <v>15766.1318359375</v>
       </c>
       <c r="S32" s="1">
         <v>10641.4091796875</v>
       </c>
       <c r="T32" s="1">
-        <v>2961.988525390625</v>
+        <v>2961.98876953125</v>
       </c>
       <c r="U32" s="1">
         <v>13359.845703125</v>
@@ -3903,13 +3903,13 @@
         <v>4903.10009765625</v>
       </c>
       <c r="AA32" s="1">
-        <v>8576.1025390625</v>
+        <v>8576.1015625</v>
       </c>
       <c r="AB32" s="1">
         <v>4767.37841796875</v>
       </c>
       <c r="AC32" s="1">
-        <v>7972.32177734375</v>
+        <v>7972.322265625</v>
       </c>
       <c r="AD32" s="1">
         <v>4701.1142578125</v>
@@ -3921,13 +3921,13 @@
         <v>150608.5</v>
       </c>
       <c r="AG32" s="1">
-        <v>14366.4892578125</v>
+        <v>14366.4912109375</v>
       </c>
       <c r="AH32" s="1">
         <v>26402.78515625</v>
       </c>
       <c r="AI32" s="1">
-        <v>191377.765625</v>
+        <v>191377.734375</v>
       </c>
     </row>
   </sheetData>
@@ -4362,13 +4362,13 @@
         <v>116.9401626586914</v>
       </c>
       <c r="AG4" s="1">
-        <v>15.17712688446045</v>
+        <v>15.17717838287354</v>
       </c>
       <c r="AH4" s="1">
         <v>153.1015167236328</v>
       </c>
       <c r="AI4" s="1">
-        <v>285.2188110351562</v>
+        <v>285.2188720703125</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -5194,7 +5194,7 @@
         <v>0</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000481597613543272</v>
+        <v>0.0004815976426471025</v>
       </c>
       <c r="Z12" s="1">
         <v>0</v>
@@ -5494,10 +5494,10 @@
         <v>2.79967999458313</v>
       </c>
       <c r="R15" s="1">
-        <v>0.9336744546890259</v>
+        <v>0.9336743950843811</v>
       </c>
       <c r="S15" s="1">
-        <v>0.05657358095049858</v>
+        <v>0.05657357722520828</v>
       </c>
       <c r="T15" s="1">
         <v>0</v>
@@ -5515,7 +5515,7 @@
         <v>0</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.4854273498058319</v>
+        <v>0.4854273796081543</v>
       </c>
       <c r="Z15" s="1">
         <v>0.1088051423430443</v>
@@ -5542,7 +5542,7 @@
         <v>42.83951187133789</v>
       </c>
       <c r="AH15" s="1">
-        <v>72.10275268554688</v>
+        <v>72.10274505615234</v>
       </c>
       <c r="AI15" s="1">
         <v>368.6566162109375</v>
@@ -5646,7 +5646,7 @@
         <v>550.33154296875</v>
       </c>
       <c r="AG16" s="1">
-        <v>6.172348022460938</v>
+        <v>6.172359466552734</v>
       </c>
       <c r="AH16" s="1">
         <v>52.62837982177734</v>
@@ -5711,7 +5711,7 @@
         <v>1.059595227241516</v>
       </c>
       <c r="S17" s="1">
-        <v>1.750475764274597</v>
+        <v>1.750475645065308</v>
       </c>
       <c r="T17" s="1">
         <v>0</v>
@@ -5729,7 +5729,7 @@
         <v>0</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.2766992151737213</v>
+        <v>0.2766992449760437</v>
       </c>
       <c r="Z17" s="1">
         <v>0.8431116342544556</v>
@@ -5815,13 +5815,13 @@
         <v>0.3867993354797363</v>
       </c>
       <c r="R18" s="1">
-        <v>953.45263671875</v>
+        <v>953.4525756835938</v>
       </c>
       <c r="S18" s="1">
         <v>4.535057544708252</v>
       </c>
       <c r="T18" s="1">
-        <v>-3.358985122758895e-05</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
         <v>8.718704223632812</v>
@@ -5848,7 +5848,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="1">
-        <v>-0.0001037982146954164</v>
+        <v>0</v>
       </c>
       <c r="AD18" s="1">
         <v>2.075145959854126</v>
@@ -5857,16 +5857,16 @@
         <v>0</v>
       </c>
       <c r="AF18" s="1">
-        <v>1059.705322265625</v>
+        <v>1059.705444335938</v>
       </c>
       <c r="AG18" s="1">
-        <v>567.6068115234375</v>
+        <v>567.6044921875</v>
       </c>
       <c r="AH18" s="1">
         <v>27.56171417236328</v>
       </c>
       <c r="AI18" s="1">
-        <v>1654.873779296875</v>
+        <v>1654.87158203125</v>
       </c>
     </row>
     <row r="19" spans="1:35">
@@ -5880,7 +5880,7 @@
         <v>0</v>
       </c>
       <c r="D19" s="1">
-        <v>0.05675414204597473</v>
+        <v>0.05675413832068443</v>
       </c>
       <c r="E19" s="1">
         <v>0.9277424812316895</v>
@@ -5967,7 +5967,7 @@
         <v>630.2132568359375</v>
       </c>
       <c r="AG19" s="1">
-        <v>267.6869201660156</v>
+        <v>267.6868896484375</v>
       </c>
       <c r="AH19" s="1">
         <v>94.21691131591797</v>
@@ -6032,7 +6032,7 @@
         <v>0.7352142333984375</v>
       </c>
       <c r="S20" s="1">
-        <v>7.91529655456543</v>
+        <v>7.915296077728271</v>
       </c>
       <c r="T20" s="1">
         <v>244.8677673339844</v>
@@ -6062,7 +6062,7 @@
         <v>0.2519343793392181</v>
       </c>
       <c r="AC20" s="1">
-        <v>0.9356370568275452</v>
+        <v>0.9356371164321899</v>
       </c>
       <c r="AD20" s="1">
         <v>7.440925598144531</v>
@@ -6074,7 +6074,7 @@
         <v>296.0679931640625</v>
       </c>
       <c r="AG20" s="1">
-        <v>126.031494140625</v>
+        <v>126.0315017700195</v>
       </c>
       <c r="AH20" s="1">
         <v>12.85333919525146</v>
@@ -6136,7 +6136,7 @@
         <v>0.515440046787262</v>
       </c>
       <c r="R21" s="1">
-        <v>1.956610798835754</v>
+        <v>1.956610679626465</v>
       </c>
       <c r="S21" s="1">
         <v>0.2817504107952118</v>
@@ -6157,7 +6157,7 @@
         <v>0</v>
       </c>
       <c r="Y21" s="1">
-        <v>30.9796199798584</v>
+        <v>30.97962188720703</v>
       </c>
       <c r="Z21" s="1">
         <v>0.6148390173912048</v>
@@ -6169,7 +6169,7 @@
         <v>1.552757501602173</v>
       </c>
       <c r="AC21" s="1">
-        <v>0.2593556046485901</v>
+        <v>0.2593556344509125</v>
       </c>
       <c r="AD21" s="1">
         <v>0.3619880676269531</v>
@@ -6353,10 +6353,10 @@
         <v>18.97588157653809</v>
       </c>
       <c r="S23" s="1">
-        <v>5.572070121765137</v>
+        <v>5.572069644927979</v>
       </c>
       <c r="T23" s="1">
-        <v>1.990842580795288</v>
+        <v>1.990842461585999</v>
       </c>
       <c r="U23" s="1">
         <v>2.860812187194824</v>
@@ -6371,7 +6371,7 @@
         <v>5.254158020019531</v>
       </c>
       <c r="Y23" s="1">
-        <v>2.875968933105469</v>
+        <v>2.875969171524048</v>
       </c>
       <c r="Z23" s="1">
         <v>2.102428913116455</v>
@@ -6383,7 +6383,7 @@
         <v>1.328580021858215</v>
       </c>
       <c r="AC23" s="1">
-        <v>10.1203727722168</v>
+        <v>10.12037372589111</v>
       </c>
       <c r="AD23" s="1">
         <v>12.18440055847168</v>
@@ -6597,7 +6597,7 @@
         <v>53.38293075561523</v>
       </c>
       <c r="AC25" s="1">
-        <v>2.18456768989563</v>
+        <v>2.184567928314209</v>
       </c>
       <c r="AD25" s="1">
         <v>3.635031700134277</v>
@@ -6609,13 +6609,13 @@
         <v>920.3519287109375</v>
       </c>
       <c r="AG25" s="1">
-        <v>127.4178161621094</v>
+        <v>127.4177474975586</v>
       </c>
       <c r="AH25" s="1">
         <v>200.1342926025391</v>
       </c>
       <c r="AI25" s="1">
-        <v>1247.904052734375</v>
+        <v>1247.903930664062</v>
       </c>
     </row>
     <row r="26" spans="1:35">
@@ -6674,7 +6674,7 @@
         <v>2.030882596969604</v>
       </c>
       <c r="S26" s="1">
-        <v>1.857291221618652</v>
+        <v>1.857291102409363</v>
       </c>
       <c r="T26" s="1">
         <v>0</v>
@@ -6692,7 +6692,7 @@
         <v>0</v>
       </c>
       <c r="Y26" s="1">
-        <v>2.786209106445312</v>
+        <v>2.786209344863892</v>
       </c>
       <c r="Z26" s="1">
         <v>348.8227233886719</v>
@@ -6906,7 +6906,7 @@
         <v>0</v>
       </c>
       <c r="Y28" s="1">
-        <v>2.623927116394043</v>
+        <v>2.623927354812622</v>
       </c>
       <c r="Z28" s="1">
         <v>0</v>
@@ -7120,7 +7120,7 @@
         <v>0</v>
       </c>
       <c r="Y30" s="1">
-        <v>0.0056922840885818</v>
+        <v>0.005692284554243088</v>
       </c>
       <c r="Z30" s="1">
         <v>0</v>
@@ -7319,7 +7319,7 @@
         <v>642.4768676757812</v>
       </c>
       <c r="T32" s="1">
-        <v>251.2513427734375</v>
+        <v>251.2513732910156</v>
       </c>
       <c r="U32" s="1">
         <v>312.4915771484375</v>
@@ -7358,13 +7358,13 @@
         <v>14302.91015625</v>
       </c>
       <c r="AG32" s="1">
-        <v>3530.128173828125</v>
+        <v>3530.125732421875</v>
       </c>
       <c r="AH32" s="1">
         <v>2382.87255859375</v>
       </c>
       <c r="AI32" s="1">
-        <v>20215.9140625</v>
+        <v>20215.91015625</v>
       </c>
     </row>
   </sheetData>
@@ -7799,13 +7799,13 @@
         <v>90.42905426025391</v>
       </c>
       <c r="AG4" s="1">
-        <v>9.126571655273438</v>
+        <v>9.126559257507324</v>
       </c>
       <c r="AH4" s="1">
         <v>96.61472320556641</v>
       </c>
       <c r="AI4" s="1">
-        <v>196.1703491210938</v>
+        <v>196.1703338623047</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -8925,13 +8925,13 @@
         <v>144.045654296875</v>
       </c>
       <c r="P15" s="1">
-        <v>3.244311094284058</v>
+        <v>3.244311571121216</v>
       </c>
       <c r="Q15" s="1">
         <v>1.63349461555481</v>
       </c>
       <c r="R15" s="1">
-        <v>0.4834312796592712</v>
+        <v>0.4834312498569489</v>
       </c>
       <c r="S15" s="1">
         <v>0.03229815885424614</v>
@@ -8979,7 +8979,7 @@
         <v>21.39036750793457</v>
       </c>
       <c r="AH15" s="1">
-        <v>45.25912857055664</v>
+        <v>45.25913238525391</v>
       </c>
       <c r="AI15" s="1">
         <v>266.7005310058594</v>
@@ -9032,7 +9032,7 @@
         <v>0.0254780650138855</v>
       </c>
       <c r="P16" s="1">
-        <v>277.6742248535156</v>
+        <v>277.6742858886719</v>
       </c>
       <c r="Q16" s="1">
         <v>0</v>
@@ -9080,7 +9080,7 @@
         <v>0</v>
       </c>
       <c r="AF16" s="1">
-        <v>289.0144348144531</v>
+        <v>289.0144958496094</v>
       </c>
       <c r="AG16" s="1">
         <v>8.184735298156738</v>
@@ -9089,7 +9089,7 @@
         <v>34.99271392822266</v>
       </c>
       <c r="AI16" s="1">
-        <v>332.19189453125</v>
+        <v>332.1919555664062</v>
       </c>
     </row>
     <row r="17" spans="1:35">
@@ -9139,7 +9139,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>7.220127582550049</v>
+        <v>7.220128536224365</v>
       </c>
       <c r="Q17" s="1">
         <v>755.661865234375</v>
@@ -9252,13 +9252,13 @@
         <v>0.2256810218095779</v>
       </c>
       <c r="R18" s="1">
-        <v>493.6719055175781</v>
+        <v>493.671875</v>
       </c>
       <c r="S18" s="1">
         <v>2.589088678359985</v>
       </c>
       <c r="T18" s="1">
-        <v>-1.884493576653767e-05</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
         <v>6.385351657867432</v>
@@ -9285,7 +9285,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="1">
-        <v>-5.994565435685217e-05</v>
+        <v>0</v>
       </c>
       <c r="AD18" s="1">
         <v>1.519917368888855</v>
@@ -9294,16 +9294,16 @@
         <v>0</v>
       </c>
       <c r="AF18" s="1">
-        <v>569.7198486328125</v>
+        <v>569.7199096679688</v>
       </c>
       <c r="AG18" s="1">
-        <v>474.356689453125</v>
+        <v>474.3578796386719</v>
       </c>
       <c r="AH18" s="1">
         <v>16.52223968505859</v>
       </c>
       <c r="AI18" s="1">
-        <v>1060.598754882812</v>
+        <v>1060.60009765625</v>
       </c>
     </row>
     <row r="19" spans="1:35">
@@ -9404,7 +9404,7 @@
         <v>361.4049987792969</v>
       </c>
       <c r="AG19" s="1">
-        <v>222.1002807617188</v>
+        <v>222.1002502441406</v>
       </c>
       <c r="AH19" s="1">
         <v>59.45211791992188</v>
@@ -9499,7 +9499,7 @@
         <v>0.1754232048988342</v>
       </c>
       <c r="AC20" s="1">
-        <v>0.540350079536438</v>
+        <v>0.5403501391410828</v>
       </c>
       <c r="AD20" s="1">
         <v>5.450022220611572</v>
@@ -9511,7 +9511,7 @@
         <v>171.2147827148438</v>
       </c>
       <c r="AG20" s="1">
-        <v>96.51558685302734</v>
+        <v>96.51557922363281</v>
       </c>
       <c r="AH20" s="1">
         <v>8.118597030639648</v>
@@ -9567,13 +9567,13 @@
         <v>1.107001066207886</v>
       </c>
       <c r="P21" s="1">
-        <v>2.626127481460571</v>
+        <v>2.62612771987915</v>
       </c>
       <c r="Q21" s="1">
         <v>0.3007374405860901</v>
       </c>
       <c r="R21" s="1">
-        <v>1.01308000087738</v>
+        <v>1.013079881668091</v>
       </c>
       <c r="S21" s="1">
         <v>0.1608528196811676</v>
@@ -9606,7 +9606,7 @@
         <v>1.081193208694458</v>
       </c>
       <c r="AC21" s="1">
-        <v>0.1497833132743835</v>
+        <v>0.1497833281755447</v>
       </c>
       <c r="AD21" s="1">
         <v>0.2651340663433075</v>
@@ -9781,7 +9781,7 @@
         <v>0.6212422847747803</v>
       </c>
       <c r="P23" s="1">
-        <v>3.328471899032593</v>
+        <v>3.328472375869751</v>
       </c>
       <c r="Q23" s="1">
         <v>0.9269982576370239</v>
@@ -9793,7 +9793,7 @@
         <v>3.181124925613403</v>
       </c>
       <c r="T23" s="1">
-        <v>1.116923809051514</v>
+        <v>1.116923928260803</v>
       </c>
       <c r="U23" s="1">
         <v>2.095184326171875</v>
@@ -9820,7 +9820,7 @@
         <v>0.9250972867012024</v>
       </c>
       <c r="AC23" s="1">
-        <v>5.844728469848633</v>
+        <v>5.844728946685791</v>
       </c>
       <c r="AD23" s="1">
         <v>8.924325942993164</v>
@@ -9995,7 +9995,7 @@
         <v>6.25940465927124</v>
       </c>
       <c r="P25" s="1">
-        <v>21.18025207519531</v>
+        <v>21.18025398254395</v>
       </c>
       <c r="Q25" s="1">
         <v>1.818684458732605</v>
@@ -10007,7 +10007,7 @@
         <v>2.789310693740845</v>
       </c>
       <c r="T25" s="1">
-        <v>1.390312671661377</v>
+        <v>1.390312790870667</v>
       </c>
       <c r="U25" s="1">
         <v>25.22068786621094</v>
@@ -10034,7 +10034,7 @@
         <v>37.17081451416016</v>
       </c>
       <c r="AC25" s="1">
-        <v>1.261633634567261</v>
+        <v>1.26163375377655</v>
       </c>
       <c r="AD25" s="1">
         <v>2.662437915802002</v>
@@ -10046,7 +10046,7 @@
         <v>396.525390625</v>
       </c>
       <c r="AG25" s="1">
-        <v>216.1342620849609</v>
+        <v>216.1342468261719</v>
       </c>
       <c r="AH25" s="1">
         <v>116.5403366088867</v>
@@ -10462,7 +10462,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="1">
-        <v>826.0184326171875</v>
+        <v>826.0184936523438</v>
       </c>
       <c r="AD29" s="1">
         <v>0</v>
@@ -10471,16 +10471,16 @@
         <v>0</v>
       </c>
       <c r="AF29" s="1">
-        <v>830.9130859375</v>
+        <v>830.9131469726562</v>
       </c>
       <c r="AG29" s="1">
-        <v>2.999176740646362</v>
+        <v>2.99915623664856</v>
       </c>
       <c r="AH29" s="1">
         <v>0.2501632869243622</v>
       </c>
       <c r="AI29" s="1">
-        <v>834.1624145507812</v>
+        <v>834.1624755859375</v>
       </c>
     </row>
     <row r="30" spans="1:35">
@@ -10744,7 +10744,7 @@
         <v>163.0750885009766</v>
       </c>
       <c r="P32" s="1">
-        <v>315.2734985351562</v>
+        <v>315.2735900878906</v>
       </c>
       <c r="Q32" s="1">
         <v>760.6021728515625</v>
@@ -10756,7 +10756,7 @@
         <v>366.7935180664062</v>
       </c>
       <c r="T32" s="1">
-        <v>140.959716796875</v>
+        <v>140.9597320556641</v>
       </c>
       <c r="U32" s="1">
         <v>228.8606872558594</v>
@@ -10783,7 +10783,7 @@
         <v>413.1901245117188</v>
       </c>
       <c r="AC32" s="1">
-        <v>833.8148803710938</v>
+        <v>833.8150024414062</v>
       </c>
       <c r="AD32" s="1">
         <v>264.7118530273438</v>
@@ -10795,13 +10795,13 @@
         <v>8688.23046875</v>
       </c>
       <c r="AG32" s="1">
-        <v>2715.436279296875</v>
+        <v>2715.437255859375</v>
       </c>
       <c r="AH32" s="1">
         <v>1499.93896484375</v>
       </c>
       <c r="AI32" s="1">
-        <v>12903.6064453125</v>
+        <v>12903.607421875</v>
       </c>
     </row>
   </sheetData>
@@ -11042,7 +11042,7 @@
         <v>449.1205749511719</v>
       </c>
       <c r="D3" s="1">
-        <v>0.05304785817861557</v>
+        <v>0.05304784700274467</v>
       </c>
       <c r="E3" s="1">
         <v>0.06150256469845772</v>
@@ -11236,13 +11236,13 @@
         <v>49.15885162353516</v>
       </c>
       <c r="AG4" s="1">
-        <v>27.15221214294434</v>
+        <v>27.15218544006348</v>
       </c>
       <c r="AH4" s="1">
         <v>135.5769348144531</v>
       </c>
       <c r="AI4" s="1">
-        <v>211.8880004882812</v>
+        <v>211.8879699707031</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -11470,7 +11470,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>0.2156227082014084</v>
+        <v>0.215622678399086</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -11940,7 +11940,7 @@
         <v>0</v>
       </c>
       <c r="R11" s="1">
-        <v>0.1159789562225342</v>
+        <v>0.1159789487719536</v>
       </c>
       <c r="S11" s="1">
         <v>0</v>
@@ -12068,7 +12068,7 @@
         <v>0</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.0003877615963574499</v>
+        <v>0.0003877616254612803</v>
       </c>
       <c r="Z12" s="1">
         <v>0</v>
@@ -12112,7 +12112,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="1">
-        <v>0.1092849969863892</v>
+        <v>0.109284982085228</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
@@ -12309,7 +12309,7 @@
         <v>19.45138931274414</v>
       </c>
       <c r="AH14" s="1">
-        <v>207.3979797363281</v>
+        <v>207.3979949951172</v>
       </c>
       <c r="AI14" s="1">
         <v>393.9689331054688</v>
@@ -12326,7 +12326,7 @@
         <v>0</v>
       </c>
       <c r="D15" s="1">
-        <v>0.02513527683913708</v>
+        <v>0.02513527311384678</v>
       </c>
       <c r="E15" s="1">
         <v>0.1313504725694656</v>
@@ -12362,13 +12362,13 @@
         <v>171.2597351074219</v>
       </c>
       <c r="P15" s="1">
-        <v>5.11255407333374</v>
+        <v>5.112554550170898</v>
       </c>
       <c r="Q15" s="1">
         <v>2.661095857620239</v>
       </c>
       <c r="R15" s="1">
-        <v>0.841975212097168</v>
+        <v>0.8419750928878784</v>
       </c>
       <c r="S15" s="1">
         <v>0.05512147396802902</v>
@@ -12389,7 +12389,7 @@
         <v>0</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.3908451199531555</v>
+        <v>0.3908451497554779</v>
       </c>
       <c r="Z15" s="1">
         <v>0.1091024056077003</v>
@@ -12469,7 +12469,7 @@
         <v>0.03029155358672142</v>
       </c>
       <c r="P16" s="1">
-        <v>437.5735168457031</v>
+        <v>437.5735778808594</v>
       </c>
       <c r="Q16" s="1">
         <v>0</v>
@@ -12517,10 +12517,10 @@
         <v>0</v>
       </c>
       <c r="AF16" s="1">
-        <v>462.3971862792969</v>
+        <v>462.3972473144531</v>
       </c>
       <c r="AG16" s="1">
-        <v>31.48898315429688</v>
+        <v>31.48898696899414</v>
       </c>
       <c r="AH16" s="1">
         <v>61.14992904663086</v>
@@ -12540,7 +12540,7 @@
         <v>0.5238955616950989</v>
       </c>
       <c r="D17" s="1">
-        <v>0.4515458941459656</v>
+        <v>0.4515458345413208</v>
       </c>
       <c r="E17" s="1">
         <v>0</v>
@@ -12576,13 +12576,13 @@
         <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>11.37785243988037</v>
+        <v>11.377854347229</v>
       </c>
       <c r="Q17" s="1">
         <v>1231.034790039062</v>
       </c>
       <c r="R17" s="1">
-        <v>0.9555288553237915</v>
+        <v>0.9555287957191467</v>
       </c>
       <c r="S17" s="1">
         <v>1.70554518699646</v>
@@ -12603,7 +12603,7 @@
         <v>0</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.2227862477302551</v>
+        <v>0.2227862626314163</v>
       </c>
       <c r="Z17" s="1">
         <v>0.8454150557518005</v>
@@ -12689,13 +12689,13 @@
         <v>0.3676528036594391</v>
       </c>
       <c r="R18" s="1">
-        <v>859.8109130859375</v>
+        <v>859.810791015625</v>
       </c>
       <c r="S18" s="1">
         <v>4.41865348815918</v>
       </c>
       <c r="T18" s="1">
-        <v>-3.977185042458586e-05</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
         <v>16.83024787902832</v>
@@ -12710,7 +12710,7 @@
         <v>0</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.8077801465988159</v>
+        <v>0.8077802062034607</v>
       </c>
       <c r="Z18" s="1">
         <v>1.378620386123657</v>
@@ -12722,7 +12722,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="1">
-        <v>-9.508607035968453e-05</v>
+        <v>0</v>
       </c>
       <c r="AD18" s="1">
         <v>2.433960437774658</v>
@@ -12734,13 +12734,13 @@
         <v>1016.5205078125</v>
       </c>
       <c r="AG18" s="1">
-        <v>778.7778930664062</v>
+        <v>778.780029296875</v>
       </c>
       <c r="AH18" s="1">
         <v>38.59904098510742</v>
       </c>
       <c r="AI18" s="1">
-        <v>1833.8974609375</v>
+        <v>1833.899658203125</v>
       </c>
     </row>
     <row r="19" spans="1:35">
@@ -12754,7 +12754,7 @@
         <v>0</v>
       </c>
       <c r="D19" s="1">
-        <v>0.02257156930863857</v>
+        <v>0.02257156558334827</v>
       </c>
       <c r="E19" s="1">
         <v>0.602871835231781</v>
@@ -12903,13 +12903,13 @@
         <v>0</v>
       </c>
       <c r="R20" s="1">
-        <v>0.6630064845085144</v>
+        <v>0.6630064249038696</v>
       </c>
       <c r="S20" s="1">
         <v>7.712129592895508</v>
       </c>
       <c r="T20" s="1">
-        <v>289.9341735839844</v>
+        <v>289.9342041015625</v>
       </c>
       <c r="U20" s="1">
         <v>0</v>
@@ -12936,7 +12936,7 @@
         <v>0.3410357534885406</v>
       </c>
       <c r="AC20" s="1">
-        <v>0.8571057319641113</v>
+        <v>0.8571058511734009</v>
       </c>
       <c r="AD20" s="1">
         <v>8.7275390625</v>
@@ -12945,10 +12945,10 @@
         <v>0</v>
       </c>
       <c r="AF20" s="1">
-        <v>343.205810546875</v>
+        <v>343.2058410644531</v>
       </c>
       <c r="AG20" s="1">
-        <v>108.2204284667969</v>
+        <v>108.2204132080078</v>
       </c>
       <c r="AH20" s="1">
         <v>14.0343770980835</v>
@@ -13004,13 +13004,13 @@
         <v>1.316143274307251</v>
       </c>
       <c r="P21" s="1">
-        <v>4.138388156890869</v>
+        <v>4.138388633728027</v>
       </c>
       <c r="Q21" s="1">
         <v>0.4899258017539978</v>
       </c>
       <c r="R21" s="1">
-        <v>1.764445662498474</v>
+        <v>1.764445424079895</v>
       </c>
       <c r="S21" s="1">
         <v>0.2745185494422913</v>
@@ -13031,7 +13031,7 @@
         <v>0</v>
       </c>
       <c r="Y21" s="1">
-        <v>24.94345092773438</v>
+        <v>24.94345283508301</v>
       </c>
       <c r="Z21" s="1">
         <v>0.6165187954902649</v>
@@ -13043,7 +13043,7 @@
         <v>2.101920127868652</v>
       </c>
       <c r="AC21" s="1">
-        <v>0.2375869899988174</v>
+        <v>0.2375870198011398</v>
       </c>
       <c r="AD21" s="1">
         <v>0.4245795905590057</v>
@@ -13218,19 +13218,19 @@
         <v>0.7386115789413452</v>
       </c>
       <c r="P23" s="1">
-        <v>5.245179176330566</v>
+        <v>5.245179653167725</v>
       </c>
       <c r="Q23" s="1">
         <v>1.510155916213989</v>
       </c>
       <c r="R23" s="1">
-        <v>17.11219787597656</v>
+        <v>17.11219596862793</v>
       </c>
       <c r="S23" s="1">
         <v>5.429048538208008</v>
       </c>
       <c r="T23" s="1">
-        <v>2.357244729995728</v>
+        <v>2.357245206832886</v>
       </c>
       <c r="U23" s="1">
         <v>5.522400856018066</v>
@@ -13245,7 +13245,7 @@
         <v>5.879039287567139</v>
       </c>
       <c r="Y23" s="1">
-        <v>2.315606355667114</v>
+        <v>2.315606594085693</v>
       </c>
       <c r="Z23" s="1">
         <v>2.108172655105591</v>
@@ -13257,7 +13257,7 @@
         <v>1.798457860946655</v>
       </c>
       <c r="AC23" s="1">
-        <v>9.27093505859375</v>
+        <v>9.270936012268066</v>
       </c>
       <c r="AD23" s="1">
         <v>14.29121017456055</v>
@@ -13432,19 +13432,19 @@
         <v>7.44197416305542</v>
       </c>
       <c r="P25" s="1">
-        <v>33.37694549560547</v>
+        <v>33.37694931030273</v>
       </c>
       <c r="Q25" s="1">
         <v>2.962785482406616</v>
       </c>
       <c r="R25" s="1">
-        <v>38.17955017089844</v>
+        <v>38.17954635620117</v>
       </c>
       <c r="S25" s="1">
         <v>4.760360717773438</v>
       </c>
       <c r="T25" s="1">
-        <v>2.934226512908936</v>
+        <v>2.934226989746094</v>
       </c>
       <c r="U25" s="1">
         <v>66.47566223144531</v>
@@ -13459,7 +13459,7 @@
         <v>0</v>
       </c>
       <c r="Y25" s="1">
-        <v>420.7088012695312</v>
+        <v>420.7088317871094</v>
       </c>
       <c r="Z25" s="1">
         <v>2.560381412506104</v>
@@ -13471,7 +13471,7 @@
         <v>72.26282501220703</v>
       </c>
       <c r="AC25" s="1">
-        <v>2.001209020614624</v>
+        <v>2.001209259033203</v>
       </c>
       <c r="AD25" s="1">
         <v>4.263566493988037</v>
@@ -13483,7 +13483,7 @@
         <v>931.8458862304688</v>
       </c>
       <c r="AG25" s="1">
-        <v>269.5547180175781</v>
+        <v>269.5546875</v>
       </c>
       <c r="AH25" s="1">
         <v>238.9728240966797</v>
@@ -13545,7 +13545,7 @@
         <v>0.05656103417277336</v>
       </c>
       <c r="R26" s="1">
-        <v>1.831422924995422</v>
+        <v>1.831422805786133</v>
       </c>
       <c r="S26" s="1">
         <v>1.809619069099426</v>
@@ -13566,7 +13566,7 @@
         <v>0</v>
       </c>
       <c r="Y26" s="1">
-        <v>2.243335008621216</v>
+        <v>2.243335247039795</v>
       </c>
       <c r="Z26" s="1">
         <v>349.7757263183594</v>
@@ -13658,7 +13658,7 @@
         <v>0</v>
       </c>
       <c r="T27" s="1">
-        <v>2.266995429992676</v>
+        <v>2.266995906829834</v>
       </c>
       <c r="U27" s="1">
         <v>0</v>
@@ -13780,7 +13780,7 @@
         <v>0</v>
       </c>
       <c r="Y28" s="1">
-        <v>2.112672805786133</v>
+        <v>2.112673044204712</v>
       </c>
       <c r="Z28" s="1">
         <v>0</v>
@@ -13899,7 +13899,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="1">
-        <v>1310.234130859375</v>
+        <v>1310.234252929688</v>
       </c>
       <c r="AD29" s="1">
         <v>0</v>
@@ -13908,7 +13908,7 @@
         <v>0</v>
       </c>
       <c r="AF29" s="1">
-        <v>1317.953002929688</v>
+        <v>1317.953125</v>
       </c>
       <c r="AG29" s="1">
         <v>51.11895370483398</v>
@@ -13917,7 +13917,7 @@
         <v>0.4203374981880188</v>
       </c>
       <c r="AI29" s="1">
-        <v>1369.492309570312</v>
+        <v>1369.492431640625</v>
       </c>
     </row>
     <row r="30" spans="1:35">
@@ -13973,7 +13973,7 @@
         <v>0</v>
       </c>
       <c r="R30" s="1">
-        <v>5.157267570495605</v>
+        <v>5.157267093658447</v>
       </c>
       <c r="S30" s="1">
         <v>0</v>
@@ -13994,7 +13994,7 @@
         <v>0</v>
       </c>
       <c r="Y30" s="1">
-        <v>0.004583181347697973</v>
+        <v>0.004583181813359261</v>
       </c>
       <c r="Z30" s="1">
         <v>0</v>
@@ -14181,19 +14181,19 @@
         <v>193.8843231201172</v>
       </c>
       <c r="P32" s="1">
-        <v>496.8244323730469</v>
+        <v>496.8245239257812</v>
       </c>
       <c r="Q32" s="1">
         <v>1239.082885742188</v>
       </c>
       <c r="R32" s="1">
-        <v>926.432373046875</v>
+        <v>926.4322509765625</v>
       </c>
       <c r="S32" s="1">
         <v>625.9861450195312</v>
       </c>
       <c r="T32" s="1">
-        <v>297.4926147460938</v>
+        <v>297.49267578125</v>
       </c>
       <c r="U32" s="1">
         <v>603.2215576171875</v>
@@ -14208,7 +14208,7 @@
         <v>952.0607299804688</v>
       </c>
       <c r="Y32" s="1">
-        <v>453.750244140625</v>
+        <v>453.7502746582031</v>
       </c>
       <c r="Z32" s="1">
         <v>363.6694641113281</v>
@@ -14220,7 +14220,7 @@
         <v>803.2723388671875</v>
       </c>
       <c r="AC32" s="1">
-        <v>1322.600830078125</v>
+        <v>1322.60107421875</v>
       </c>
       <c r="AD32" s="1">
         <v>423.9034118652344</v>
@@ -14229,16 +14229,16 @@
         <v>20.91588973999023</v>
       </c>
       <c r="AF32" s="1">
-        <v>15198.072265625</v>
+        <v>15198.0732421875</v>
       </c>
       <c r="AG32" s="1">
-        <v>4635.80126953125</v>
+        <v>4635.8037109375</v>
       </c>
       <c r="AH32" s="1">
         <v>2840.342041015625</v>
       </c>
       <c r="AI32" s="1">
-        <v>22674.216796875</v>
+        <v>22674.21875</v>
       </c>
     </row>
   </sheetData>
@@ -14479,7 +14479,7 @@
         <v>217.5801696777344</v>
       </c>
       <c r="D3" s="1">
-        <v>0.1027322635054588</v>
+        <v>0.1027322560548782</v>
       </c>
       <c r="E3" s="1">
         <v>0.246649757027626</v>
@@ -14604,7 +14604,7 @@
         <v>0.87596595287323</v>
       </c>
       <c r="J4" s="1">
-        <v>0.8875433802604675</v>
+        <v>0.8875433206558228</v>
       </c>
       <c r="K4" s="1">
         <v>1.395474910736084</v>
@@ -14673,13 +14673,13 @@
         <v>87.68013763427734</v>
       </c>
       <c r="AG4" s="1">
-        <v>8.771932601928711</v>
+        <v>8.771918296813965</v>
       </c>
       <c r="AH4" s="1">
         <v>85.61212158203125</v>
       </c>
       <c r="AI4" s="1">
-        <v>182.0641937255859</v>
+        <v>182.0641784667969</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -14907,7 +14907,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>0.4175740480422974</v>
+        <v>0.417574018239975</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -15353,7 +15353,7 @@
         <v>0.5869106650352478</v>
       </c>
       <c r="J11" s="1">
-        <v>0.9681981205940247</v>
+        <v>0.9681980609893799</v>
       </c>
       <c r="K11" s="1">
         <v>772.3245849609375</v>
@@ -15377,7 +15377,7 @@
         <v>0</v>
       </c>
       <c r="R11" s="1">
-        <v>0.109347015619278</v>
+        <v>0.1093470007181168</v>
       </c>
       <c r="S11" s="1">
         <v>0</v>
@@ -15549,7 +15549,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="1">
-        <v>0.211640864610672</v>
+        <v>0.2116408497095108</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
@@ -15567,7 +15567,7 @@
         <v>0.1333646774291992</v>
       </c>
       <c r="J13" s="1">
-        <v>0.4494180977344513</v>
+        <v>0.4494180679321289</v>
       </c>
       <c r="K13" s="1">
         <v>13.94174098968506</v>
@@ -15763,7 +15763,7 @@
         <v>0</v>
       </c>
       <c r="D15" s="1">
-        <v>0.04867687076330185</v>
+        <v>0.04867686703801155</v>
       </c>
       <c r="E15" s="1">
         <v>0.5267676115036011</v>
@@ -15781,7 +15781,7 @@
         <v>3.424807071685791</v>
       </c>
       <c r="J15" s="1">
-        <v>0.2324057221412659</v>
+        <v>0.2324057072401047</v>
       </c>
       <c r="K15" s="1">
         <v>5.495470523834229</v>
@@ -15799,13 +15799,13 @@
         <v>140.4103698730469</v>
       </c>
       <c r="P15" s="1">
-        <v>3.487533807754517</v>
+        <v>3.487534284591675</v>
       </c>
       <c r="Q15" s="1">
         <v>1.903228282928467</v>
       </c>
       <c r="R15" s="1">
-        <v>0.793829083442688</v>
+        <v>0.7938290238380432</v>
       </c>
       <c r="S15" s="1">
         <v>0.05217402055859566</v>
@@ -15853,7 +15853,7 @@
         <v>44.47470474243164</v>
       </c>
       <c r="AH15" s="1">
-        <v>53.23098754882812</v>
+        <v>53.23097991943359</v>
       </c>
       <c r="AI15" s="1">
         <v>286.1456298828125</v>
@@ -15906,7 +15906,7 @@
         <v>0.02483507059514523</v>
       </c>
       <c r="P16" s="1">
-        <v>298.4911804199219</v>
+        <v>298.4912109375</v>
       </c>
       <c r="Q16" s="1">
         <v>0</v>
@@ -15954,10 +15954,10 @@
         <v>0</v>
       </c>
       <c r="AF16" s="1">
-        <v>302.9930725097656</v>
+        <v>302.9931030273438</v>
       </c>
       <c r="AG16" s="1">
-        <v>76.75758361816406</v>
+        <v>76.75759124755859</v>
       </c>
       <c r="AH16" s="1">
         <v>47.74596786499023</v>
@@ -15977,7 +15977,7 @@
         <v>0.2538055181503296</v>
       </c>
       <c r="D17" s="1">
-        <v>0.8744618892669678</v>
+        <v>0.874461829662323</v>
       </c>
       <c r="E17" s="1">
         <v>0</v>
@@ -15995,7 +15995,7 @@
         <v>0</v>
       </c>
       <c r="J17" s="1">
-        <v>0.2252478897571564</v>
+        <v>0.2252478748559952</v>
       </c>
       <c r="K17" s="1">
         <v>5.521886348724365</v>
@@ -16013,13 +16013,13 @@
         <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>7.76141357421875</v>
+        <v>7.761414527893066</v>
       </c>
       <c r="Q17" s="1">
         <v>880.44189453125</v>
       </c>
       <c r="R17" s="1">
-        <v>0.9008895754814148</v>
+        <v>0.9008894562721252</v>
       </c>
       <c r="S17" s="1">
         <v>1.614346385002136</v>
@@ -16040,7 +16040,7 @@
         <v>0</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.0941527783870697</v>
+        <v>0.0941527858376503</v>
       </c>
       <c r="Z17" s="1">
         <v>0.3367060422897339</v>
@@ -16102,7 +16102,7 @@
         <v>1.049556732177734</v>
       </c>
       <c r="J18" s="1">
-        <v>0.9570607542991638</v>
+        <v>0.957060694694519</v>
       </c>
       <c r="K18" s="1">
         <v>8.395737648010254</v>
@@ -16126,13 +16126,13 @@
         <v>0.2629470229148865</v>
       </c>
       <c r="R18" s="1">
-        <v>810.6449584960938</v>
+        <v>810.6448974609375</v>
       </c>
       <c r="S18" s="1">
         <v>4.182379245758057</v>
       </c>
       <c r="T18" s="1">
-        <v>-2.052326271950733e-05</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
         <v>3.857659339904785</v>
@@ -16159,7 +16159,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="1">
-        <v>-7.348955841735005e-05</v>
+        <v>0</v>
       </c>
       <c r="AD18" s="1">
         <v>1.60935652256012</v>
@@ -16171,13 +16171,13 @@
         <v>896.6669311523438</v>
       </c>
       <c r="AG18" s="1">
-        <v>494.2831420898438</v>
+        <v>494.2828369140625</v>
       </c>
       <c r="AH18" s="1">
         <v>17.63202285766602</v>
       </c>
       <c r="AI18" s="1">
-        <v>1408.58203125</v>
+        <v>1408.581787109375</v>
       </c>
     </row>
     <row r="19" spans="1:35">
@@ -16191,7 +16191,7 @@
         <v>0</v>
       </c>
       <c r="D19" s="1">
-        <v>0.04371200501918793</v>
+        <v>0.04371200129389763</v>
       </c>
       <c r="E19" s="1">
         <v>2.417755842208862</v>
@@ -16278,7 +16278,7 @@
         <v>578.8775634765625</v>
       </c>
       <c r="AG19" s="1">
-        <v>129.4872131347656</v>
+        <v>129.4872283935547</v>
       </c>
       <c r="AH19" s="1">
         <v>72.01252746582031</v>
@@ -16340,13 +16340,13 @@
         <v>0</v>
       </c>
       <c r="R20" s="1">
-        <v>0.6250941753387451</v>
+        <v>0.6250941157341003</v>
       </c>
       <c r="S20" s="1">
         <v>7.299746990203857</v>
       </c>
       <c r="T20" s="1">
-        <v>149.6132202148438</v>
+        <v>149.6132354736328</v>
       </c>
       <c r="U20" s="1">
         <v>0</v>
@@ -16373,7 +16373,7 @@
         <v>0.1770935952663422</v>
       </c>
       <c r="AC20" s="1">
-        <v>0.6624348759651184</v>
+        <v>0.6624349355697632</v>
       </c>
       <c r="AD20" s="1">
         <v>5.770727634429932</v>
@@ -16382,16 +16382,16 @@
         <v>0</v>
       </c>
       <c r="AF20" s="1">
-        <v>190.4352874755859</v>
+        <v>190.435302734375</v>
       </c>
       <c r="AG20" s="1">
-        <v>127.183837890625</v>
+        <v>127.1838150024414</v>
       </c>
       <c r="AH20" s="1">
         <v>9.667656898498535</v>
       </c>
       <c r="AI20" s="1">
-        <v>327.2868041992188</v>
+        <v>327.2867736816406</v>
       </c>
     </row>
     <row r="21" spans="1:35">
@@ -16423,7 +16423,7 @@
         <v>0.2657779455184937</v>
       </c>
       <c r="J21" s="1">
-        <v>0.4473252892494202</v>
+        <v>0.4473252594470978</v>
       </c>
       <c r="K21" s="1">
         <v>1.525936007499695</v>
@@ -16441,13 +16441,13 @@
         <v>1.079063773155212</v>
       </c>
       <c r="P21" s="1">
-        <v>2.823005676269531</v>
+        <v>2.82300591468811</v>
       </c>
       <c r="Q21" s="1">
         <v>0.3503972887992859</v>
       </c>
       <c r="R21" s="1">
-        <v>1.663550496101379</v>
+        <v>1.66355037689209</v>
       </c>
       <c r="S21" s="1">
         <v>0.2598395049571991</v>
@@ -16480,7 +16480,7 @@
         <v>1.091488361358643</v>
       </c>
       <c r="AC21" s="1">
-        <v>0.1836248338222504</v>
+        <v>0.1836248487234116</v>
       </c>
       <c r="AD21" s="1">
         <v>0.2807358503341675</v>
@@ -16655,19 +16655,19 @@
         <v>0.6055638790130615</v>
       </c>
       <c r="P23" s="1">
-        <v>3.578004121780396</v>
+        <v>3.578004598617554</v>
       </c>
       <c r="Q23" s="1">
         <v>1.080070614814758</v>
       </c>
       <c r="R23" s="1">
-        <v>16.1336841583252</v>
+        <v>16.13368225097656</v>
       </c>
       <c r="S23" s="1">
         <v>5.138746738433838</v>
       </c>
       <c r="T23" s="1">
-        <v>1.216396689414978</v>
+        <v>1.216396927833557</v>
       </c>
       <c r="U23" s="1">
         <v>1.265789031982422</v>
@@ -16682,7 +16682,7 @@
         <v>4.193728923797607</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.978609561920166</v>
+        <v>0.9786096215248108</v>
       </c>
       <c r="Z23" s="1">
         <v>0.8396285176277161</v>
@@ -16694,7 +16694,7 @@
         <v>0.9339061379432678</v>
       </c>
       <c r="AC23" s="1">
-        <v>7.165265560150146</v>
+        <v>7.165266513824463</v>
       </c>
       <c r="AD23" s="1">
         <v>9.44947624206543</v>
@@ -16869,19 +16869,19 @@
         <v>6.10143518447876</v>
       </c>
       <c r="P25" s="1">
-        <v>22.76811599731445</v>
+        <v>22.76811790466309</v>
       </c>
       <c r="Q25" s="1">
         <v>2.118998289108276</v>
       </c>
       <c r="R25" s="1">
-        <v>35.99635314941406</v>
+        <v>35.9963493347168</v>
       </c>
       <c r="S25" s="1">
         <v>4.505815029144287</v>
       </c>
       <c r="T25" s="1">
-        <v>1.51413369178772</v>
+        <v>1.514133930206299</v>
       </c>
       <c r="U25" s="1">
         <v>15.23687934875488</v>
@@ -16908,7 +16908,7 @@
         <v>37.52475357055664</v>
       </c>
       <c r="AC25" s="1">
-        <v>1.546682834625244</v>
+        <v>1.546682953834534</v>
       </c>
       <c r="AD25" s="1">
         <v>2.819108724594116</v>
@@ -16920,7 +16920,7 @@
         <v>479.2300720214844</v>
       </c>
       <c r="AG25" s="1">
-        <v>252.3819580078125</v>
+        <v>252.3818969726562</v>
       </c>
       <c r="AH25" s="1">
         <v>142.8997039794922</v>
@@ -16982,7 +16982,7 @@
         <v>0.04045271873474121</v>
       </c>
       <c r="R26" s="1">
-        <v>1.72669792175293</v>
+        <v>1.726697683334351</v>
       </c>
       <c r="S26" s="1">
         <v>1.712855100631714</v>
@@ -17003,7 +17003,7 @@
         <v>0</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.9480667114257812</v>
+        <v>0.948066771030426</v>
       </c>
       <c r="Z26" s="1">
         <v>139.3062591552734</v>
@@ -17095,7 +17095,7 @@
         <v>0</v>
       </c>
       <c r="T27" s="1">
-        <v>1.169825792312622</v>
+        <v>1.169826030731201</v>
       </c>
       <c r="U27" s="1">
         <v>0</v>
@@ -17217,7 +17217,7 @@
         <v>0</v>
       </c>
       <c r="Y28" s="1">
-        <v>0.8928468823432922</v>
+        <v>0.892846941947937</v>
       </c>
       <c r="Z28" s="1">
         <v>0</v>
@@ -17336,7 +17336,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="1">
-        <v>1012.646118164062</v>
+        <v>1012.646240234375</v>
       </c>
       <c r="AD29" s="1">
         <v>0</v>
@@ -17345,16 +17345,16 @@
         <v>0</v>
       </c>
       <c r="AF29" s="1">
-        <v>1017.396240234375</v>
+        <v>1017.396362304688</v>
       </c>
       <c r="AG29" s="1">
-        <v>1.443711400032043</v>
+        <v>1.443709135055542</v>
       </c>
       <c r="AH29" s="1">
         <v>0.2933024168014526</v>
       </c>
       <c r="AI29" s="1">
-        <v>1019.133239746094</v>
+        <v>1019.133361816406</v>
       </c>
     </row>
     <row r="30" spans="1:35">
@@ -17410,7 +17410,7 @@
         <v>0</v>
       </c>
       <c r="R30" s="1">
-        <v>4.862363338470459</v>
+        <v>4.862362861633301</v>
       </c>
       <c r="S30" s="1">
         <v>0</v>
@@ -17431,7 +17431,7 @@
         <v>0</v>
       </c>
       <c r="Y30" s="1">
-        <v>0.001936920336447656</v>
+        <v>0.001936920452862978</v>
       </c>
       <c r="Z30" s="1">
         <v>0</v>
@@ -17618,19 +17618,19 @@
         <v>158.9595642089844</v>
       </c>
       <c r="P32" s="1">
-        <v>338.9092712402344</v>
+        <v>338.9093017578125</v>
       </c>
       <c r="Q32" s="1">
         <v>886.197998046875</v>
       </c>
       <c r="R32" s="1">
-        <v>873.456787109375</v>
+        <v>873.4567260742188</v>
       </c>
       <c r="S32" s="1">
         <v>592.5132446289062</v>
       </c>
       <c r="T32" s="1">
-        <v>153.5135650634766</v>
+        <v>153.5135955810547</v>
       </c>
       <c r="U32" s="1">
         <v>138.2643737792969</v>
@@ -17657,7 +17657,7 @@
         <v>417.1245422363281</v>
       </c>
       <c r="AC32" s="1">
-        <v>1022.204040527344</v>
+        <v>1022.204223632812</v>
       </c>
       <c r="AD32" s="1">
         <v>280.2887573242188</v>
@@ -17669,13 +17669,13 @@
         <v>11206.77734375</v>
       </c>
       <c r="AG32" s="1">
-        <v>3508.106201171875</v>
+        <v>3508.105712890625</v>
       </c>
       <c r="AH32" s="1">
         <v>1829.735473632812</v>
       </c>
       <c r="AI32" s="1">
-        <v>16544.6171875</v>
+        <v>16544.619140625</v>
       </c>
     </row>
   </sheetData>
@@ -17899,7 +17899,7 @@
         <v>19.74773406982422</v>
       </c>
       <c r="AH2" s="1">
-        <v>50.6154899597168</v>
+        <v>50.61548614501953</v>
       </c>
       <c r="AI2" s="1">
         <v>460.8336486816406</v>
@@ -18110,13 +18110,13 @@
         <v>32.40876388549805</v>
       </c>
       <c r="AG4" s="1">
-        <v>52.65558624267578</v>
+        <v>52.65555953979492</v>
       </c>
       <c r="AH4" s="1">
         <v>164.1985015869141</v>
       </c>
       <c r="AI4" s="1">
-        <v>249.2628631591797</v>
+        <v>249.2628326416016</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -18463,7 +18463,7 @@
         <v>0.009570743888616562</v>
       </c>
       <c r="H8" s="1">
-        <v>635.65185546875</v>
+        <v>635.6517944335938</v>
       </c>
       <c r="I8" s="1">
         <v>2.139662742614746</v>
@@ -18535,7 +18535,7 @@
         <v>0</v>
       </c>
       <c r="AF8" s="1">
-        <v>638.0294799804688</v>
+        <v>638.0294189453125</v>
       </c>
       <c r="AG8" s="1">
         <v>199.8611755371094</v>
@@ -18544,7 +18544,7 @@
         <v>52.73478317260742</v>
       </c>
       <c r="AI8" s="1">
-        <v>890.6254272460938</v>
+        <v>890.6253662109375</v>
       </c>
     </row>
     <row r="9" spans="1:35">
@@ -18784,7 +18784,7 @@
         <v>0.1555092185735703</v>
       </c>
       <c r="H11" s="1">
-        <v>2.592976570129395</v>
+        <v>2.592976331710815</v>
       </c>
       <c r="I11" s="1">
         <v>2.68260669708252</v>
@@ -18814,7 +18814,7 @@
         <v>0</v>
       </c>
       <c r="R11" s="1">
-        <v>0.0849456861615181</v>
+        <v>0.0849456787109375</v>
       </c>
       <c r="S11" s="1">
         <v>0</v>
@@ -18942,7 +18942,7 @@
         <v>0</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.0003199692000634968</v>
+        <v>0.0003199692291673273</v>
       </c>
       <c r="Z12" s="1">
         <v>0</v>
@@ -19183,7 +19183,7 @@
         <v>14.57342338562012</v>
       </c>
       <c r="AH14" s="1">
-        <v>221.9556274414062</v>
+        <v>221.9556579589844</v>
       </c>
       <c r="AI14" s="1">
         <v>519.745361328125</v>
@@ -19242,7 +19242,7 @@
         <v>2.049760818481445</v>
       </c>
       <c r="R15" s="1">
-        <v>0.6166822910308838</v>
+        <v>0.616682231426239</v>
       </c>
       <c r="S15" s="1">
         <v>0.04558853060007095</v>
@@ -19263,7 +19263,7 @@
         <v>0</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.322513610124588</v>
+        <v>0.3225136399269104</v>
       </c>
       <c r="Z15" s="1">
         <v>0.06795182079076767</v>
@@ -19394,7 +19394,7 @@
         <v>666.1829833984375</v>
       </c>
       <c r="AG16" s="1">
-        <v>2.293194055557251</v>
+        <v>2.293205261230469</v>
       </c>
       <c r="AH16" s="1">
         <v>53.62383651733398</v>
@@ -19456,7 +19456,7 @@
         <v>948.228515625</v>
       </c>
       <c r="R17" s="1">
-        <v>0.6998515725135803</v>
+        <v>0.6998515129089355</v>
       </c>
       <c r="S17" s="1">
         <v>1.410580992698669</v>
@@ -19477,7 +19477,7 @@
         <v>0</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.1838364899158478</v>
+        <v>0.183836504817009</v>
       </c>
       <c r="Z17" s="1">
         <v>0.5265465974807739</v>
@@ -19533,7 +19533,7 @@
         <v>1.045870661735535</v>
       </c>
       <c r="H18" s="1">
-        <v>40.74393081665039</v>
+        <v>40.74392700195312</v>
       </c>
       <c r="I18" s="1">
         <v>4.797233581542969</v>
@@ -19563,13 +19563,13 @@
         <v>0.2831917405128479</v>
       </c>
       <c r="R18" s="1">
-        <v>629.7455444335938</v>
+        <v>629.7454833984375</v>
       </c>
       <c r="S18" s="1">
         <v>3.654472827911377</v>
       </c>
       <c r="T18" s="1">
-        <v>-2.259590110043064e-05</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
         <v>10.20207595825195</v>
@@ -19584,7 +19584,7 @@
         <v>0</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.6665558218955994</v>
+        <v>0.6665558815002441</v>
       </c>
       <c r="Z18" s="1">
         <v>0.8586406707763672</v>
@@ -19596,7 +19596,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="1">
-        <v>-6.51780646876432e-05</v>
+        <v>0</v>
       </c>
       <c r="AD18" s="1">
         <v>1.653079152107239</v>
@@ -19608,13 +19608,13 @@
         <v>801.0138549804688</v>
       </c>
       <c r="AG18" s="1">
-        <v>929.6476440429688</v>
+        <v>929.6461181640625</v>
       </c>
       <c r="AH18" s="1">
         <v>33.61351013183594</v>
       </c>
       <c r="AI18" s="1">
-        <v>1764.275024414062</v>
+        <v>1764.2734375</v>
       </c>
     </row>
     <row r="19" spans="1:35">
@@ -19715,7 +19715,7 @@
         <v>518.63134765625</v>
       </c>
       <c r="AG19" s="1">
-        <v>459.4043579101562</v>
+        <v>459.404296875</v>
       </c>
       <c r="AH19" s="1">
         <v>107.02197265625</v>
@@ -19777,13 +19777,13 @@
         <v>0</v>
       </c>
       <c r="R20" s="1">
-        <v>0.4856013357639313</v>
+        <v>0.4856013059616089</v>
       </c>
       <c r="S20" s="1">
         <v>6.378361225128174</v>
       </c>
       <c r="T20" s="1">
-        <v>164.7226257324219</v>
+        <v>164.7225799560547</v>
       </c>
       <c r="U20" s="1">
         <v>0</v>
@@ -19810,7 +19810,7 @@
         <v>0.1942633837461472</v>
       </c>
       <c r="AC20" s="1">
-        <v>0.5875150561332703</v>
+        <v>0.587515115737915</v>
       </c>
       <c r="AD20" s="1">
         <v>5.927505493164062</v>
@@ -19819,10 +19819,10 @@
         <v>0</v>
       </c>
       <c r="AF20" s="1">
-        <v>203.6225433349609</v>
+        <v>203.6224975585938</v>
       </c>
       <c r="AG20" s="1">
-        <v>118.1195831298828</v>
+        <v>118.11962890625</v>
       </c>
       <c r="AH20" s="1">
         <v>9.817350387573242</v>
@@ -19854,7 +19854,7 @@
         <v>0.08198484033346176</v>
       </c>
       <c r="H21" s="1">
-        <v>0.623973548412323</v>
+        <v>0.6239734888076782</v>
       </c>
       <c r="I21" s="1">
         <v>1.214797496795654</v>
@@ -19884,7 +19884,7 @@
         <v>0.3773749172687531</v>
       </c>
       <c r="R21" s="1">
-        <v>1.292320966720581</v>
+        <v>1.292320847511292</v>
       </c>
       <c r="S21" s="1">
         <v>0.2270421534776688</v>
@@ -19905,7 +19905,7 @@
         <v>0</v>
       </c>
       <c r="Y21" s="1">
-        <v>20.58258438110352</v>
+        <v>20.58258628845215</v>
       </c>
       <c r="Z21" s="1">
         <v>0.3839839696884155</v>
@@ -19917,7 +19917,7 @@
         <v>1.197311520576477</v>
       </c>
       <c r="AC21" s="1">
-        <v>0.1628572940826416</v>
+        <v>0.1628573089838028</v>
       </c>
       <c r="AD21" s="1">
         <v>0.2883628010749817</v>
@@ -20098,13 +20098,13 @@
         <v>1.163226962089539</v>
       </c>
       <c r="R23" s="1">
-        <v>12.53337097167969</v>
+        <v>12.53337001800537</v>
       </c>
       <c r="S23" s="1">
         <v>4.49012565612793</v>
       </c>
       <c r="T23" s="1">
-        <v>1.339240312576294</v>
+        <v>1.339239954948425</v>
       </c>
       <c r="U23" s="1">
         <v>3.347541570663452</v>
@@ -20119,7 +20119,7 @@
         <v>4.349514007568359</v>
       </c>
       <c r="Y23" s="1">
-        <v>1.910768389701843</v>
+        <v>1.910768508911133</v>
       </c>
       <c r="Z23" s="1">
         <v>1.313024878501892</v>
@@ -20131,7 +20131,7 @@
         <v>1.02445113658905</v>
       </c>
       <c r="AC23" s="1">
-        <v>6.3548903465271</v>
+        <v>6.354891300201416</v>
       </c>
       <c r="AD23" s="1">
         <v>9.706197738647461</v>
@@ -20282,7 +20282,7 @@
         <v>2.377633571624756</v>
       </c>
       <c r="H25" s="1">
-        <v>20.27594566345215</v>
+        <v>20.27594375610352</v>
       </c>
       <c r="I25" s="1">
         <v>15.91733646392822</v>
@@ -20312,13 +20312,13 @@
         <v>2.282143115997314</v>
       </c>
       <c r="R25" s="1">
-        <v>27.96358871459961</v>
+        <v>27.96358680725098</v>
       </c>
       <c r="S25" s="1">
         <v>3.937083959579468</v>
       </c>
       <c r="T25" s="1">
-        <v>1.667045474052429</v>
+        <v>1.667045116424561</v>
       </c>
       <c r="U25" s="1">
         <v>40.29588317871094</v>
@@ -20333,7 +20333,7 @@
         <v>0</v>
       </c>
       <c r="Y25" s="1">
-        <v>347.1562194824219</v>
+        <v>347.15625</v>
       </c>
       <c r="Z25" s="1">
         <v>1.594672203063965</v>
@@ -20345,7 +20345,7 @@
         <v>41.16289520263672</v>
       </c>
       <c r="AC25" s="1">
-        <v>1.371756434440613</v>
+        <v>1.371756553649902</v>
       </c>
       <c r="AD25" s="1">
         <v>2.895697593688965</v>
@@ -20357,13 +20357,13 @@
         <v>954.986328125</v>
       </c>
       <c r="AG25" s="1">
-        <v>362.9044494628906</v>
+        <v>362.9043579101562</v>
       </c>
       <c r="AH25" s="1">
         <v>269.8875122070312</v>
       </c>
       <c r="AI25" s="1">
-        <v>1587.7783203125</v>
+        <v>1587.778198242188</v>
       </c>
     </row>
     <row r="26" spans="1:35">
@@ -20419,7 +20419,7 @@
         <v>0.0435672365128994</v>
       </c>
       <c r="R26" s="1">
-        <v>1.341376781463623</v>
+        <v>1.341376662254333</v>
       </c>
       <c r="S26" s="1">
         <v>1.496655821800232</v>
@@ -20440,7 +20440,7 @@
         <v>0</v>
       </c>
       <c r="Y26" s="1">
-        <v>1.85113251209259</v>
+        <v>1.85113263130188</v>
       </c>
       <c r="Z26" s="1">
         <v>217.8494415283203</v>
@@ -20532,7 +20532,7 @@
         <v>0</v>
       </c>
       <c r="T27" s="1">
-        <v>1.287966251373291</v>
+        <v>1.287966012954712</v>
       </c>
       <c r="U27" s="1">
         <v>0</v>
@@ -20654,7 +20654,7 @@
         <v>0</v>
       </c>
       <c r="Y28" s="1">
-        <v>1.743313908576965</v>
+        <v>1.743314027786255</v>
       </c>
       <c r="Z28" s="1">
         <v>0</v>
@@ -20773,7 +20773,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="1">
-        <v>898.1181030273438</v>
+        <v>898.1181640625</v>
       </c>
       <c r="AD29" s="1">
         <v>0</v>
@@ -20782,16 +20782,16 @@
         <v>0</v>
       </c>
       <c r="AF29" s="1">
-        <v>903.017822265625</v>
+        <v>903.0178833007812</v>
       </c>
       <c r="AG29" s="1">
-        <v>10.92758369445801</v>
+        <v>10.92754554748535</v>
       </c>
       <c r="AH29" s="1">
         <v>0.2793991267681122</v>
       </c>
       <c r="AI29" s="1">
-        <v>914.2247924804688</v>
+        <v>914.224853515625</v>
       </c>
     </row>
     <row r="30" spans="1:35">
@@ -20847,7 +20847,7 @@
         <v>0</v>
       </c>
       <c r="R30" s="1">
-        <v>3.777302742004395</v>
+        <v>3.777302503585815</v>
       </c>
       <c r="S30" s="1">
         <v>0</v>
@@ -20868,7 +20868,7 @@
         <v>0</v>
       </c>
       <c r="Y30" s="1">
-        <v>0.003781903069466352</v>
+        <v>0.003781903302296996</v>
       </c>
       <c r="Z30" s="1">
         <v>0</v>
@@ -21031,7 +21031,7 @@
         <v>115.7206115722656</v>
       </c>
       <c r="H32" s="1">
-        <v>735.8289184570312</v>
+        <v>735.828857421875</v>
       </c>
       <c r="I32" s="1">
         <v>428.5447692871094</v>
@@ -21061,13 +21061,13 @@
         <v>954.4277954101562</v>
       </c>
       <c r="R32" s="1">
-        <v>678.54052734375</v>
+        <v>678.5404663085938</v>
       </c>
       <c r="S32" s="1">
         <v>517.725341796875</v>
       </c>
       <c r="T32" s="1">
-        <v>169.016845703125</v>
+        <v>169.0168151855469</v>
       </c>
       <c r="U32" s="1">
         <v>365.6578979492188</v>
@@ -21082,7 +21082,7 @@
         <v>704.366943359375</v>
       </c>
       <c r="Y32" s="1">
-        <v>374.4210205078125</v>
+        <v>374.4210510253906</v>
       </c>
       <c r="Z32" s="1">
         <v>226.5028228759766</v>
@@ -21094,7 +21094,7 @@
         <v>457.5660400390625</v>
       </c>
       <c r="AC32" s="1">
-        <v>906.5950317382812</v>
+        <v>906.59521484375</v>
       </c>
       <c r="AD32" s="1">
         <v>287.903564453125</v>
@@ -21106,13 +21106,13 @@
         <v>13585.337890625</v>
       </c>
       <c r="AG32" s="1">
-        <v>5070.10498046875</v>
+        <v>5070.103515625</v>
       </c>
       <c r="AH32" s="1">
         <v>3134.723876953125</v>
       </c>
       <c r="AI32" s="1">
-        <v>21790.16796875</v>
+        <v>21790.1640625</v>
       </c>
     </row>
   </sheetData>
@@ -21353,7 +21353,7 @@
         <v>71.4158935546875</v>
       </c>
       <c r="D3" s="1">
-        <v>0.01584388315677643</v>
+        <v>0.01584388501942158</v>
       </c>
       <c r="E3" s="1">
         <v>0.02456750348210335</v>
@@ -22251,7 +22251,7 @@
         <v>0</v>
       </c>
       <c r="R11" s="1">
-        <v>0.04399499297142029</v>
+        <v>0.04399498924612999</v>
       </c>
       <c r="S11" s="1">
         <v>0</v>
@@ -22620,10 +22620,10 @@
         <v>27.90016937255859</v>
       </c>
       <c r="AH14" s="1">
-        <v>89.20161437988281</v>
+        <v>89.20162200927734</v>
       </c>
       <c r="AI14" s="1">
-        <v>174.6428527832031</v>
+        <v>174.6428680419922</v>
       </c>
     </row>
     <row r="15" spans="1:35">
@@ -22637,7 +22637,7 @@
         <v>0</v>
       </c>
       <c r="D15" s="1">
-        <v>0.007507190573960543</v>
+        <v>0.00750719103962183</v>
       </c>
       <c r="E15" s="1">
         <v>0.05246859043836594</v>
@@ -22673,16 +22673,16 @@
         <v>61.87617874145508</v>
       </c>
       <c r="P15" s="1">
-        <v>1.07539701461792</v>
+        <v>1.075397133827209</v>
       </c>
       <c r="Q15" s="1">
         <v>0.6955321431159973</v>
       </c>
       <c r="R15" s="1">
-        <v>0.3193915188312531</v>
+        <v>0.3193914592266083</v>
       </c>
       <c r="S15" s="1">
-        <v>0.02872117049992085</v>
+        <v>0.02872117236256599</v>
       </c>
       <c r="T15" s="1">
         <v>0</v>
@@ -22780,7 +22780,7 @@
         <v>0.01094434410333633</v>
       </c>
       <c r="P16" s="1">
-        <v>92.04112243652344</v>
+        <v>92.0411376953125</v>
       </c>
       <c r="Q16" s="1">
         <v>0</v>
@@ -22828,16 +22828,16 @@
         <v>0</v>
       </c>
       <c r="AF16" s="1">
-        <v>95.26567840576172</v>
+        <v>95.26569366455078</v>
       </c>
       <c r="AG16" s="1">
-        <v>86.50910186767578</v>
+        <v>86.50910949707031</v>
       </c>
       <c r="AH16" s="1">
         <v>26.58450126647949</v>
       </c>
       <c r="AI16" s="1">
-        <v>208.3592834472656</v>
+        <v>208.3593139648438</v>
       </c>
     </row>
     <row r="17" spans="1:35">
@@ -22887,16 +22887,16 @@
         <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>2.393267393112183</v>
+        <v>2.393267869949341</v>
       </c>
       <c r="Q17" s="1">
         <v>321.7562866210938</v>
       </c>
       <c r="R17" s="1">
-        <v>0.3624664843082428</v>
+        <v>0.3624664545059204</v>
       </c>
       <c r="S17" s="1">
-        <v>0.8886783123016357</v>
+        <v>0.8886783719062805</v>
       </c>
       <c r="T17" s="1">
         <v>0</v>
@@ -22914,7 +22914,7 @@
         <v>0</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.03987985476851463</v>
+        <v>0.03987985849380493</v>
       </c>
       <c r="Z17" s="1">
         <v>0.1432751566171646</v>
@@ -23000,13 +23000,13 @@
         <v>0.09609361737966537</v>
       </c>
       <c r="R18" s="1">
-        <v>326.1572265625</v>
+        <v>326.1571655273438</v>
       </c>
       <c r="S18" s="1">
-        <v>2.302349805831909</v>
+        <v>2.302350044250488</v>
       </c>
       <c r="T18" s="1">
-        <v>-6.992576800257666e-06</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
         <v>3.663784265518188</v>
@@ -23033,7 +23033,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="1">
-        <v>-2.757014590315521e-05</v>
+        <v>0</v>
       </c>
       <c r="AD18" s="1">
         <v>0.5829302072525024</v>
@@ -23042,16 +23042,16 @@
         <v>0</v>
       </c>
       <c r="AF18" s="1">
-        <v>353.422119140625</v>
+        <v>353.4220886230469</v>
       </c>
       <c r="AG18" s="1">
-        <v>354.331298828125</v>
+        <v>354.3301391601562</v>
       </c>
       <c r="AH18" s="1">
         <v>15.384765625</v>
       </c>
       <c r="AI18" s="1">
-        <v>723.13818359375</v>
+        <v>723.136962890625</v>
       </c>
     </row>
     <row r="19" spans="1:35">
@@ -23065,7 +23065,7 @@
         <v>0</v>
       </c>
       <c r="D19" s="1">
-        <v>0.006741484627127647</v>
+        <v>0.006741485092788935</v>
       </c>
       <c r="E19" s="1">
         <v>0.2408201396465302</v>
@@ -23110,7 +23110,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="1">
-        <v>312.5381469726562</v>
+        <v>312.5381774902344</v>
       </c>
       <c r="T19" s="1">
         <v>0</v>
@@ -23149,16 +23149,16 @@
         <v>0</v>
       </c>
       <c r="AF19" s="1">
-        <v>316.3025512695312</v>
+        <v>316.3025817871094</v>
       </c>
       <c r="AG19" s="1">
-        <v>119.9088821411133</v>
+        <v>119.908935546875</v>
       </c>
       <c r="AH19" s="1">
         <v>45.48874664306641</v>
       </c>
       <c r="AI19" s="1">
-        <v>481.7001953125</v>
+        <v>481.7002563476562</v>
       </c>
     </row>
     <row r="20" spans="1:35">
@@ -23214,13 +23214,13 @@
         <v>0</v>
       </c>
       <c r="R20" s="1">
-        <v>0.2515022158622742</v>
+        <v>0.2515021860599518</v>
       </c>
       <c r="S20" s="1">
-        <v>4.018422603607178</v>
+        <v>4.018423080444336</v>
       </c>
       <c r="T20" s="1">
-        <v>50.97542190551758</v>
+        <v>50.97540283203125</v>
       </c>
       <c r="U20" s="1">
         <v>0</v>
@@ -23256,16 +23256,16 @@
         <v>0</v>
       </c>
       <c r="AF20" s="1">
-        <v>67.41997528076172</v>
+        <v>67.41996002197266</v>
       </c>
       <c r="AG20" s="1">
-        <v>52.58970642089844</v>
+        <v>52.58971786499023</v>
       </c>
       <c r="AH20" s="1">
         <v>3.560719013214111</v>
       </c>
       <c r="AI20" s="1">
-        <v>123.5704040527344</v>
+        <v>123.5703964233398</v>
       </c>
     </row>
     <row r="21" spans="1:35">
@@ -23315,16 +23315,16 @@
         <v>0.4755228161811829</v>
       </c>
       <c r="P21" s="1">
-        <v>0.8704867362976074</v>
+        <v>0.870486855506897</v>
       </c>
       <c r="Q21" s="1">
         <v>0.1280521899461746</v>
       </c>
       <c r="R21" s="1">
-        <v>0.6693177223205566</v>
+        <v>0.6693176031112671</v>
       </c>
       <c r="S21" s="1">
-        <v>0.1430385261774063</v>
+        <v>0.1430385410785675</v>
       </c>
       <c r="T21" s="1">
         <v>0</v>
@@ -23529,19 +23529,19 @@
         <v>0.2668605148792267</v>
       </c>
       <c r="P23" s="1">
-        <v>1.103294014930725</v>
+        <v>1.103294134140015</v>
       </c>
       <c r="Q23" s="1">
         <v>0.3947103023529053</v>
       </c>
       <c r="R23" s="1">
-        <v>6.491272449493408</v>
+        <v>6.49127197265625</v>
       </c>
       <c r="S23" s="1">
-        <v>2.828818082809448</v>
+        <v>2.828818321228027</v>
       </c>
       <c r="T23" s="1">
-        <v>0.414444237947464</v>
+        <v>0.4144440591335297</v>
       </c>
       <c r="U23" s="1">
         <v>1.202173948287964</v>
@@ -23556,7 +23556,7 @@
         <v>1.46110463142395</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.4145050942897797</v>
+        <v>0.4145051240921021</v>
       </c>
       <c r="Z23" s="1">
         <v>0.3572787046432495</v>
@@ -23743,19 +23743,19 @@
         <v>2.688786745071411</v>
       </c>
       <c r="P25" s="1">
-        <v>7.020651817321777</v>
+        <v>7.020652770996094</v>
       </c>
       <c r="Q25" s="1">
         <v>0.7743849158287048</v>
       </c>
       <c r="R25" s="1">
-        <v>14.48287582397461</v>
+        <v>14.48287391662598</v>
       </c>
       <c r="S25" s="1">
-        <v>2.48039722442627</v>
+        <v>2.480397462844849</v>
       </c>
       <c r="T25" s="1">
-        <v>0.5158876180648804</v>
+        <v>0.5158873796463013</v>
       </c>
       <c r="U25" s="1">
         <v>14.471116065979</v>
@@ -23794,13 +23794,13 @@
         <v>196.1783447265625</v>
       </c>
       <c r="AG25" s="1">
-        <v>198.6216278076172</v>
+        <v>198.6215972900391</v>
       </c>
       <c r="AH25" s="1">
         <v>81.00125885009766</v>
       </c>
       <c r="AI25" s="1">
-        <v>475.8012390136719</v>
+        <v>475.8012084960938</v>
       </c>
     </row>
     <row r="26" spans="1:35">
@@ -23856,10 +23856,10 @@
         <v>0.01478338893502951</v>
       </c>
       <c r="R26" s="1">
-        <v>0.6947246193885803</v>
+        <v>0.6947245597839355</v>
       </c>
       <c r="S26" s="1">
-        <v>0.9429061412811279</v>
+        <v>0.9429062008857727</v>
       </c>
       <c r="T26" s="1">
         <v>0</v>
@@ -23877,7 +23877,7 @@
         <v>0</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.4015682339668274</v>
+        <v>0.4015682637691498</v>
       </c>
       <c r="Z26" s="1">
         <v>59.27759170532227</v>
@@ -23969,7 +23969,7 @@
         <v>0</v>
       </c>
       <c r="T27" s="1">
-        <v>0.3985768854618073</v>
+        <v>0.3985767066478729</v>
       </c>
       <c r="U27" s="1">
         <v>0</v>
@@ -24091,7 +24091,7 @@
         <v>0</v>
       </c>
       <c r="Y28" s="1">
-        <v>0.3781790435314178</v>
+        <v>0.3781790733337402</v>
       </c>
       <c r="Z28" s="1">
         <v>0</v>
@@ -24222,7 +24222,7 @@
         <v>381.762451171875</v>
       </c>
       <c r="AG29" s="1">
-        <v>0.25527423620224</v>
+        <v>0.2552741467952728</v>
       </c>
       <c r="AH29" s="1">
         <v>0.1046528071165085</v>
@@ -24284,7 +24284,7 @@
         <v>0</v>
       </c>
       <c r="R30" s="1">
-        <v>1.956337213516235</v>
+        <v>1.956336975097656</v>
       </c>
       <c r="S30" s="1">
         <v>0</v>
@@ -24305,7 +24305,7 @@
         <v>0</v>
       </c>
       <c r="Y30" s="1">
-        <v>0.0008204124169424176</v>
+        <v>0.0008204124751500785</v>
       </c>
       <c r="Z30" s="1">
         <v>0</v>
@@ -24492,19 +24492,19 @@
         <v>70.05044555664062</v>
       </c>
       <c r="P32" s="1">
-        <v>104.5042114257812</v>
+        <v>104.5042266845703</v>
       </c>
       <c r="Q32" s="1">
         <v>323.8598327636719</v>
       </c>
       <c r="R32" s="1">
-        <v>351.4291076660156</v>
+        <v>351.4290466308594</v>
       </c>
       <c r="S32" s="1">
-        <v>326.1715087890625</v>
+        <v>326.1715393066406</v>
       </c>
       <c r="T32" s="1">
-        <v>52.30432510375977</v>
+        <v>52.3043098449707</v>
       </c>
       <c r="U32" s="1">
         <v>131.3155822753906</v>
@@ -24531,7 +24531,7 @@
         <v>183.1415100097656</v>
       </c>
       <c r="AC32" s="1">
-        <v>383.4873046875</v>
+        <v>383.4873352050781</v>
       </c>
       <c r="AD32" s="1">
         <v>101.5242919921875</v>
@@ -24543,13 +24543,13 @@
         <v>4573.2431640625</v>
       </c>
       <c r="AG32" s="1">
-        <v>2564.718505859375</v>
+        <v>2564.717041015625</v>
       </c>
       <c r="AH32" s="1">
         <v>1298.403442382812</v>
       </c>
       <c r="AI32" s="1">
-        <v>8436.3662109375</v>
+        <v>8436.365234375</v>
       </c>
     </row>
   </sheetData>
@@ -25242,7 +25242,7 @@
         <v>0.6400637626647949</v>
       </c>
       <c r="L7" s="1">
-        <v>0.5756738185882568</v>
+        <v>0.5756737589836121</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -25456,7 +25456,7 @@
         <v>16.94436073303223</v>
       </c>
       <c r="L9" s="1">
-        <v>18.48357582092285</v>
+        <v>18.48357391357422</v>
       </c>
       <c r="M9" s="1">
         <v>0.3416626453399658</v>
@@ -25670,7 +25670,7 @@
         <v>1368.48828125</v>
       </c>
       <c r="L11" s="1">
-        <v>12.24625396728516</v>
+        <v>12.24625301361084</v>
       </c>
       <c r="M11" s="1">
         <v>2.019080877304077</v>
@@ -25688,7 +25688,7 @@
         <v>0</v>
       </c>
       <c r="R11" s="1">
-        <v>0.199649304151535</v>
+        <v>0.1996492892503738</v>
       </c>
       <c r="S11" s="1">
         <v>0</v>
@@ -25777,7 +25777,7 @@
         <v>4.662380218505859</v>
       </c>
       <c r="L12" s="1">
-        <v>1101.810668945312</v>
+        <v>1101.810546875</v>
       </c>
       <c r="M12" s="1">
         <v>5.11723518371582</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="AF12" s="1">
-        <v>1120.446044921875</v>
+        <v>1120.445922851562</v>
       </c>
       <c r="AG12" s="1">
         <v>22.72380256652832</v>
@@ -26098,7 +26098,7 @@
         <v>9.737467765808105</v>
       </c>
       <c r="L15" s="1">
-        <v>35.14675140380859</v>
+        <v>35.14674758911133</v>
       </c>
       <c r="M15" s="1">
         <v>7.836806774139404</v>
@@ -26116,10 +26116,10 @@
         <v>4.813132762908936</v>
       </c>
       <c r="R15" s="1">
-        <v>1.449398994445801</v>
+        <v>1.449398756027222</v>
       </c>
       <c r="S15" s="1">
-        <v>0.09848432987928391</v>
+        <v>0.09848432242870331</v>
       </c>
       <c r="T15" s="1">
         <v>0</v>
@@ -26268,13 +26268,13 @@
         <v>605.9235229492188</v>
       </c>
       <c r="AG16" s="1">
-        <v>135.9166564941406</v>
+        <v>135.9165344238281</v>
       </c>
       <c r="AH16" s="1">
         <v>98.03759002685547</v>
       </c>
       <c r="AI16" s="1">
-        <v>839.8778076171875</v>
+        <v>839.877685546875</v>
       </c>
     </row>
     <row r="17" spans="1:35">
@@ -26330,10 +26330,10 @@
         <v>2226.576904296875</v>
       </c>
       <c r="R17" s="1">
-        <v>1.644873142242432</v>
+        <v>1.644873023033142</v>
       </c>
       <c r="S17" s="1">
-        <v>3.047260046005249</v>
+        <v>3.04725980758667</v>
       </c>
       <c r="T17" s="1">
         <v>0</v>
@@ -26419,7 +26419,7 @@
         <v>14.87647819519043</v>
       </c>
       <c r="L18" s="1">
-        <v>99.26250457763672</v>
+        <v>99.26249694824219</v>
       </c>
       <c r="M18" s="1">
         <v>2.632106304168701</v>
@@ -26437,13 +26437,13 @@
         <v>0.6649748086929321</v>
       </c>
       <c r="R18" s="1">
-        <v>1480.101684570312</v>
+        <v>1480.101440429688</v>
       </c>
       <c r="S18" s="1">
-        <v>7.894711017608643</v>
+        <v>7.894710540771484</v>
       </c>
       <c r="T18" s="1">
-        <v>-5.448162119137123e-05</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
         <v>19.64902877807617</v>
@@ -26470,7 +26470,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="1">
-        <v>-0.0001490645372541621</v>
+        <v>0</v>
       </c>
       <c r="AD18" s="1">
         <v>3.871580362319946</v>
@@ -26479,16 +26479,16 @@
         <v>0</v>
       </c>
       <c r="AF18" s="1">
-        <v>1708.388793945312</v>
+        <v>1708.388671875</v>
       </c>
       <c r="AG18" s="1">
-        <v>698.8973388671875</v>
+        <v>698.896728515625</v>
       </c>
       <c r="AH18" s="1">
         <v>44.81815719604492</v>
       </c>
       <c r="AI18" s="1">
-        <v>2452.104248046875</v>
+        <v>2452.103515625</v>
       </c>
     </row>
     <row r="19" spans="1:35">
@@ -26589,7 +26589,7 @@
         <v>1088.381958007812</v>
       </c>
       <c r="AG19" s="1">
-        <v>313.0087890625</v>
+        <v>313.0089111328125</v>
       </c>
       <c r="AH19" s="1">
         <v>148.5012969970703</v>
@@ -26651,13 +26651,13 @@
         <v>0</v>
       </c>
       <c r="R20" s="1">
-        <v>1.141317248344421</v>
+        <v>1.141317129135132</v>
       </c>
       <c r="S20" s="1">
-        <v>13.77909183502197</v>
+        <v>13.77909088134766</v>
       </c>
       <c r="T20" s="1">
-        <v>397.1673889160156</v>
+        <v>397.1673583984375</v>
       </c>
       <c r="U20" s="1">
         <v>0</v>
@@ -26684,7 +26684,7 @@
         <v>0.4711655974388123</v>
       </c>
       <c r="AC20" s="1">
-        <v>1.34366762638092</v>
+        <v>1.343667507171631</v>
       </c>
       <c r="AD20" s="1">
         <v>13.88246440887451</v>
@@ -26693,16 +26693,16 @@
         <v>0</v>
       </c>
       <c r="AF20" s="1">
-        <v>480.4878845214844</v>
+        <v>480.4878540039062</v>
       </c>
       <c r="AG20" s="1">
-        <v>164.2524566650391</v>
+        <v>164.2525024414062</v>
       </c>
       <c r="AH20" s="1">
         <v>20.74247741699219</v>
       </c>
       <c r="AI20" s="1">
-        <v>665.4827880859375</v>
+        <v>665.4828491210938</v>
       </c>
     </row>
     <row r="21" spans="1:35">
@@ -26758,10 +26758,10 @@
         <v>0.8861303925514221</v>
       </c>
       <c r="R21" s="1">
-        <v>3.03736424446106</v>
+        <v>3.037363767623901</v>
       </c>
       <c r="S21" s="1">
-        <v>0.4904762506484985</v>
+        <v>0.4904762208461761</v>
       </c>
       <c r="T21" s="1">
         <v>0</v>
@@ -26791,7 +26791,7 @@
         <v>2.90395450592041</v>
       </c>
       <c r="AC21" s="1">
-        <v>0.3724603950977325</v>
+        <v>0.3724603652954102</v>
       </c>
       <c r="AD21" s="1">
         <v>0.6753576993942261</v>
@@ -26942,7 +26942,7 @@
         <v>0.7297321557998657</v>
       </c>
       <c r="H23" s="1">
-        <v>0.8555217385292053</v>
+        <v>0.8555216789245605</v>
       </c>
       <c r="I23" s="1">
         <v>0.8336619734764099</v>
@@ -26954,7 +26954,7 @@
         <v>2.038395643234253</v>
       </c>
       <c r="L23" s="1">
-        <v>3.846949100494385</v>
+        <v>3.846948862075806</v>
       </c>
       <c r="M23" s="1">
         <v>0.1100047528743744</v>
@@ -26972,13 +26972,13 @@
         <v>2.731423854827881</v>
       </c>
       <c r="R23" s="1">
-        <v>29.45739936828613</v>
+        <v>29.4573974609375</v>
       </c>
       <c r="S23" s="1">
-        <v>9.69996166229248</v>
+        <v>9.699960708618164</v>
       </c>
       <c r="T23" s="1">
-        <v>3.229080677032471</v>
+        <v>3.229079961776733</v>
       </c>
       <c r="U23" s="1">
         <v>6.447309494018555</v>
@@ -27005,7 +27005,7 @@
         <v>2.484699487686157</v>
       </c>
       <c r="AC23" s="1">
-        <v>14.533860206604</v>
+        <v>14.53385829925537</v>
       </c>
       <c r="AD23" s="1">
         <v>22.73232078552246</v>
@@ -27186,13 +27186,13 @@
         <v>5.358799934387207</v>
       </c>
       <c r="R25" s="1">
-        <v>65.72331237792969</v>
+        <v>65.72330474853516</v>
       </c>
       <c r="S25" s="1">
         <v>8.505231857299805</v>
       </c>
       <c r="T25" s="1">
-        <v>4.019461154937744</v>
+        <v>4.019460678100586</v>
       </c>
       <c r="U25" s="1">
         <v>77.60920715332031</v>
@@ -27219,7 +27219,7 @@
         <v>99.83631134033203</v>
       </c>
       <c r="AC25" s="1">
-        <v>3.137255668640137</v>
+        <v>3.137255430221558</v>
       </c>
       <c r="AD25" s="1">
         <v>6.781844139099121</v>
@@ -27231,7 +27231,7 @@
         <v>1766.731689453125</v>
       </c>
       <c r="AG25" s="1">
-        <v>423.7519226074219</v>
+        <v>423.751953125</v>
       </c>
       <c r="AH25" s="1">
         <v>456.6184692382812</v>
@@ -27293,10 +27293,10 @@
         <v>0.1023021191358566</v>
       </c>
       <c r="R26" s="1">
-        <v>3.152660846710205</v>
+        <v>3.152660608291626</v>
       </c>
       <c r="S26" s="1">
-        <v>3.233206510543823</v>
+        <v>3.233206272125244</v>
       </c>
       <c r="T26" s="1">
         <v>0</v>
@@ -27406,7 +27406,7 @@
         <v>0</v>
       </c>
       <c r="T27" s="1">
-        <v>3.105452299118042</v>
+        <v>3.105451822280884</v>
       </c>
       <c r="U27" s="1">
         <v>0</v>
@@ -27647,7 +27647,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="1">
-        <v>2054.028076171875</v>
+        <v>2054.02783203125</v>
       </c>
       <c r="AD29" s="1">
         <v>0</v>
@@ -27656,16 +27656,16 @@
         <v>0</v>
       </c>
       <c r="AF29" s="1">
-        <v>2065.260498046875</v>
+        <v>2065.26025390625</v>
       </c>
       <c r="AG29" s="1">
-        <v>3.532606601715088</v>
+        <v>3.532634496688843</v>
       </c>
       <c r="AH29" s="1">
         <v>0.6228111982345581</v>
       </c>
       <c r="AI29" s="1">
-        <v>2069.416015625</v>
+        <v>2069.415771484375</v>
       </c>
     </row>
     <row r="30" spans="1:35">
@@ -27721,7 +27721,7 @@
         <v>0</v>
       </c>
       <c r="R30" s="1">
-        <v>8.877860069274902</v>
+        <v>8.877859115600586</v>
       </c>
       <c r="S30" s="1">
         <v>0</v>
@@ -27935,7 +27935,7 @@
         <v>2241.134033203125</v>
       </c>
       <c r="R32" s="1">
-        <v>1594.785522460938</v>
+        <v>1594.785278320312</v>
       </c>
       <c r="S32" s="1">
         <v>1118.435302734375</v>
@@ -27968,7 +27968,7 @@
         <v>1109.77880859375</v>
       </c>
       <c r="AC32" s="1">
-        <v>2073.415283203125</v>
+        <v>2073.4150390625</v>
       </c>
       <c r="AD32" s="1">
         <v>674.2821044921875</v>
@@ -27980,7 +27980,7 @@
         <v>24209.986328125</v>
       </c>
       <c r="AG32" s="1">
-        <v>4347.72216796875</v>
+        <v>4347.72119140625</v>
       </c>
       <c r="AH32" s="1">
         <v>3977.025634765625</v>
@@ -28227,7 +28227,7 @@
         <v>195.0785522460938</v>
       </c>
       <c r="D3" s="1">
-        <v>0.2023759335279465</v>
+        <v>0.2023759633302689</v>
       </c>
       <c r="E3" s="1">
         <v>0.004401459358632565</v>
@@ -28334,7 +28334,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>164.8960876464844</v>
+        <v>164.8961029052734</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -28418,16 +28418,16 @@
         <v>0</v>
       </c>
       <c r="AF4" s="1">
-        <v>165.5350494384766</v>
+        <v>165.5350646972656</v>
       </c>
       <c r="AG4" s="1">
-        <v>1.516599178314209</v>
+        <v>1.516599535942078</v>
       </c>
       <c r="AH4" s="1">
         <v>28.15022659301758</v>
       </c>
       <c r="AI4" s="1">
-        <v>195.2018737792969</v>
+        <v>195.2018890380859</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -28441,7 +28441,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>0.01857968606054783</v>
+        <v>0.01857968792319298</v>
       </c>
       <c r="E5" s="1">
         <v>23.60079765319824</v>
@@ -28655,7 +28655,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>0.8225939869880676</v>
+        <v>0.8225941061973572</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -28852,10 +28852,10 @@
         <v>38.47896957397461</v>
       </c>
       <c r="AH8" s="1">
-        <v>3.666764974594116</v>
+        <v>3.666765213012695</v>
       </c>
       <c r="AI8" s="1">
-        <v>50.19887161254883</v>
+        <v>50.19887542724609</v>
       </c>
     </row>
     <row r="9" spans="1:35">
@@ -28869,7 +28869,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="1">
-        <v>0.06807100027799606</v>
+        <v>0.06807100772857666</v>
       </c>
       <c r="E9" s="1">
         <v>0.05708303302526474</v>
@@ -28959,7 +28959,7 @@
         <v>93.37837219238281</v>
       </c>
       <c r="AH9" s="1">
-        <v>79.29427337646484</v>
+        <v>79.29426574707031</v>
       </c>
       <c r="AI9" s="1">
         <v>177.0775604248047</v>
@@ -28976,7 +28976,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>1.097903609275818</v>
+        <v>1.097903728485107</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
@@ -29083,7 +29083,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="1">
-        <v>1.313740134239197</v>
+        <v>1.313740253448486</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
@@ -29297,7 +29297,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="1">
-        <v>0.4169188737869263</v>
+        <v>0.416918933391571</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
@@ -29511,7 +29511,7 @@
         <v>0</v>
       </c>
       <c r="D15" s="1">
-        <v>0.09589029848575592</v>
+        <v>0.09589031338691711</v>
       </c>
       <c r="E15" s="1">
         <v>0.009400155395269394</v>
@@ -29553,10 +29553,10 @@
         <v>0.6174211502075195</v>
       </c>
       <c r="R15" s="1">
-        <v>0.2312323302030563</v>
+        <v>0.2312323153018951</v>
       </c>
       <c r="S15" s="1">
-        <v>0.01751749403774738</v>
+        <v>0.01751749590039253</v>
       </c>
       <c r="T15" s="1">
         <v>0</v>
@@ -29601,7 +29601,7 @@
         <v>31.36909675598145</v>
       </c>
       <c r="AH15" s="1">
-        <v>18.98606300354004</v>
+        <v>18.98606109619141</v>
       </c>
       <c r="AI15" s="1">
         <v>86.54481506347656</v>
@@ -29618,7 +29618,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="1">
-        <v>0.2588509619235992</v>
+        <v>0.2588509917259216</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>
@@ -29705,13 +29705,13 @@
         <v>124.1479797363281</v>
       </c>
       <c r="AG16" s="1">
-        <v>2.13092041015625</v>
+        <v>2.130929946899414</v>
       </c>
       <c r="AH16" s="1">
         <v>13.04559516906738</v>
       </c>
       <c r="AI16" s="1">
-        <v>139.3244934082031</v>
+        <v>139.3245086669922</v>
       </c>
     </row>
     <row r="17" spans="1:35">
@@ -29725,7 +29725,7 @@
         <v>0.2275575697422028</v>
       </c>
       <c r="D17" s="1">
-        <v>1.722633600234985</v>
+        <v>1.722633838653564</v>
       </c>
       <c r="E17" s="1">
         <v>0</v>
@@ -29770,7 +29770,7 @@
         <v>0.2624176442623138</v>
       </c>
       <c r="S17" s="1">
-        <v>0.5420188903808594</v>
+        <v>0.5420189499855042</v>
       </c>
       <c r="T17" s="1">
         <v>0</v>
@@ -29832,7 +29832,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="1">
-        <v>1.052453637123108</v>
+        <v>1.052453756332397</v>
       </c>
       <c r="E18" s="1">
         <v>0.7925512194633484</v>
@@ -29874,13 +29874,13 @@
         <v>0.08530192822217941</v>
       </c>
       <c r="R18" s="1">
-        <v>236.1305541992188</v>
+        <v>236.1305389404297</v>
       </c>
       <c r="S18" s="1">
-        <v>1.404239416122437</v>
+        <v>1.404239535331726</v>
       </c>
       <c r="T18" s="1">
-        <v>-8.897168299881741e-06</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
         <v>1.600831270217896</v>
@@ -29907,7 +29907,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="1">
-        <v>-2.262072302983142e-05</v>
+        <v>0</v>
       </c>
       <c r="AD18" s="1">
         <v>0.7475340962409973</v>
@@ -29916,10 +29916,10 @@
         <v>0</v>
       </c>
       <c r="AF18" s="1">
-        <v>249.0746917724609</v>
+        <v>249.07470703125</v>
       </c>
       <c r="AG18" s="1">
-        <v>159.4550170898438</v>
+        <v>159.4550323486328</v>
       </c>
       <c r="AH18" s="1">
         <v>6.054258346557617</v>
@@ -29939,7 +29939,7 @@
         <v>0</v>
       </c>
       <c r="D19" s="1">
-        <v>0.08610983192920685</v>
+        <v>0.08610984683036804</v>
       </c>
       <c r="E19" s="1">
         <v>0.04314479604363441</v>
@@ -29984,7 +29984,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="1">
-        <v>190.6219482421875</v>
+        <v>190.6219635009766</v>
       </c>
       <c r="T19" s="1">
         <v>0</v>
@@ -30023,16 +30023,16 @@
         <v>0</v>
       </c>
       <c r="AF19" s="1">
-        <v>194.1517181396484</v>
+        <v>194.1517333984375</v>
       </c>
       <c r="AG19" s="1">
-        <v>38.25100708007812</v>
+        <v>38.25101470947266</v>
       </c>
       <c r="AH19" s="1">
         <v>23.33585548400879</v>
       </c>
       <c r="AI19" s="1">
-        <v>255.7385864257812</v>
+        <v>255.7386016845703</v>
       </c>
     </row>
     <row r="20" spans="1:35">
@@ -30091,10 +30091,10 @@
         <v>0.1820819824934006</v>
       </c>
       <c r="S20" s="1">
-        <v>2.450899362564087</v>
+        <v>2.450899600982666</v>
       </c>
       <c r="T20" s="1">
-        <v>64.85975646972656</v>
+        <v>64.8597412109375</v>
       </c>
       <c r="U20" s="1">
         <v>0</v>
@@ -30121,7 +30121,7 @@
         <v>0.06408678740262985</v>
       </c>
       <c r="AC20" s="1">
-        <v>0.2039031833410263</v>
+        <v>0.2039031535387039</v>
       </c>
       <c r="AD20" s="1">
         <v>2.680459976196289</v>
@@ -30130,10 +30130,10 @@
         <v>0</v>
       </c>
       <c r="AF20" s="1">
-        <v>89.02819061279297</v>
+        <v>89.02817535400391</v>
       </c>
       <c r="AG20" s="1">
-        <v>45.01495361328125</v>
+        <v>45.01497268676758</v>
       </c>
       <c r="AH20" s="1">
         <v>3.9022216796875</v>
@@ -30153,7 +30153,7 @@
         <v>0</v>
       </c>
       <c r="D21" s="1">
-        <v>0.1290951073169708</v>
+        <v>0.129095122218132</v>
       </c>
       <c r="E21" s="1">
         <v>0.07874366641044617</v>
@@ -30195,10 +30195,10 @@
         <v>0.1136714220046997</v>
       </c>
       <c r="R21" s="1">
-        <v>0.484571099281311</v>
+        <v>0.4845710694789886</v>
       </c>
       <c r="S21" s="1">
-        <v>0.08724145591259003</v>
+        <v>0.08724146336317062</v>
       </c>
       <c r="T21" s="1">
         <v>0</v>
@@ -30228,7 +30228,7 @@
         <v>0.3949887454509735</v>
       </c>
       <c r="AC21" s="1">
-        <v>0.05652131140232086</v>
+        <v>0.05652130395174026</v>
       </c>
       <c r="AD21" s="1">
         <v>0.1303997039794922</v>
@@ -30367,7 +30367,7 @@
         <v>0.7736976742744446</v>
       </c>
       <c r="D23" s="1">
-        <v>1.148425221443176</v>
+        <v>1.148425340652466</v>
       </c>
       <c r="E23" s="1">
         <v>0.07739906758069992</v>
@@ -30412,10 +30412,10 @@
         <v>4.699536323547363</v>
       </c>
       <c r="S23" s="1">
-        <v>1.725340723991394</v>
+        <v>1.725340962409973</v>
       </c>
       <c r="T23" s="1">
-        <v>0.5273278951644897</v>
+        <v>0.5273276567459106</v>
       </c>
       <c r="U23" s="1">
         <v>0.5252704620361328</v>
@@ -30442,7 +30442,7 @@
         <v>0.3379627168178558</v>
       </c>
       <c r="AC23" s="1">
-        <v>2.205530643463135</v>
+        <v>2.205530405044556</v>
       </c>
       <c r="AD23" s="1">
         <v>4.389212131500244</v>
@@ -30581,7 +30581,7 @@
         <v>0</v>
       </c>
       <c r="D25" s="1">
-        <v>1.314898133277893</v>
+        <v>1.314898252487183</v>
       </c>
       <c r="E25" s="1">
         <v>1.014793515205383</v>
@@ -30626,10 +30626,10 @@
         <v>10.48528003692627</v>
       </c>
       <c r="S25" s="1">
-        <v>1.5128333568573</v>
+        <v>1.512833476066589</v>
       </c>
       <c r="T25" s="1">
-        <v>0.6564016342163086</v>
+        <v>0.6564013361930847</v>
       </c>
       <c r="U25" s="1">
         <v>6.322920322418213</v>
@@ -30656,7 +30656,7 @@
         <v>13.57949066162109</v>
       </c>
       <c r="AC25" s="1">
-        <v>0.4760823249816895</v>
+        <v>0.4760822951793671</v>
       </c>
       <c r="AD25" s="1">
         <v>1.309455037117004</v>
@@ -30668,7 +30668,7 @@
         <v>163.2715301513672</v>
       </c>
       <c r="AG25" s="1">
-        <v>107.1006164550781</v>
+        <v>107.1006240844727</v>
       </c>
       <c r="AH25" s="1">
         <v>47.36123275756836</v>
@@ -30733,7 +30733,7 @@
         <v>0.5029650926589966</v>
       </c>
       <c r="S26" s="1">
-        <v>0.5750933885574341</v>
+        <v>0.5750934481620789</v>
       </c>
       <c r="T26" s="1">
         <v>0</v>
@@ -30843,7 +30843,7 @@
         <v>0</v>
       </c>
       <c r="T27" s="1">
-        <v>0.5071384906768799</v>
+        <v>0.5071383714675903</v>
       </c>
       <c r="U27" s="1">
         <v>0</v>
@@ -31084,7 +31084,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="1">
-        <v>311.7012329101562</v>
+        <v>311.7012023925781</v>
       </c>
       <c r="AD29" s="1">
         <v>0</v>
@@ -31093,16 +31093,16 @@
         <v>0</v>
       </c>
       <c r="AF29" s="1">
-        <v>315.8701171875</v>
+        <v>315.8700866699219</v>
       </c>
       <c r="AG29" s="1">
-        <v>60.38523483276367</v>
+        <v>60.38522720336914</v>
       </c>
       <c r="AH29" s="1">
         <v>0.1156925708055496</v>
       </c>
       <c r="AI29" s="1">
-        <v>376.3710327148438</v>
+        <v>376.3710021972656</v>
       </c>
     </row>
     <row r="30" spans="1:35">
@@ -31330,7 +31330,7 @@
         <v>199.2950286865234</v>
       </c>
       <c r="D32" s="1">
-        <v>174.6446228027344</v>
+        <v>174.6446380615234</v>
       </c>
       <c r="E32" s="1">
         <v>25.71457862854004</v>
@@ -31372,13 +31372,13 @@
         <v>287.4891052246094</v>
       </c>
       <c r="R32" s="1">
-        <v>254.4268341064453</v>
+        <v>254.4268188476562</v>
       </c>
       <c r="S32" s="1">
-        <v>198.9371185302734</v>
+        <v>198.9371337890625</v>
       </c>
       <c r="T32" s="1">
-        <v>66.55062103271484</v>
+        <v>66.55061340332031</v>
       </c>
       <c r="U32" s="1">
         <v>57.376220703125</v>
@@ -31858,13 +31858,13 @@
         <v>523.3590698242188</v>
       </c>
       <c r="AG4" s="1">
-        <v>5.538827896118164</v>
+        <v>5.538824081420898</v>
       </c>
       <c r="AH4" s="1">
         <v>236.4241638183594</v>
       </c>
       <c r="AI4" s="1">
-        <v>765.3220825195312</v>
+        <v>765.322021484375</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -31997,7 +31997,7 @@
         <v>0.009343657642602921</v>
       </c>
       <c r="H6" s="1">
-        <v>0.4382600486278534</v>
+        <v>0.438260018825531</v>
       </c>
       <c r="I6" s="1">
         <v>0.05062635242938995</v>
@@ -32396,10 +32396,10 @@
         <v>715.3217163085938</v>
       </c>
       <c r="AH9" s="1">
-        <v>510.8791809082031</v>
+        <v>510.8791198730469</v>
       </c>
       <c r="AI9" s="1">
-        <v>1322.73583984375</v>
+        <v>1322.735717773438</v>
       </c>
     </row>
     <row r="10" spans="1:35">
@@ -32562,7 +32562,7 @@
         <v>0</v>
       </c>
       <c r="R11" s="1">
-        <v>0.07962663471698761</v>
+        <v>0.07962661981582642</v>
       </c>
       <c r="S11" s="1">
         <v>0</v>
@@ -32931,7 +32931,7 @@
         <v>44.34978866577148</v>
       </c>
       <c r="AH14" s="1">
-        <v>218.9976043701172</v>
+        <v>218.9976196289062</v>
       </c>
       <c r="AI14" s="1">
         <v>412.63671875</v>
@@ -32960,7 +32960,7 @@
         <v>0.9090322256088257</v>
       </c>
       <c r="H15" s="1">
-        <v>0.4430676102638245</v>
+        <v>0.4430675804615021</v>
       </c>
       <c r="I15" s="1">
         <v>1.983453035354614</v>
@@ -32990,10 +32990,10 @@
         <v>1.936340093612671</v>
       </c>
       <c r="R15" s="1">
-        <v>0.5780673623085022</v>
+        <v>0.5780672430992126</v>
       </c>
       <c r="S15" s="1">
-        <v>0.05725882202386856</v>
+        <v>0.05725881829857826</v>
       </c>
       <c r="T15" s="1">
         <v>0</v>
@@ -33091,7 +33091,7 @@
         <v>0.02966941334307194</v>
       </c>
       <c r="P16" s="1">
-        <v>538.7559204101562</v>
+        <v>538.7559814453125</v>
       </c>
       <c r="Q16" s="1">
         <v>0</v>
@@ -33139,16 +33139,16 @@
         <v>0</v>
       </c>
       <c r="AF16" s="1">
-        <v>562.68896484375</v>
+        <v>562.6890258789062</v>
       </c>
       <c r="AG16" s="1">
-        <v>36.93660736083984</v>
+        <v>36.93660354614258</v>
       </c>
       <c r="AH16" s="1">
         <v>96.58431243896484</v>
       </c>
       <c r="AI16" s="1">
-        <v>696.2098999023438</v>
+        <v>696.2099609375</v>
       </c>
     </row>
     <row r="17" spans="1:35">
@@ -33198,16 +33198,16 @@
         <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>14.00881385803223</v>
+        <v>14.00881481170654</v>
       </c>
       <c r="Q17" s="1">
         <v>895.7594604492188</v>
       </c>
       <c r="R17" s="1">
-        <v>0.6560289263725281</v>
+        <v>0.6560288071632385</v>
       </c>
       <c r="S17" s="1">
-        <v>1.77167820930481</v>
+        <v>1.77167809009552</v>
       </c>
       <c r="T17" s="1">
         <v>0</v>
@@ -33246,7 +33246,7 @@
         <v>0</v>
       </c>
       <c r="AF17" s="1">
-        <v>933.8989868164062</v>
+        <v>933.8990478515625</v>
       </c>
       <c r="AG17" s="1">
         <v>113.5482406616211</v>
@@ -33311,13 +33311,13 @@
         <v>0.2675216794013977</v>
       </c>
       <c r="R18" s="1">
-        <v>590.3126831054688</v>
+        <v>590.3125610351562</v>
       </c>
       <c r="S18" s="1">
         <v>4.589987754821777</v>
       </c>
       <c r="T18" s="1">
-        <v>-5.854371192981489e-05</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
         <v>3.231586456298828</v>
@@ -33344,7 +33344,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="1">
-        <v>-6.954255513846874e-05</v>
+        <v>0</v>
       </c>
       <c r="AD18" s="1">
         <v>1.961907625198364</v>
@@ -33353,16 +33353,16 @@
         <v>0</v>
       </c>
       <c r="AF18" s="1">
-        <v>688.9557495117188</v>
+        <v>688.955810546875</v>
       </c>
       <c r="AG18" s="1">
-        <v>897.5401000976562</v>
+        <v>897.5403442382812</v>
       </c>
       <c r="AH18" s="1">
         <v>30.80113220214844</v>
       </c>
       <c r="AI18" s="1">
-        <v>1617.296997070312</v>
+        <v>1617.29736328125</v>
       </c>
     </row>
     <row r="19" spans="1:35">
@@ -33463,7 +33463,7 @@
         <v>632.9309692382812</v>
       </c>
       <c r="AG19" s="1">
-        <v>401.4871215820312</v>
+        <v>401.4871520996094</v>
       </c>
       <c r="AH19" s="1">
         <v>115.7202911376953</v>
@@ -33525,13 +33525,13 @@
         <v>0</v>
       </c>
       <c r="R20" s="1">
-        <v>0.4551944136619568</v>
+        <v>0.4551943242549896</v>
       </c>
       <c r="S20" s="1">
         <v>8.01116943359375</v>
       </c>
       <c r="T20" s="1">
-        <v>426.77978515625</v>
+        <v>426.7801513671875</v>
       </c>
       <c r="U20" s="1">
         <v>0</v>
@@ -33567,16 +33567,16 @@
         <v>0</v>
       </c>
       <c r="AF20" s="1">
-        <v>477.3494873046875</v>
+        <v>477.349853515625</v>
       </c>
       <c r="AG20" s="1">
-        <v>7.5837082862854</v>
+        <v>7.583699703216553</v>
       </c>
       <c r="AH20" s="1">
         <v>9.721200942993164</v>
       </c>
       <c r="AI20" s="1">
-        <v>494.6543884277344</v>
+        <v>494.6547546386719</v>
       </c>
     </row>
     <row r="21" spans="1:35">
@@ -33632,7 +33632,7 @@
         <v>0.3564933240413666</v>
       </c>
       <c r="R21" s="1">
-        <v>1.211399555206299</v>
+        <v>1.21139931678772</v>
       </c>
       <c r="S21" s="1">
         <v>0.2851630747318268</v>
@@ -33846,13 +33846,13 @@
         <v>1.098861217498779</v>
       </c>
       <c r="R23" s="1">
-        <v>11.74856853485107</v>
+        <v>11.74856662750244</v>
       </c>
       <c r="S23" s="1">
-        <v>5.639560699462891</v>
+        <v>5.639560222625732</v>
       </c>
       <c r="T23" s="1">
-        <v>3.469837427139282</v>
+        <v>3.469840288162231</v>
       </c>
       <c r="U23" s="1">
         <v>1.060359477996826</v>
@@ -34060,13 +34060,13 @@
         <v>2.155863761901855</v>
       </c>
       <c r="R25" s="1">
-        <v>26.21258926391602</v>
+        <v>26.21258354187012</v>
       </c>
       <c r="S25" s="1">
         <v>4.944945335388184</v>
       </c>
       <c r="T25" s="1">
-        <v>4.319148063659668</v>
+        <v>4.319151401519775</v>
       </c>
       <c r="U25" s="1">
         <v>12.7640323638916</v>
@@ -34167,10 +34167,10 @@
         <v>0.04115649685263634</v>
       </c>
       <c r="R26" s="1">
-        <v>1.257383704185486</v>
+        <v>1.257383465766907</v>
       </c>
       <c r="S26" s="1">
-        <v>1.879787445068359</v>
+        <v>1.87978732585907</v>
       </c>
       <c r="T26" s="1">
         <v>0</v>
@@ -34280,7 +34280,7 @@
         <v>0</v>
       </c>
       <c r="T27" s="1">
-        <v>3.336991548538208</v>
+        <v>3.336994171142578</v>
       </c>
       <c r="U27" s="1">
         <v>0</v>
@@ -34533,7 +34533,7 @@
         <v>965.9505615234375</v>
       </c>
       <c r="AG29" s="1">
-        <v>0.6347866058349609</v>
+        <v>0.6347860097885132</v>
       </c>
       <c r="AH29" s="1">
         <v>0.2786420285701752</v>
@@ -34595,7 +34595,7 @@
         <v>0</v>
       </c>
       <c r="R30" s="1">
-        <v>3.540779113769531</v>
+        <v>3.540778398513794</v>
       </c>
       <c r="S30" s="1">
         <v>0</v>
@@ -34803,19 +34803,19 @@
         <v>189.9022674560547</v>
       </c>
       <c r="P32" s="1">
-        <v>611.7077026367188</v>
+        <v>611.707763671875</v>
       </c>
       <c r="Q32" s="1">
         <v>901.61572265625</v>
       </c>
       <c r="R32" s="1">
-        <v>636.0523681640625</v>
+        <v>636.05224609375</v>
       </c>
       <c r="S32" s="1">
         <v>650.2589111328125</v>
       </c>
       <c r="T32" s="1">
-        <v>437.9057312011719</v>
+        <v>437.9061584472656</v>
       </c>
       <c r="U32" s="1">
         <v>115.8249359130859</v>
@@ -34842,7 +34842,7 @@
         <v>457.8831481933594</v>
       </c>
       <c r="AC32" s="1">
-        <v>967.3030395507812</v>
+        <v>967.3031005859375</v>
       </c>
       <c r="AD32" s="1">
         <v>341.6897277832031</v>
@@ -34860,7 +34860,7 @@
         <v>3155.07080078125</v>
       </c>
       <c r="AI32" s="1">
-        <v>21269.783203125</v>
+        <v>21269.78515625</v>
       </c>
     </row>
   </sheetData>
@@ -35999,7 +35999,7 @@
         <v>0</v>
       </c>
       <c r="R11" s="1">
-        <v>0.0176397580653429</v>
+        <v>0.01763975620269775</v>
       </c>
       <c r="S11" s="1">
         <v>0</v>
@@ -36385,7 +36385,7 @@
         <v>0</v>
       </c>
       <c r="D15" s="1">
-        <v>0.0009580249316059053</v>
+        <v>0.0009580249898135662</v>
       </c>
       <c r="E15" s="1">
         <v>0.03420839831233025</v>
@@ -36421,16 +36421,16 @@
         <v>11.40842056274414</v>
       </c>
       <c r="P15" s="1">
-        <v>1.758949160575867</v>
+        <v>1.758948922157288</v>
       </c>
       <c r="Q15" s="1">
         <v>0.4101948142051697</v>
       </c>
       <c r="R15" s="1">
-        <v>0.1280597746372223</v>
+        <v>0.1280597597360611</v>
       </c>
       <c r="S15" s="1">
-        <v>0.05580290406942368</v>
+        <v>0.05580291152000427</v>
       </c>
       <c r="T15" s="1">
         <v>0</v>
@@ -36579,7 +36579,7 @@
         <v>150.9100646972656</v>
       </c>
       <c r="AG16" s="1">
-        <v>0.2930191159248352</v>
+        <v>0.2930193245410919</v>
       </c>
       <c r="AH16" s="1">
         <v>6.506698608398438</v>
@@ -36635,16 +36635,16 @@
         <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>3.914494752883911</v>
+        <v>3.914494514465332</v>
       </c>
       <c r="Q17" s="1">
         <v>189.7579498291016</v>
       </c>
       <c r="R17" s="1">
-        <v>0.1453306376934052</v>
+        <v>0.145330622792244</v>
       </c>
       <c r="S17" s="1">
-        <v>1.726629734039307</v>
+        <v>1.726629972457886</v>
       </c>
       <c r="T17" s="1">
         <v>0</v>
@@ -36662,7 +36662,7 @@
         <v>0</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.01807602308690548</v>
+        <v>0.01807602494955063</v>
       </c>
       <c r="Z17" s="1">
         <v>0.03352945670485497</v>
@@ -36748,13 +36748,13 @@
         <v>0.0566718690097332</v>
       </c>
       <c r="R18" s="1">
-        <v>130.7724914550781</v>
+        <v>130.7724761962891</v>
       </c>
       <c r="S18" s="1">
         <v>4.473278999328613</v>
       </c>
       <c r="T18" s="1">
-        <v>-1.282251560041914e-05</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
         <v>2.626436948776245</v>
@@ -36781,7 +36781,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="1">
-        <v>-1.260709996131482e-05</v>
+        <v>0</v>
       </c>
       <c r="AD18" s="1">
         <v>0.4416176676750183</v>
@@ -36793,13 +36793,13 @@
         <v>143.7524719238281</v>
       </c>
       <c r="AG18" s="1">
-        <v>128.3877563476562</v>
+        <v>128.3878326416016</v>
       </c>
       <c r="AH18" s="1">
         <v>4.839591026306152</v>
       </c>
       <c r="AI18" s="1">
-        <v>276.9797973632812</v>
+        <v>276.9798889160156</v>
       </c>
     </row>
     <row r="19" spans="1:35">
@@ -36813,7 +36813,7 @@
         <v>0</v>
       </c>
       <c r="D19" s="1">
-        <v>0.0008603098103776574</v>
+        <v>0.0008603098685853183</v>
       </c>
       <c r="E19" s="1">
         <v>0.1570095717906952</v>
@@ -36900,13 +36900,13 @@
         <v>608.4906005859375</v>
       </c>
       <c r="AG19" s="1">
-        <v>12.06262397766113</v>
+        <v>12.0625638961792</v>
       </c>
       <c r="AH19" s="1">
         <v>26.18857192993164</v>
       </c>
       <c r="AI19" s="1">
-        <v>646.7418212890625</v>
+        <v>646.7417602539062</v>
       </c>
     </row>
     <row r="20" spans="1:35">
@@ -36962,13 +36962,13 @@
         <v>0</v>
       </c>
       <c r="R20" s="1">
-        <v>0.1008395999670029</v>
+        <v>0.1008395925164223</v>
       </c>
       <c r="S20" s="1">
-        <v>7.807469367980957</v>
+        <v>7.807470321655273</v>
       </c>
       <c r="T20" s="1">
-        <v>93.47528839111328</v>
+        <v>93.47545623779297</v>
       </c>
       <c r="U20" s="1">
         <v>0</v>
@@ -36995,7 +36995,7 @@
         <v>0.03091392666101456</v>
       </c>
       <c r="AC20" s="1">
-        <v>0.1136403903365135</v>
+        <v>0.1136403754353523</v>
       </c>
       <c r="AD20" s="1">
         <v>1.583524227142334</v>
@@ -37004,16 +37004,16 @@
         <v>0</v>
       </c>
       <c r="AF20" s="1">
-        <v>108.5329895019531</v>
+        <v>108.5331573486328</v>
       </c>
       <c r="AG20" s="1">
-        <v>5.118175983428955</v>
+        <v>5.118165016174316</v>
       </c>
       <c r="AH20" s="1">
         <v>2.136666774749756</v>
       </c>
       <c r="AI20" s="1">
-        <v>115.7878341674805</v>
+        <v>115.7879867553711</v>
       </c>
     </row>
     <row r="21" spans="1:35">
@@ -37063,13 +37063,13 @@
         <v>0.08767452090978622</v>
       </c>
       <c r="P21" s="1">
-        <v>1.423792362213135</v>
+        <v>1.423792243003845</v>
       </c>
       <c r="Q21" s="1">
         <v>0.07551965117454529</v>
       </c>
       <c r="R21" s="1">
-        <v>0.2683624029159546</v>
+        <v>0.2683623731136322</v>
       </c>
       <c r="S21" s="1">
         <v>0.2779122889041901</v>
@@ -37102,7 +37102,7 @@
         <v>0.1905330866575241</v>
       </c>
       <c r="AC21" s="1">
-        <v>0.03150075301527977</v>
+        <v>0.03150074928998947</v>
       </c>
       <c r="AD21" s="1">
         <v>0.07703570276498795</v>
@@ -37277,19 +37277,19 @@
         <v>0.04920240491628647</v>
       </c>
       <c r="P23" s="1">
-        <v>1.804578423500061</v>
+        <v>1.804578185081482</v>
       </c>
       <c r="Q23" s="1">
         <v>0.2327830791473389</v>
       </c>
       <c r="R23" s="1">
-        <v>2.602670431137085</v>
+        <v>2.602670192718506</v>
       </c>
       <c r="S23" s="1">
-        <v>5.496163845062256</v>
+        <v>5.496164798736572</v>
       </c>
       <c r="T23" s="1">
-        <v>0.7599799036979675</v>
+        <v>0.7599811553955078</v>
       </c>
       <c r="U23" s="1">
         <v>0.8617958426475525</v>
@@ -37304,7 +37304,7 @@
         <v>1.04255473613739</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.1878794133663177</v>
+        <v>0.1878794282674789</v>
       </c>
       <c r="Z23" s="1">
         <v>0.08361086249351501</v>
@@ -37316,7 +37316,7 @@
         <v>0.1630250960588455</v>
       </c>
       <c r="AC23" s="1">
-        <v>1.229197978973389</v>
+        <v>1.229197859764099</v>
       </c>
       <c r="AD23" s="1">
         <v>2.592996597290039</v>
@@ -37491,19 +37491,19 @@
         <v>0.4957449734210968</v>
       </c>
       <c r="P25" s="1">
-        <v>11.48317432403564</v>
+        <v>11.48317337036133</v>
       </c>
       <c r="Q25" s="1">
         <v>0.4566987752914429</v>
       </c>
       <c r="R25" s="1">
-        <v>5.806897640228271</v>
+        <v>5.806897163391113</v>
       </c>
       <c r="S25" s="1">
         <v>4.819210529327393</v>
       </c>
       <c r="T25" s="1">
-        <v>0.9459998607635498</v>
+        <v>0.9460014700889587</v>
       </c>
       <c r="U25" s="1">
         <v>10.37382984161377</v>
@@ -37604,10 +37604,10 @@
         <v>0.008718604221940041</v>
       </c>
       <c r="R26" s="1">
-        <v>0.2785492837429047</v>
+        <v>0.2785492539405823</v>
       </c>
       <c r="S26" s="1">
-        <v>1.831990242004395</v>
+        <v>1.831990480422974</v>
       </c>
       <c r="T26" s="1">
         <v>0</v>
@@ -37625,7 +37625,7 @@
         <v>0</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.1820156127214432</v>
+        <v>0.1820156276226044</v>
       </c>
       <c r="Z26" s="1">
         <v>13.87222671508789</v>
@@ -37646,7 +37646,7 @@
         <v>0</v>
       </c>
       <c r="AF26" s="1">
-        <v>23.16975975036621</v>
+        <v>23.16976165771484</v>
       </c>
       <c r="AG26" s="1">
         <v>65.34546661376953</v>
@@ -37717,7 +37717,7 @@
         <v>0</v>
       </c>
       <c r="T27" s="1">
-        <v>0.7308833599090576</v>
+        <v>0.7308846116065979</v>
       </c>
       <c r="U27" s="1">
         <v>0</v>
@@ -37839,7 +37839,7 @@
         <v>0</v>
       </c>
       <c r="Y28" s="1">
-        <v>0.1714141815900803</v>
+        <v>0.1714141964912415</v>
       </c>
       <c r="Z28" s="1">
         <v>0</v>
@@ -37958,7 +37958,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="1">
-        <v>173.7189636230469</v>
+        <v>173.7189483642578</v>
       </c>
       <c r="AD29" s="1">
         <v>0</v>
@@ -37967,16 +37967,16 @@
         <v>0</v>
       </c>
       <c r="AF29" s="1">
-        <v>174.8839416503906</v>
+        <v>174.8839263916016</v>
       </c>
       <c r="AG29" s="1">
-        <v>0.2091401070356369</v>
+        <v>0.2091401964426041</v>
       </c>
       <c r="AH29" s="1">
         <v>0.04755235090851784</v>
       </c>
       <c r="AI29" s="1">
-        <v>175.1406402587891</v>
+        <v>175.140625</v>
       </c>
     </row>
     <row r="30" spans="1:35">
@@ -38032,7 +38032,7 @@
         <v>0</v>
       </c>
       <c r="R30" s="1">
-        <v>0.7843918204307556</v>
+        <v>0.7843917608261108</v>
       </c>
       <c r="S30" s="1">
         <v>0</v>
@@ -38053,7 +38053,7 @@
         <v>0</v>
       </c>
       <c r="Y30" s="1">
-        <v>0.0003718617663253099</v>
+        <v>0.0003718617954291403</v>
       </c>
       <c r="Z30" s="1">
         <v>0</v>
@@ -38246,13 +38246,13 @@
         <v>190.99853515625</v>
       </c>
       <c r="R32" s="1">
-        <v>140.9052429199219</v>
+        <v>140.9052276611328</v>
       </c>
       <c r="S32" s="1">
         <v>633.7247924804688</v>
       </c>
       <c r="T32" s="1">
-        <v>95.91213226318359</v>
+        <v>95.91232299804688</v>
       </c>
       <c r="U32" s="1">
         <v>94.13548278808594</v>
@@ -38288,7 +38288,7 @@
         <v>5.004098415374756</v>
       </c>
       <c r="AF32" s="1">
-        <v>2491.68408203125</v>
+        <v>2491.684326171875</v>
       </c>
       <c r="AG32" s="1">
         <v>751.6067504882812</v>
@@ -38297,7 +38297,7 @@
         <v>333.5993041992188</v>
       </c>
       <c r="AI32" s="1">
-        <v>3576.8896484375</v>
+        <v>3576.89013671875</v>
       </c>
     </row>
   </sheetData>
@@ -38732,13 +38732,13 @@
         <v>106.7149047851562</v>
       </c>
       <c r="AG4" s="1">
-        <v>152.1003875732422</v>
+        <v>152.1002655029297</v>
       </c>
       <c r="AH4" s="1">
         <v>529.6652221679688</v>
       </c>
       <c r="AI4" s="1">
-        <v>788.4805297851562</v>
+        <v>788.4804077148438</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -39912,7 +39912,7 @@
         <v>44.12414932250977</v>
       </c>
       <c r="AH15" s="1">
-        <v>161.6386108398438</v>
+        <v>161.6385955810547</v>
       </c>
       <c r="AI15" s="1">
         <v>819.2883911132812</v>
@@ -39965,7 +39965,7 @@
         <v>0.06674370914697647</v>
       </c>
       <c r="P16" s="1">
-        <v>556.7376708984375</v>
+        <v>556.7377319335938</v>
       </c>
       <c r="Q16" s="1">
         <v>0</v>
@@ -40013,16 +40013,16 @@
         <v>0</v>
       </c>
       <c r="AF16" s="1">
-        <v>569.8064575195312</v>
+        <v>569.8065185546875</v>
       </c>
       <c r="AG16" s="1">
-        <v>278.0055236816406</v>
+        <v>278.0055541992188</v>
       </c>
       <c r="AH16" s="1">
         <v>105.3383865356445</v>
       </c>
       <c r="AI16" s="1">
-        <v>953.150390625</v>
+        <v>953.1504516601562</v>
       </c>
     </row>
     <row r="17" spans="1:35">
@@ -40072,7 +40072,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>14.47637844085693</v>
+        <v>14.47637939453125</v>
       </c>
       <c r="Q17" s="1">
         <v>2449.8095703125</v>
@@ -40191,7 +40191,7 @@
         <v>11.32552623748779</v>
       </c>
       <c r="T18" s="1">
-        <v>-7.982895476743579e-05</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
         <v>22.328369140625</v>
@@ -40218,7 +40218,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="1">
-        <v>-0.000189354206668213</v>
+        <v>0</v>
       </c>
       <c r="AD18" s="1">
         <v>4.15492057800293</v>
@@ -40227,16 +40227,16 @@
         <v>0</v>
       </c>
       <c r="AF18" s="1">
-        <v>2283.443603515625</v>
+        <v>2283.44384765625</v>
       </c>
       <c r="AG18" s="1">
-        <v>1150.311645507812</v>
+        <v>1150.307495117188</v>
       </c>
       <c r="AH18" s="1">
         <v>70.25675964355469</v>
       </c>
       <c r="AI18" s="1">
-        <v>3504.011962890625</v>
+        <v>3504.008056640625</v>
       </c>
     </row>
     <row r="19" spans="1:35">
@@ -40337,7 +40337,7 @@
         <v>1569.879150390625</v>
       </c>
       <c r="AG19" s="1">
-        <v>460.040283203125</v>
+        <v>460.0403442382812</v>
       </c>
       <c r="AH19" s="1">
         <v>223.0697021484375</v>
@@ -40405,7 +40405,7 @@
         <v>19.76708984375</v>
       </c>
       <c r="T20" s="1">
-        <v>581.9478149414062</v>
+        <v>581.9476928710938</v>
       </c>
       <c r="U20" s="1">
         <v>0</v>
@@ -40432,7 +40432,7 @@
         <v>0.4910516142845154</v>
       </c>
       <c r="AC20" s="1">
-        <v>1.706838726997375</v>
+        <v>1.706838965415955</v>
       </c>
       <c r="AD20" s="1">
         <v>14.89844989776611</v>
@@ -40441,10 +40441,10 @@
         <v>0</v>
       </c>
       <c r="AF20" s="1">
-        <v>679.3101196289062</v>
+        <v>679.3099975585938</v>
       </c>
       <c r="AG20" s="1">
-        <v>146.3742218017578</v>
+        <v>146.3743591308594</v>
       </c>
       <c r="AH20" s="1">
         <v>26.31775283813477</v>
@@ -40539,7 +40539,7 @@
         <v>3.026518821716309</v>
       </c>
       <c r="AC21" s="1">
-        <v>0.4731302559375763</v>
+        <v>0.4731303155422211</v>
       </c>
       <c r="AD21" s="1">
         <v>0.7247836589813232</v>
@@ -40723,10 +40723,10 @@
         <v>41.48908615112305</v>
       </c>
       <c r="S23" s="1">
-        <v>13.91528797149658</v>
+        <v>13.91528701782227</v>
       </c>
       <c r="T23" s="1">
-        <v>4.731396198272705</v>
+        <v>4.731395721435547</v>
       </c>
       <c r="U23" s="1">
         <v>7.326464176177979</v>
@@ -40753,7 +40753,7 @@
         <v>2.589568853378296</v>
       </c>
       <c r="AC23" s="1">
-        <v>18.46212387084961</v>
+        <v>18.46212196350098</v>
       </c>
       <c r="AD23" s="1">
         <v>24.39598083496094</v>
@@ -40940,7 +40940,7 @@
         <v>12.2013635635376</v>
       </c>
       <c r="T25" s="1">
-        <v>5.889498233795166</v>
+        <v>5.889497756958008</v>
       </c>
       <c r="U25" s="1">
         <v>88.19199371337891</v>
@@ -41154,7 +41154,7 @@
         <v>0</v>
       </c>
       <c r="T27" s="1">
-        <v>4.550250053405762</v>
+        <v>4.550249576568604</v>
       </c>
       <c r="U27" s="1">
         <v>0</v>
@@ -41395,7 +41395,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="1">
-        <v>2609.197998046875</v>
+        <v>2609.19775390625</v>
       </c>
       <c r="AD29" s="1">
         <v>0</v>
@@ -41404,16 +41404,16 @@
         <v>0</v>
       </c>
       <c r="AF29" s="1">
-        <v>2621.58203125</v>
+        <v>2621.581787109375</v>
       </c>
       <c r="AG29" s="1">
-        <v>1.089138984680176</v>
+        <v>1.089139580726624</v>
       </c>
       <c r="AH29" s="1">
         <v>0.7343338131904602</v>
       </c>
       <c r="AI29" s="1">
-        <v>2623.405517578125</v>
+        <v>2623.4052734375</v>
       </c>
     </row>
     <row r="30" spans="1:35">
@@ -41677,7 +41677,7 @@
         <v>427.2002868652344</v>
       </c>
       <c r="P32" s="1">
-        <v>632.1243896484375</v>
+        <v>632.1244506835938</v>
       </c>
       <c r="Q32" s="1">
         <v>2465.82568359375</v>
@@ -41689,7 +41689,7 @@
         <v>1604.475830078125</v>
       </c>
       <c r="T32" s="1">
-        <v>597.118896484375</v>
+        <v>597.1188354492188</v>
       </c>
       <c r="U32" s="1">
         <v>800.2825927734375</v>
@@ -41716,7 +41716,7 @@
         <v>1156.618286132812</v>
       </c>
       <c r="AC32" s="1">
-        <v>2633.8251953125</v>
+        <v>2633.824951171875</v>
       </c>
       <c r="AD32" s="1">
         <v>723.6292724609375</v>
@@ -41728,13 +41728,13 @@
         <v>28604.361328125</v>
       </c>
       <c r="AG32" s="1">
-        <v>8244.1669921875</v>
+        <v>8244.1630859375</v>
       </c>
       <c r="AH32" s="1">
         <v>6086.33740234375</v>
       </c>
       <c r="AI32" s="1">
-        <v>42934.8671875</v>
+        <v>42934.86328125</v>
       </c>
     </row>
   </sheetData>
@@ -41975,7 +41975,7 @@
         <v>177.5050811767578</v>
       </c>
       <c r="D3" s="1">
-        <v>0.07167363166809082</v>
+        <v>0.07167363911867142</v>
       </c>
       <c r="E3" s="1">
         <v>0.1173196658492088</v>
@@ -42082,7 +42082,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>58.39973449707031</v>
+        <v>58.39973831176758</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -42166,7 +42166,7 @@
         <v>0</v>
       </c>
       <c r="AF4" s="1">
-        <v>70.128173828125</v>
+        <v>70.12818145751953</v>
       </c>
       <c r="AG4" s="1">
         <v>90.51392364501953</v>
@@ -42189,7 +42189,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>0.00658019632101059</v>
+        <v>0.006580196786671877</v>
       </c>
       <c r="E5" s="1">
         <v>629.0726318359375</v>
@@ -42320,7 +42320,7 @@
         <v>0.6243546605110168</v>
       </c>
       <c r="L6" s="1">
-        <v>0.000573915196582675</v>
+        <v>0.0005739151383750141</v>
       </c>
       <c r="M6" s="1">
         <v>8.196236610412598</v>
@@ -42403,7 +42403,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>0.2913305461406708</v>
+        <v>0.2913305759429932</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -42534,7 +42534,7 @@
         <v>0.01549348048865795</v>
       </c>
       <c r="L8" s="1">
-        <v>0.01277296990156174</v>
+        <v>0.01277296897023916</v>
       </c>
       <c r="M8" s="1">
         <v>0.01156432833522558</v>
@@ -42617,7 +42617,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="1">
-        <v>0.02410808391869068</v>
+        <v>0.02410808578133583</v>
       </c>
       <c r="E9" s="1">
         <v>1.521532416343689</v>
@@ -42724,7 +42724,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>0.3888344466686249</v>
+        <v>0.3888344764709473</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
@@ -42831,7 +42831,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="1">
-        <v>0.4652752876281738</v>
+        <v>0.4652753174304962</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
@@ -42873,7 +42873,7 @@
         <v>0</v>
       </c>
       <c r="R11" s="1">
-        <v>0.1167460903525352</v>
+        <v>0.1167460754513741</v>
       </c>
       <c r="S11" s="1">
         <v>0</v>
@@ -43001,7 +43001,7 @@
         <v>0</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.0002821970265358686</v>
+        <v>0.0002821969974320382</v>
       </c>
       <c r="Z12" s="1">
         <v>0</v>
@@ -43045,7 +43045,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="1">
-        <v>0.1476563364267349</v>
+        <v>0.1476563513278961</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
@@ -43259,7 +43259,7 @@
         <v>0</v>
       </c>
       <c r="D15" s="1">
-        <v>0.03396058827638626</v>
+        <v>0.03396059200167656</v>
       </c>
       <c r="E15" s="1">
         <v>0.2505585253238678</v>
@@ -43301,7 +43301,7 @@
         <v>2.369897365570068</v>
       </c>
       <c r="R15" s="1">
-        <v>0.8475443124771118</v>
+        <v>0.8475441932678223</v>
       </c>
       <c r="S15" s="1">
         <v>0.07086696475744247</v>
@@ -43322,7 +43322,7 @@
         <v>0</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.2844410836696625</v>
+        <v>0.2844410538673401</v>
       </c>
       <c r="Z15" s="1">
         <v>0.08470846712589264</v>
@@ -43366,7 +43366,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="1">
-        <v>0.09167487174272537</v>
+        <v>0.09167487919330597</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>
@@ -43453,13 +43453,13 @@
         <v>779.19580078125</v>
       </c>
       <c r="AG16" s="1">
-        <v>9.330129623413086</v>
+        <v>9.330173492431641</v>
       </c>
       <c r="AH16" s="1">
         <v>97.68053436279297</v>
       </c>
       <c r="AI16" s="1">
-        <v>886.2064819335938</v>
+        <v>886.20654296875</v>
       </c>
     </row>
     <row r="17" spans="1:35">
@@ -43473,7 +43473,7 @@
         <v>0.2070582807064056</v>
       </c>
       <c r="D17" s="1">
-        <v>0.6100894212722778</v>
+        <v>0.6100894808769226</v>
       </c>
       <c r="E17" s="1">
         <v>0</v>
@@ -43515,7 +43515,7 @@
         <v>1096.325073242188</v>
       </c>
       <c r="R17" s="1">
-        <v>0.9618491530418396</v>
+        <v>0.96184903383255</v>
       </c>
       <c r="S17" s="1">
         <v>2.19273567199707</v>
@@ -43536,7 +43536,7 @@
         <v>0</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.1621347069740295</v>
+        <v>0.1621346920728683</v>
       </c>
       <c r="Z17" s="1">
         <v>0.6563907265663147</v>
@@ -43580,7 +43580,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="1">
-        <v>0.372737854719162</v>
+        <v>0.3727378845214844</v>
       </c>
       <c r="E18" s="1">
         <v>21.1252326965332</v>
@@ -43622,13 +43622,13 @@
         <v>0.3274212777614594</v>
       </c>
       <c r="R18" s="1">
-        <v>865.498046875</v>
+        <v>865.4979248046875</v>
       </c>
       <c r="S18" s="1">
         <v>5.680845737457275</v>
       </c>
       <c r="T18" s="1">
-        <v>-2.905903420469258e-05</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
         <v>6.277360439300537</v>
@@ -43643,7 +43643,7 @@
         <v>0</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.5878693461418152</v>
+        <v>0.5878692865371704</v>
       </c>
       <c r="Z18" s="1">
         <v>1.070377945899963</v>
@@ -43655,7 +43655,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="1">
-        <v>-7.969321450218558e-05</v>
+        <v>0</v>
       </c>
       <c r="AD18" s="1">
         <v>1.976407408714294</v>
@@ -43667,13 +43667,13 @@
         <v>1023.987426757812</v>
       </c>
       <c r="AG18" s="1">
-        <v>1013.946350097656</v>
+        <v>1013.949157714844</v>
       </c>
       <c r="AH18" s="1">
         <v>34.14878463745117</v>
       </c>
       <c r="AI18" s="1">
-        <v>2072.08251953125</v>
+        <v>2072.08544921875</v>
       </c>
     </row>
     <row r="19" spans="1:35">
@@ -43687,7 +43687,7 @@
         <v>0</v>
       </c>
       <c r="D19" s="1">
-        <v>0.03049673326313496</v>
+        <v>0.03049673512578011</v>
       </c>
       <c r="E19" s="1">
         <v>1.150012493133545</v>
@@ -43774,7 +43774,7 @@
         <v>792.5726318359375</v>
       </c>
       <c r="AG19" s="1">
-        <v>450.2364807128906</v>
+        <v>450.2364501953125</v>
       </c>
       <c r="AH19" s="1">
         <v>130.798095703125</v>
@@ -43836,13 +43836,13 @@
         <v>0</v>
       </c>
       <c r="R20" s="1">
-        <v>0.6673917770385742</v>
+        <v>0.6673917174339294</v>
       </c>
       <c r="S20" s="1">
         <v>9.915104866027832</v>
       </c>
       <c r="T20" s="1">
-        <v>211.8384399414062</v>
+        <v>211.8383941650391</v>
       </c>
       <c r="U20" s="1">
         <v>0</v>
@@ -43878,16 +43878,16 @@
         <v>0</v>
       </c>
       <c r="AF20" s="1">
-        <v>272.0507507324219</v>
+        <v>272.0506896972656</v>
       </c>
       <c r="AG20" s="1">
-        <v>130.5920715332031</v>
+        <v>130.5921020507812</v>
       </c>
       <c r="AH20" s="1">
         <v>12.18545341491699</v>
       </c>
       <c r="AI20" s="1">
-        <v>414.8282775878906</v>
+        <v>414.8282470703125</v>
       </c>
     </row>
     <row r="21" spans="1:35">
@@ -43901,7 +43901,7 @@
         <v>0</v>
       </c>
       <c r="D21" s="1">
-        <v>0.0457204282283783</v>
+        <v>0.04572043195366859</v>
       </c>
       <c r="E21" s="1">
         <v>2.09889030456543</v>
@@ -43925,7 +43925,7 @@
         <v>3.449691534042358</v>
       </c>
       <c r="L21" s="1">
-        <v>18.46573066711426</v>
+        <v>18.46572875976562</v>
       </c>
       <c r="M21" s="1">
         <v>15.14286518096924</v>
@@ -43943,7 +43943,7 @@
         <v>0.4363141655921936</v>
       </c>
       <c r="R21" s="1">
-        <v>1.776116251945496</v>
+        <v>1.776116013526917</v>
       </c>
       <c r="S21" s="1">
         <v>0.3529350161552429</v>
@@ -43964,7 +43964,7 @@
         <v>0</v>
       </c>
       <c r="Y21" s="1">
-        <v>18.15282440185547</v>
+        <v>18.15282249450684</v>
       </c>
       <c r="Z21" s="1">
         <v>0.4786728322505951</v>
@@ -44115,7 +44115,7 @@
         <v>0.7039998173713684</v>
       </c>
       <c r="D23" s="1">
-        <v>0.4067272245883942</v>
+        <v>0.4067272543907166</v>
       </c>
       <c r="E23" s="1">
         <v>2.063050508499146</v>
@@ -44157,13 +44157,13 @@
         <v>1.344902396202087</v>
       </c>
       <c r="R23" s="1">
-        <v>17.22538375854492</v>
+        <v>17.22538185119629</v>
       </c>
       <c r="S23" s="1">
-        <v>6.979861259460449</v>
+        <v>6.979860782623291</v>
       </c>
       <c r="T23" s="1">
-        <v>1.722304940223694</v>
+        <v>1.722304463386536</v>
       </c>
       <c r="U23" s="1">
         <v>2.059750080108643</v>
@@ -44178,7 +44178,7 @@
         <v>3.005015850067139</v>
       </c>
       <c r="Y23" s="1">
-        <v>1.685203313827515</v>
+        <v>1.685203194618225</v>
       </c>
       <c r="Z23" s="1">
         <v>1.63681161403656</v>
@@ -44329,7 +44329,7 @@
         <v>0</v>
       </c>
       <c r="D25" s="1">
-        <v>0.4656854271888733</v>
+        <v>0.4656854569911957</v>
       </c>
       <c r="E25" s="1">
         <v>27.04903793334961</v>
@@ -44371,13 +44371,13 @@
         <v>2.63857364654541</v>
       </c>
       <c r="R25" s="1">
-        <v>38.43208312988281</v>
+        <v>38.43207931518555</v>
       </c>
       <c r="S25" s="1">
         <v>6.120162487030029</v>
       </c>
       <c r="T25" s="1">
-        <v>2.143872976303101</v>
+        <v>2.143872261047363</v>
       </c>
       <c r="U25" s="1">
         <v>24.79414939880371</v>
@@ -44392,7 +44392,7 @@
         <v>0</v>
       </c>
       <c r="Y25" s="1">
-        <v>306.1746520996094</v>
+        <v>306.1746215820312</v>
       </c>
       <c r="Z25" s="1">
         <v>1.987911820411682</v>
@@ -44460,7 +44460,7 @@
         <v>5.590924263000488</v>
       </c>
       <c r="L26" s="1">
-        <v>9.697727203369141</v>
+        <v>9.697726249694824</v>
       </c>
       <c r="M26" s="1">
         <v>36.53591918945312</v>
@@ -44478,7 +44478,7 @@
         <v>0.05037166923284531</v>
       </c>
       <c r="R26" s="1">
-        <v>1.843536734580994</v>
+        <v>1.843536496162415</v>
       </c>
       <c r="S26" s="1">
         <v>2.3265380859375</v>
@@ -44499,7 +44499,7 @@
         <v>0</v>
       </c>
       <c r="Y26" s="1">
-        <v>1.632607340812683</v>
+        <v>1.632607221603394</v>
       </c>
       <c r="Z26" s="1">
         <v>271.5702209472656</v>
@@ -44591,7 +44591,7 @@
         <v>0</v>
       </c>
       <c r="T27" s="1">
-        <v>1.656364917755127</v>
+        <v>1.656364560127258</v>
       </c>
       <c r="U27" s="1">
         <v>0</v>
@@ -44713,7 +44713,7 @@
         <v>0</v>
       </c>
       <c r="Y28" s="1">
-        <v>1.537516832351685</v>
+        <v>1.537516713142395</v>
       </c>
       <c r="Z28" s="1">
         <v>0</v>
@@ -44906,7 +44906,7 @@
         <v>0</v>
       </c>
       <c r="R30" s="1">
-        <v>5.191380023956299</v>
+        <v>5.191379547119141</v>
       </c>
       <c r="S30" s="1">
         <v>0</v>
@@ -44927,7 +44927,7 @@
         <v>0</v>
       </c>
       <c r="Y30" s="1">
-        <v>0.003335451707243919</v>
+        <v>0.003335451474413276</v>
       </c>
       <c r="Z30" s="1">
         <v>0</v>
@@ -45078,7 +45078,7 @@
         <v>181.3417205810547</v>
       </c>
       <c r="D32" s="1">
-        <v>61.85229110717773</v>
+        <v>61.852294921875</v>
       </c>
       <c r="E32" s="1">
         <v>685.4149780273438</v>
@@ -45102,7 +45102,7 @@
         <v>1943.027587890625</v>
       </c>
       <c r="L32" s="1">
-        <v>80.34242248535156</v>
+        <v>80.34241485595703</v>
       </c>
       <c r="M32" s="1">
         <v>985.1278076171875</v>
@@ -45120,13 +45120,13 @@
         <v>1103.492431640625</v>
       </c>
       <c r="R32" s="1">
-        <v>932.5601806640625</v>
+        <v>932.56005859375</v>
       </c>
       <c r="S32" s="1">
         <v>804.799560546875</v>
       </c>
       <c r="T32" s="1">
-        <v>217.3609619140625</v>
+        <v>217.3609466552734</v>
       </c>
       <c r="U32" s="1">
         <v>224.9901123046875</v>
@@ -45141,7 +45141,7 @@
         <v>486.6368713378906</v>
       </c>
       <c r="Y32" s="1">
-        <v>330.2208251953125</v>
+        <v>330.2207946777344</v>
       </c>
       <c r="Z32" s="1">
         <v>282.3574829101562</v>
@@ -45153,7 +45153,7 @@
         <v>488.3418884277344</v>
       </c>
       <c r="AC32" s="1">
-        <v>1108.493774414062</v>
+        <v>1108.493896484375</v>
       </c>
       <c r="AD32" s="1">
         <v>344.215087890625</v>
@@ -45165,13 +45165,13 @@
         <v>15546.470703125</v>
       </c>
       <c r="AG32" s="1">
-        <v>6063.51171875</v>
+        <v>6063.5146484375</v>
       </c>
       <c r="AH32" s="1">
         <v>3543.952392578125</v>
       </c>
       <c r="AI32" s="1">
-        <v>25153.93359375</v>
+        <v>25153.9375</v>
       </c>
     </row>
   </sheetData>
@@ -45412,7 +45412,7 @@
         <v>164.4487762451172</v>
       </c>
       <c r="D3" s="1">
-        <v>0.02875575423240662</v>
+        <v>0.02875575609505177</v>
       </c>
       <c r="E3" s="1">
         <v>0.1367000788450241</v>
@@ -45502,7 +45502,7 @@
         <v>27.8142032623291</v>
       </c>
       <c r="AH3" s="1">
-        <v>12.6126766204834</v>
+        <v>12.61267566680908</v>
       </c>
       <c r="AI3" s="1">
         <v>206.0097503662109</v>
@@ -45519,7 +45519,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>23.43021202087402</v>
+        <v>23.43021392822266</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -45603,7 +45603,7 @@
         <v>0</v>
       </c>
       <c r="AF4" s="1">
-        <v>30.1049747467041</v>
+        <v>30.10497856140137</v>
       </c>
       <c r="AG4" s="1">
         <v>33.28501510620117</v>
@@ -45626,7 +45626,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>0.002640001708641648</v>
+        <v>0.002640001941472292</v>
       </c>
       <c r="E5" s="1">
         <v>732.9912719726562</v>
@@ -45840,7 +45840,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="1">
-        <v>0.1168830171227455</v>
+        <v>0.1168830245733261</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
@@ -46161,7 +46161,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="1">
-        <v>0.1560019701719284</v>
+        <v>0.1560019850730896</v>
       </c>
       <c r="E10" s="1">
         <v>0</v>
@@ -46268,7 +46268,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="1">
-        <v>0.1866703629493713</v>
+        <v>0.1866703480482101</v>
       </c>
       <c r="E11" s="1">
         <v>0</v>
@@ -46310,7 +46310,7 @@
         <v>0</v>
       </c>
       <c r="R11" s="1">
-        <v>0.1076922416687012</v>
+        <v>0.1076922342181206</v>
       </c>
       <c r="S11" s="1">
         <v>0</v>
@@ -46465,7 +46465,7 @@
         <v>135.5306396484375</v>
       </c>
       <c r="AH12" s="1">
-        <v>193.0718536376953</v>
+        <v>193.0718383789062</v>
       </c>
       <c r="AI12" s="1">
         <v>379.1861572265625</v>
@@ -46482,7 +46482,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="1">
-        <v>0.05924033001065254</v>
+        <v>0.05924033373594284</v>
       </c>
       <c r="E13" s="1">
         <v>0</v>
@@ -46696,7 +46696,7 @@
         <v>0</v>
       </c>
       <c r="D15" s="1">
-        <v>0.01362512726336718</v>
+        <v>0.01362512819468975</v>
       </c>
       <c r="E15" s="1">
         <v>0.2919491231441498</v>
@@ -46738,7 +46738,7 @@
         <v>1.646215915679932</v>
       </c>
       <c r="R15" s="1">
-        <v>0.7818159461021423</v>
+        <v>0.7818158864974976</v>
       </c>
       <c r="S15" s="1">
         <v>0.03650821372866631</v>
@@ -46786,7 +46786,7 @@
         <v>67.08715057373047</v>
       </c>
       <c r="AH15" s="1">
-        <v>55.20783615112305</v>
+        <v>55.20783233642578</v>
       </c>
       <c r="AI15" s="1">
         <v>292.9708251953125</v>
@@ -46803,7 +46803,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="1">
-        <v>0.03678033128380775</v>
+        <v>0.03678033500909805</v>
       </c>
       <c r="E16" s="1">
         <v>0</v>
@@ -46839,7 +46839,7 @@
         <v>0.02241489104926586</v>
       </c>
       <c r="P16" s="1">
-        <v>331.0171508789062</v>
+        <v>331.0171203613281</v>
       </c>
       <c r="Q16" s="1">
         <v>0</v>
@@ -46887,10 +46887,10 @@
         <v>0</v>
       </c>
       <c r="AF16" s="1">
-        <v>338.9570922851562</v>
+        <v>338.9570617675781</v>
       </c>
       <c r="AG16" s="1">
-        <v>55.98766326904297</v>
+        <v>55.98768615722656</v>
       </c>
       <c r="AH16" s="1">
         <v>53.16548538208008</v>
@@ -46910,7 +46910,7 @@
         <v>0.191828191280365</v>
       </c>
       <c r="D17" s="1">
-        <v>0.2447703629732132</v>
+        <v>0.2447703778743744</v>
       </c>
       <c r="E17" s="1">
         <v>0</v>
@@ -46952,7 +46952,7 @@
         <v>761.546875</v>
       </c>
       <c r="R17" s="1">
-        <v>0.8872560858726501</v>
+        <v>0.8872560262680054</v>
       </c>
       <c r="S17" s="1">
         <v>1.129621624946594</v>
@@ -46979,7 +46979,7 @@
         <v>0.45469731092453</v>
       </c>
       <c r="AA17" s="1">
-        <v>0.1947456747293472</v>
+        <v>0.194745659828186</v>
       </c>
       <c r="AB17" s="1">
         <v>0</v>
@@ -47017,7 +47017,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="1">
-        <v>0.1495439559221268</v>
+        <v>0.149543970823288</v>
       </c>
       <c r="E18" s="1">
         <v>24.61497688293457</v>
@@ -47059,13 +47059,13 @@
         <v>0.2274385988712311</v>
       </c>
       <c r="R18" s="1">
-        <v>798.3772583007812</v>
+        <v>798.377197265625</v>
       </c>
       <c r="S18" s="1">
         <v>2.926575422286987</v>
       </c>
       <c r="T18" s="1">
-        <v>-2.567575938883238e-05</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
         <v>4.413253784179688</v>
@@ -47092,7 +47092,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="1">
-        <v>-5.882640471099876e-05</v>
+        <v>0</v>
       </c>
       <c r="AD18" s="1">
         <v>1.592457890510559</v>
@@ -47101,16 +47101,16 @@
         <v>0</v>
       </c>
       <c r="AF18" s="1">
-        <v>875.7022705078125</v>
+        <v>875.7023315429688</v>
       </c>
       <c r="AG18" s="1">
-        <v>424.9642333984375</v>
+        <v>424.968017578125</v>
       </c>
       <c r="AH18" s="1">
         <v>22.09551811218262</v>
       </c>
       <c r="AI18" s="1">
-        <v>1322.761962890625</v>
+        <v>1322.765869140625</v>
       </c>
     </row>
     <row r="19" spans="1:35">
@@ -47124,7 +47124,7 @@
         <v>0</v>
       </c>
       <c r="D19" s="1">
-        <v>0.01223541423678398</v>
+        <v>0.01223541516810656</v>
       </c>
       <c r="E19" s="1">
         <v>1.339986801147461</v>
@@ -47193,7 +47193,7 @@
         <v>0</v>
       </c>
       <c r="AA19" s="1">
-        <v>3.868093729019165</v>
+        <v>3.868093490600586</v>
       </c>
       <c r="AB19" s="1">
         <v>0</v>
@@ -47211,13 +47211,13 @@
         <v>408.4555358886719</v>
       </c>
       <c r="AG19" s="1">
-        <v>309.2815856933594</v>
+        <v>309.2814331054688</v>
       </c>
       <c r="AH19" s="1">
-        <v>73.72621917724609</v>
+        <v>73.72621154785156</v>
       </c>
       <c r="AI19" s="1">
-        <v>791.46337890625</v>
+        <v>791.463134765625</v>
       </c>
     </row>
     <row r="20" spans="1:35">
@@ -47273,13 +47273,13 @@
         <v>0</v>
       </c>
       <c r="R20" s="1">
-        <v>0.6156345009803772</v>
+        <v>0.6156344413757324</v>
       </c>
       <c r="S20" s="1">
         <v>5.107920169830322</v>
       </c>
       <c r="T20" s="1">
-        <v>187.1745910644531</v>
+        <v>187.1745758056641</v>
       </c>
       <c r="U20" s="1">
         <v>0</v>
@@ -47300,13 +47300,13 @@
         <v>0.1365697085857391</v>
       </c>
       <c r="AA20" s="1">
-        <v>27.06216239929199</v>
+        <v>27.06216049194336</v>
       </c>
       <c r="AB20" s="1">
         <v>0.1642789542675018</v>
       </c>
       <c r="AC20" s="1">
-        <v>0.5302611589431763</v>
+        <v>0.5302610993385315</v>
       </c>
       <c r="AD20" s="1">
         <v>5.71013355255127</v>
@@ -47315,10 +47315,10 @@
         <v>0</v>
       </c>
       <c r="AF20" s="1">
-        <v>228.1392974853516</v>
+        <v>228.1392822265625</v>
       </c>
       <c r="AG20" s="1">
-        <v>95.5419921875</v>
+        <v>95.54199981689453</v>
       </c>
       <c r="AH20" s="1">
         <v>9.474812507629395</v>
@@ -47338,7 +47338,7 @@
         <v>0</v>
       </c>
       <c r="D21" s="1">
-        <v>0.01834322325885296</v>
+        <v>0.01834322512149811</v>
       </c>
       <c r="E21" s="1">
         <v>2.445612668991089</v>
@@ -47380,7 +47380,7 @@
         <v>0.3030795454978943</v>
       </c>
       <c r="R21" s="1">
-        <v>1.638375520706177</v>
+        <v>1.638375401496887</v>
       </c>
       <c r="S21" s="1">
         <v>0.1818199157714844</v>
@@ -47407,13 +47407,13 @@
         <v>0.3315879702568054</v>
       </c>
       <c r="AA21" s="1">
-        <v>2.476503610610962</v>
+        <v>2.476503372192383</v>
       </c>
       <c r="AB21" s="1">
         <v>1.012507319450378</v>
       </c>
       <c r="AC21" s="1">
-        <v>0.1469866931438446</v>
+        <v>0.1469866782426834</v>
       </c>
       <c r="AD21" s="1">
         <v>0.2777880430221558</v>
@@ -47552,7 +47552,7 @@
         <v>0.6522173881530762</v>
       </c>
       <c r="D23" s="1">
-        <v>0.1631806194782257</v>
+        <v>0.1631806343793869</v>
       </c>
       <c r="E23" s="1">
         <v>2.403852701187134</v>
@@ -47594,13 +47594,13 @@
         <v>0.9342175722122192</v>
       </c>
       <c r="R23" s="1">
-        <v>15.88952732086182</v>
+        <v>15.8895263671875</v>
       </c>
       <c r="S23" s="1">
         <v>3.595782995223999</v>
       </c>
       <c r="T23" s="1">
-        <v>1.521781086921692</v>
+        <v>1.521780729293823</v>
       </c>
       <c r="U23" s="1">
         <v>1.448092579841614</v>
@@ -47621,13 +47621,13 @@
         <v>1.133857846260071</v>
       </c>
       <c r="AA23" s="1">
-        <v>22.45702362060547</v>
+        <v>22.45702171325684</v>
       </c>
       <c r="AB23" s="1">
         <v>0.8663278818130493</v>
       </c>
       <c r="AC23" s="1">
-        <v>5.73560094833374</v>
+        <v>5.735600471496582</v>
       </c>
       <c r="AD23" s="1">
         <v>9.350254058837891</v>
@@ -47766,7 +47766,7 @@
         <v>0</v>
       </c>
       <c r="D25" s="1">
-        <v>0.1868348866701126</v>
+        <v>0.1868349015712738</v>
       </c>
       <c r="E25" s="1">
         <v>31.51735496520996</v>
@@ -47808,13 +47808,13 @@
         <v>1.832848191261292</v>
       </c>
       <c r="R25" s="1">
-        <v>35.45161437988281</v>
+        <v>35.45161056518555</v>
       </c>
       <c r="S25" s="1">
         <v>3.152896165847778</v>
       </c>
       <c r="T25" s="1">
-        <v>1.894266843795776</v>
+        <v>1.894266366958618</v>
       </c>
       <c r="U25" s="1">
         <v>17.43135070800781</v>
@@ -47835,13 +47835,13 @@
         <v>1.377073407173157</v>
       </c>
       <c r="AA25" s="1">
-        <v>18.09178924560547</v>
+        <v>18.09178733825684</v>
       </c>
       <c r="AB25" s="1">
         <v>34.80943298339844</v>
       </c>
       <c r="AC25" s="1">
-        <v>1.238077759742737</v>
+        <v>1.238077521324158</v>
       </c>
       <c r="AD25" s="1">
         <v>2.789507150650024</v>
@@ -47853,13 +47853,13 @@
         <v>552.7725830078125</v>
       </c>
       <c r="AG25" s="1">
-        <v>230.9148406982422</v>
+        <v>230.914794921875</v>
       </c>
       <c r="AH25" s="1">
         <v>146.9253540039062</v>
       </c>
       <c r="AI25" s="1">
-        <v>930.61279296875</v>
+        <v>930.6127319335938</v>
       </c>
     </row>
     <row r="26" spans="1:35">
@@ -47915,7 +47915,7 @@
         <v>0.03498997539281845</v>
       </c>
       <c r="R26" s="1">
-        <v>1.700567483901978</v>
+        <v>1.700567364692688</v>
       </c>
       <c r="S26" s="1">
         <v>1.198552131652832</v>
@@ -47942,7 +47942,7 @@
         <v>188.1230773925781</v>
       </c>
       <c r="AA26" s="1">
-        <v>0.0149622019380331</v>
+        <v>0.01496220100671053</v>
       </c>
       <c r="AB26" s="1">
         <v>0.0001095357511076145</v>
@@ -48028,7 +48028,7 @@
         <v>0</v>
       </c>
       <c r="T27" s="1">
-        <v>1.463518261909485</v>
+        <v>1.463518142700195</v>
       </c>
       <c r="U27" s="1">
         <v>0</v>
@@ -48049,7 +48049,7 @@
         <v>3.238652944564819</v>
       </c>
       <c r="AA27" s="1">
-        <v>574.6143188476562</v>
+        <v>574.6142578125</v>
       </c>
       <c r="AB27" s="1">
         <v>0</v>
@@ -48064,7 +48064,7 @@
         <v>0</v>
       </c>
       <c r="AF27" s="1">
-        <v>590.4185180664062</v>
+        <v>590.41845703125</v>
       </c>
       <c r="AG27" s="1">
         <v>177.2572021484375</v>
@@ -48073,7 +48073,7 @@
         <v>3.477203845977783</v>
       </c>
       <c r="AI27" s="1">
-        <v>771.1529541015625</v>
+        <v>771.15283203125</v>
       </c>
     </row>
     <row r="28" spans="1:35">
@@ -48263,13 +48263,13 @@
         <v>0</v>
       </c>
       <c r="AA29" s="1">
-        <v>6.294611930847168</v>
+        <v>6.29461145401001</v>
       </c>
       <c r="AB29" s="1">
         <v>0</v>
       </c>
       <c r="AC29" s="1">
-        <v>810.5957641601562</v>
+        <v>810.595703125</v>
       </c>
       <c r="AD29" s="1">
         <v>0</v>
@@ -48278,7 +48278,7 @@
         <v>0</v>
       </c>
       <c r="AF29" s="1">
-        <v>816.890380859375</v>
+        <v>816.8903198242188</v>
       </c>
       <c r="AG29" s="1">
         <v>64.42653656005859</v>
@@ -48287,7 +48287,7 @@
         <v>0.2705525159835815</v>
       </c>
       <c r="AI29" s="1">
-        <v>881.5874633789062</v>
+        <v>881.58740234375</v>
       </c>
     </row>
     <row r="30" spans="1:35">
@@ -48343,7 +48343,7 @@
         <v>0</v>
       </c>
       <c r="R30" s="1">
-        <v>4.788779735565186</v>
+        <v>4.788779258728027</v>
       </c>
       <c r="S30" s="1">
         <v>0</v>
@@ -48515,7 +48515,7 @@
         <v>168.0032348632812</v>
       </c>
       <c r="D32" s="1">
-        <v>24.81538581848145</v>
+        <v>24.81538772583008</v>
       </c>
       <c r="E32" s="1">
         <v>798.6409912109375</v>
@@ -48551,19 +48551,19 @@
         <v>143.4689331054688</v>
       </c>
       <c r="P32" s="1">
-        <v>375.8394775390625</v>
+        <v>375.8394470214844</v>
       </c>
       <c r="Q32" s="1">
         <v>766.525634765625</v>
       </c>
       <c r="R32" s="1">
-        <v>860.238525390625</v>
+        <v>860.2384643554688</v>
       </c>
       <c r="S32" s="1">
         <v>414.6049194335938</v>
       </c>
       <c r="T32" s="1">
-        <v>192.0541229248047</v>
+        <v>192.0541381835938</v>
       </c>
       <c r="U32" s="1">
         <v>158.1777038574219</v>
@@ -48584,7 +48584,7 @@
         <v>195.5956726074219</v>
       </c>
       <c r="AA32" s="1">
-        <v>655.07421875</v>
+        <v>655.0741577148438</v>
       </c>
       <c r="AB32" s="1">
         <v>386.9410705566406</v>
@@ -48602,13 +48602,13 @@
         <v>9965.189453125</v>
       </c>
       <c r="AG32" s="1">
-        <v>3850.2841796875</v>
+        <v>3850.2880859375</v>
       </c>
       <c r="AH32" s="1">
         <v>1907.418701171875</v>
       </c>
       <c r="AI32" s="1">
-        <v>15722.892578125</v>
+        <v>15722.89453125</v>
       </c>
     </row>
   </sheetData>
@@ -49043,13 +49043,13 @@
         <v>89.12539672851562</v>
       </c>
       <c r="AG4" s="1">
-        <v>114.4567337036133</v>
+        <v>114.4568557739258</v>
       </c>
       <c r="AH4" s="1">
         <v>394.8961486816406</v>
       </c>
       <c r="AI4" s="1">
-        <v>598.478271484375</v>
+        <v>598.4783935546875</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -49581,7 +49581,7 @@
         <v>282.8743591308594</v>
       </c>
       <c r="AH9" s="1">
-        <v>1003.338806152344</v>
+        <v>1003.3388671875</v>
       </c>
       <c r="AI9" s="1">
         <v>2823.3173828125</v>
@@ -49729,7 +49729,7 @@
         <v>853.714111328125</v>
       </c>
       <c r="L11" s="1">
-        <v>6.080799579620361</v>
+        <v>6.08080005645752</v>
       </c>
       <c r="M11" s="1">
         <v>40.08576583862305</v>
@@ -49943,7 +49943,7 @@
         <v>15.41095638275146</v>
       </c>
       <c r="L13" s="1">
-        <v>21.25876235961914</v>
+        <v>21.25876426696777</v>
       </c>
       <c r="M13" s="1">
         <v>1276.267700195312</v>
@@ -50003,7 +50003,7 @@
         <v>0</v>
       </c>
       <c r="AF13" s="1">
-        <v>1347.650512695312</v>
+        <v>1347.650634765625</v>
       </c>
       <c r="AG13" s="1">
         <v>64.92955780029297</v>
@@ -50050,7 +50050,7 @@
         <v>4.041832447052002</v>
       </c>
       <c r="L14" s="1">
-        <v>2.908276319503784</v>
+        <v>2.908276557922363</v>
       </c>
       <c r="M14" s="1">
         <v>49.84420776367188</v>
@@ -50169,16 +50169,16 @@
         <v>445.2615051269531</v>
       </c>
       <c r="P15" s="1">
-        <v>9.608279228210449</v>
+        <v>9.608280181884766</v>
       </c>
       <c r="Q15" s="1">
         <v>5.471391201019287</v>
       </c>
       <c r="R15" s="1">
-        <v>2.144258737564087</v>
+        <v>2.144258499145508</v>
       </c>
       <c r="S15" s="1">
-        <v>0.116198405623436</v>
+        <v>0.1161984130740166</v>
       </c>
       <c r="T15" s="1">
         <v>0</v>
@@ -50223,7 +50223,7 @@
         <v>50.15325927734375</v>
       </c>
       <c r="AH15" s="1">
-        <v>168.5090789794922</v>
+        <v>168.5090637207031</v>
       </c>
       <c r="AI15" s="1">
         <v>941.1995849609375</v>
@@ -50276,7 +50276,7 @@
         <v>0.07875559478998184</v>
       </c>
       <c r="P16" s="1">
-        <v>822.3538818359375</v>
+        <v>822.3539428710938</v>
       </c>
       <c r="Q16" s="1">
         <v>0</v>
@@ -50324,16 +50324,16 @@
         <v>0</v>
       </c>
       <c r="AF16" s="1">
-        <v>864.2598266601562</v>
+        <v>864.2598876953125</v>
       </c>
       <c r="AG16" s="1">
-        <v>113.3746719360352</v>
+        <v>113.3745040893555</v>
       </c>
       <c r="AH16" s="1">
         <v>121.732551574707</v>
       </c>
       <c r="AI16" s="1">
-        <v>1099.367065429688</v>
+        <v>1099.366943359375</v>
       </c>
     </row>
     <row r="17" spans="1:35">
@@ -50392,7 +50392,7 @@
         <v>2.433445692062378</v>
       </c>
       <c r="S17" s="1">
-        <v>3.595361709594727</v>
+        <v>3.595361948013306</v>
       </c>
       <c r="T17" s="1">
         <v>0</v>
@@ -50410,7 +50410,7 @@
         <v>0</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.5714830756187439</v>
+        <v>0.5714831352233887</v>
       </c>
       <c r="Z17" s="1">
         <v>2.027667999267578</v>
@@ -50478,7 +50478,7 @@
         <v>9.280502319335938</v>
       </c>
       <c r="L18" s="1">
-        <v>49.28816604614258</v>
+        <v>49.28816986083984</v>
       </c>
       <c r="M18" s="1">
         <v>52.25645446777344</v>
@@ -50496,13 +50496,13 @@
         <v>0.7559187412261963</v>
       </c>
       <c r="R18" s="1">
-        <v>2189.680908203125</v>
+        <v>2189.6806640625</v>
       </c>
       <c r="S18" s="1">
         <v>9.314709663391113</v>
       </c>
       <c r="T18" s="1">
-        <v>-8.690510003361851e-05</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
         <v>40.43426513671875</v>
@@ -50529,7 +50529,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="1">
-        <v>-0.0001853141002357006</v>
+        <v>0</v>
       </c>
       <c r="AD18" s="1">
         <v>5.28948974609375</v>
@@ -50538,16 +50538,16 @@
         <v>0</v>
       </c>
       <c r="AF18" s="1">
-        <v>2522.35791015625</v>
+        <v>2522.358154296875</v>
       </c>
       <c r="AG18" s="1">
-        <v>1001.821411132812</v>
+        <v>1001.820190429688</v>
       </c>
       <c r="AH18" s="1">
         <v>84.67118835449219</v>
       </c>
       <c r="AI18" s="1">
-        <v>3608.8505859375</v>
+        <v>3608.849609375</v>
       </c>
     </row>
     <row r="19" spans="1:35">
@@ -50585,7 +50585,7 @@
         <v>0.9979718327522278</v>
       </c>
       <c r="L19" s="1">
-        <v>1.30040717124939</v>
+        <v>1.300407290458679</v>
       </c>
       <c r="M19" s="1">
         <v>18.77739143371582</v>
@@ -50648,13 +50648,13 @@
         <v>1302.74462890625</v>
       </c>
       <c r="AG19" s="1">
-        <v>744.6499633789062</v>
+        <v>744.64990234375</v>
       </c>
       <c r="AH19" s="1">
         <v>230.1125793457031</v>
       </c>
       <c r="AI19" s="1">
-        <v>2277.50732421875</v>
+        <v>2277.507080078125</v>
       </c>
     </row>
     <row r="20" spans="1:35">
@@ -50716,7 +50716,7 @@
         <v>16.25749778747559</v>
       </c>
       <c r="T20" s="1">
-        <v>633.5323486328125</v>
+        <v>633.5321655273438</v>
       </c>
       <c r="U20" s="1">
         <v>0</v>
@@ -50752,10 +50752,10 @@
         <v>0</v>
       </c>
       <c r="AF20" s="1">
-        <v>738.6107788085938</v>
+        <v>738.610595703125</v>
       </c>
       <c r="AG20" s="1">
-        <v>146.1287994384766</v>
+        <v>146.1289825439453</v>
       </c>
       <c r="AH20" s="1">
         <v>27.52128219604492</v>
@@ -50811,13 +50811,13 @@
         <v>3.421866416931152</v>
       </c>
       <c r="P21" s="1">
-        <v>7.777481079101562</v>
+        <v>7.777481555938721</v>
       </c>
       <c r="Q21" s="1">
         <v>1.007320284843445</v>
       </c>
       <c r="R21" s="1">
-        <v>4.493514537811279</v>
+        <v>4.493514060974121</v>
       </c>
       <c r="S21" s="1">
         <v>0.5786967873573303</v>
@@ -50838,7 +50838,7 @@
         <v>0</v>
       </c>
       <c r="Y21" s="1">
-        <v>63.98402786254883</v>
+        <v>63.98403167724609</v>
       </c>
       <c r="Z21" s="1">
         <v>1.478676676750183</v>
@@ -51013,7 +51013,7 @@
         <v>1.271627187728882</v>
       </c>
       <c r="L23" s="1">
-        <v>1.910178184509277</v>
+        <v>1.910178303718567</v>
       </c>
       <c r="M23" s="1">
         <v>2.183976650238037</v>
@@ -51025,7 +51025,7 @@
         <v>1.920330405235291</v>
       </c>
       <c r="P23" s="1">
-        <v>9.857528686523438</v>
+        <v>9.857529640197754</v>
       </c>
       <c r="Q23" s="1">
         <v>3.104981422424316</v>
@@ -51034,10 +51034,10 @@
         <v>43.57963943481445</v>
       </c>
       <c r="S23" s="1">
-        <v>11.44466495513916</v>
+        <v>11.44466590881348</v>
       </c>
       <c r="T23" s="1">
-        <v>5.150793075561523</v>
+        <v>5.150790691375732</v>
       </c>
       <c r="U23" s="1">
         <v>13.26743507385254</v>
@@ -51052,7 +51052,7 @@
         <v>11.28967380523682</v>
       </c>
       <c r="Y23" s="1">
-        <v>5.939907550811768</v>
+        <v>5.939908027648926</v>
       </c>
       <c r="Z23" s="1">
         <v>5.056303024291992</v>
@@ -51227,7 +51227,7 @@
         <v>30.47984504699707</v>
       </c>
       <c r="L25" s="1">
-        <v>185.7137298583984</v>
+        <v>185.7137451171875</v>
       </c>
       <c r="M25" s="1">
         <v>221.0677185058594</v>
@@ -51239,7 +51239,7 @@
         <v>19.34853172302246</v>
       </c>
       <c r="P25" s="1">
-        <v>62.72695922851562</v>
+        <v>62.72696304321289</v>
       </c>
       <c r="Q25" s="1">
         <v>6.09168529510498</v>
@@ -51251,7 +51251,7 @@
         <v>10.03504371643066</v>
       </c>
       <c r="T25" s="1">
-        <v>6.411550521850586</v>
+        <v>6.411548137664795</v>
       </c>
       <c r="U25" s="1">
         <v>159.7061767578125</v>
@@ -51290,13 +51290,13 @@
         <v>2234.64892578125</v>
       </c>
       <c r="AG25" s="1">
-        <v>504.7255249023438</v>
+        <v>504.7254638671875</v>
       </c>
       <c r="AH25" s="1">
         <v>555.643310546875</v>
       </c>
       <c r="AI25" s="1">
-        <v>3295.017822265625</v>
+        <v>3295.017578125</v>
       </c>
     </row>
     <row r="26" spans="1:35">
@@ -51355,7 +51355,7 @@
         <v>4.664085388183594</v>
       </c>
       <c r="S26" s="1">
-        <v>3.814753770828247</v>
+        <v>3.814754009246826</v>
       </c>
       <c r="T26" s="1">
         <v>0</v>
@@ -51373,7 +51373,7 @@
         <v>0</v>
       </c>
       <c r="Y26" s="1">
-        <v>5.754520893096924</v>
+        <v>5.754521369934082</v>
       </c>
       <c r="Z26" s="1">
         <v>838.9122924804688</v>
@@ -51465,7 +51465,7 @@
         <v>0</v>
       </c>
       <c r="T27" s="1">
-        <v>4.953589916229248</v>
+        <v>4.953588485717773</v>
       </c>
       <c r="U27" s="1">
         <v>0</v>
@@ -51587,7 +51587,7 @@
         <v>0</v>
       </c>
       <c r="Y28" s="1">
-        <v>5.419350624084473</v>
+        <v>5.419351100921631</v>
       </c>
       <c r="Z28" s="1">
         <v>0</v>
@@ -51718,13 +51718,13 @@
         <v>2568.083984375</v>
       </c>
       <c r="AG29" s="1">
-        <v>9.626736640930176</v>
+        <v>9.626723289489746</v>
       </c>
       <c r="AH29" s="1">
         <v>0.7796401381492615</v>
       </c>
       <c r="AI29" s="1">
-        <v>2578.490478515625</v>
+        <v>2578.490234375</v>
       </c>
     </row>
     <row r="30" spans="1:35">
@@ -51801,7 +51801,7 @@
         <v>0</v>
       </c>
       <c r="Y30" s="1">
-        <v>0.01175660826265812</v>
+        <v>0.01175660919398069</v>
       </c>
       <c r="Z30" s="1">
         <v>0</v>
@@ -51976,7 +51976,7 @@
         <v>950.052490234375</v>
       </c>
       <c r="L32" s="1">
-        <v>1297.527587890625</v>
+        <v>1297.527709960938</v>
       </c>
       <c r="M32" s="1">
         <v>2049.05517578125</v>
@@ -51988,19 +51988,19 @@
         <v>504.0836486816406</v>
       </c>
       <c r="P32" s="1">
-        <v>933.7071533203125</v>
+        <v>933.7072143554688</v>
       </c>
       <c r="Q32" s="1">
         <v>2547.6376953125</v>
       </c>
       <c r="R32" s="1">
-        <v>2359.345458984375</v>
+        <v>2359.34521484375</v>
       </c>
       <c r="S32" s="1">
         <v>1319.605224609375</v>
       </c>
       <c r="T32" s="1">
-        <v>650.0482788085938</v>
+        <v>650.0481567382812</v>
       </c>
       <c r="U32" s="1">
         <v>1449.225463867188</v>
@@ -52027,7 +52027,7 @@
         <v>1255.861083984375</v>
       </c>
       <c r="AC32" s="1">
-        <v>2577.62890625</v>
+        <v>2577.629150390625</v>
       </c>
       <c r="AD32" s="1">
         <v>921.2281494140625</v>
@@ -52036,10 +52036,10 @@
         <v>23.77994918823242</v>
       </c>
       <c r="AF32" s="1">
-        <v>31780.38671875</v>
+        <v>31780.388671875</v>
       </c>
       <c r="AG32" s="1">
-        <v>7333.84326171875</v>
+        <v>7333.841796875</v>
       </c>
       <c r="AH32" s="1">
         <v>6016.7861328125</v>
@@ -52480,7 +52480,7 @@
         <v>10.98390102386475</v>
       </c>
       <c r="AG4" s="1">
-        <v>44.28704071044922</v>
+        <v>44.28704452514648</v>
       </c>
       <c r="AH4" s="1">
         <v>118.4491577148438</v>
@@ -53184,7 +53184,7 @@
         <v>0</v>
       </c>
       <c r="R11" s="1">
-        <v>0.1224845498800278</v>
+        <v>0.1224845349788666</v>
       </c>
       <c r="S11" s="1">
         <v>0</v>
@@ -53606,16 +53606,16 @@
         <v>256.38427734375</v>
       </c>
       <c r="P15" s="1">
-        <v>4.190022945404053</v>
+        <v>4.190023422241211</v>
       </c>
       <c r="Q15" s="1">
         <v>2.113381385803223</v>
       </c>
       <c r="R15" s="1">
-        <v>0.8892040252685547</v>
+        <v>0.8892039060592651</v>
       </c>
       <c r="S15" s="1">
-        <v>0.0470028780400753</v>
+        <v>0.047002874314785</v>
       </c>
       <c r="T15" s="1">
         <v>0</v>
@@ -53713,7 +53713,7 @@
         <v>0.04534795135259628</v>
       </c>
       <c r="P16" s="1">
-        <v>358.6158752441406</v>
+        <v>358.6159362792969</v>
       </c>
       <c r="Q16" s="1">
         <v>0</v>
@@ -53761,16 +53761,16 @@
         <v>0</v>
       </c>
       <c r="AF16" s="1">
-        <v>368.2607727050781</v>
+        <v>368.2608337402344</v>
       </c>
       <c r="AG16" s="1">
-        <v>13.91764259338379</v>
+        <v>13.91770458221436</v>
       </c>
       <c r="AH16" s="1">
         <v>47.89167404174805</v>
       </c>
       <c r="AI16" s="1">
-        <v>430.0700988769531</v>
+        <v>430.0702209472656</v>
       </c>
     </row>
     <row r="17" spans="1:35">
@@ -53820,16 +53820,16 @@
         <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>9.324784278869629</v>
+        <v>9.324785232543945</v>
       </c>
       <c r="Q17" s="1">
         <v>977.65966796875</v>
       </c>
       <c r="R17" s="1">
-        <v>1.009127140045166</v>
+        <v>1.009127020835876</v>
       </c>
       <c r="S17" s="1">
-        <v>1.454343199729919</v>
+        <v>1.45434308052063</v>
       </c>
       <c r="T17" s="1">
         <v>0</v>
@@ -53933,13 +53933,13 @@
         <v>0.291981428861618</v>
       </c>
       <c r="R18" s="1">
-        <v>908.0401000976562</v>
+        <v>908.0399780273438</v>
       </c>
       <c r="S18" s="1">
-        <v>3.767850160598755</v>
+        <v>3.767849922180176</v>
       </c>
       <c r="T18" s="1">
-        <v>-3.237091368646361e-05</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
         <v>7.36622428894043</v>
@@ -53966,7 +53966,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="1">
-        <v>-7.087882841005921e-05</v>
+        <v>0</v>
       </c>
       <c r="AD18" s="1">
         <v>2.10588002204895</v>
@@ -53978,13 +53978,13 @@
         <v>1000.128479003906</v>
       </c>
       <c r="AG18" s="1">
-        <v>470.9048767089844</v>
+        <v>470.9044799804688</v>
       </c>
       <c r="AH18" s="1">
         <v>27.92299270629883</v>
       </c>
       <c r="AI18" s="1">
-        <v>1498.956298828125</v>
+        <v>1498.955932617188</v>
       </c>
     </row>
     <row r="19" spans="1:35">
@@ -54043,7 +54043,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="1">
-        <v>511.4761352539062</v>
+        <v>511.4761047363281</v>
       </c>
       <c r="T19" s="1">
         <v>0</v>
@@ -54082,10 +54082,10 @@
         <v>0</v>
       </c>
       <c r="AF19" s="1">
-        <v>524.4486694335938</v>
+        <v>524.4486083984375</v>
       </c>
       <c r="AG19" s="1">
-        <v>294.8482666015625</v>
+        <v>294.8482971191406</v>
       </c>
       <c r="AH19" s="1">
         <v>86.44831848144531</v>
@@ -54147,13 +54147,13 @@
         <v>0</v>
       </c>
       <c r="R20" s="1">
-        <v>0.7001963257789612</v>
+        <v>0.7001962661743164</v>
       </c>
       <c r="S20" s="1">
-        <v>6.576244831085205</v>
+        <v>6.576244354248047</v>
       </c>
       <c r="T20" s="1">
-        <v>235.9818267822266</v>
+        <v>235.9818878173828</v>
       </c>
       <c r="U20" s="1">
         <v>0</v>
@@ -54180,7 +54180,7 @@
         <v>0.1802273690700531</v>
       </c>
       <c r="AC20" s="1">
-        <v>0.6389017701148987</v>
+        <v>0.6389018297195435</v>
       </c>
       <c r="AD20" s="1">
         <v>7.551129341125488</v>
@@ -54189,16 +54189,16 @@
         <v>0</v>
       </c>
       <c r="AF20" s="1">
-        <v>272.55712890625</v>
+        <v>272.5571899414062</v>
       </c>
       <c r="AG20" s="1">
-        <v>80.12331390380859</v>
+        <v>80.12330627441406</v>
       </c>
       <c r="AH20" s="1">
         <v>10.57369041442871</v>
       </c>
       <c r="AI20" s="1">
-        <v>363.254150390625</v>
+        <v>363.2541809082031</v>
       </c>
     </row>
     <row r="21" spans="1:35">
@@ -54248,16 +54248,16 @@
         <v>1.97033154964447</v>
       </c>
       <c r="P21" s="1">
-        <v>3.391639947891235</v>
+        <v>3.391640424728394</v>
       </c>
       <c r="Q21" s="1">
         <v>0.3890878558158875</v>
       </c>
       <c r="R21" s="1">
-        <v>1.863418340682983</v>
+        <v>1.863418102264404</v>
       </c>
       <c r="S21" s="1">
-        <v>0.2340859621763229</v>
+        <v>0.2340859472751617</v>
       </c>
       <c r="T21" s="1">
         <v>0</v>
@@ -54287,7 +54287,7 @@
         <v>1.110802888870239</v>
       </c>
       <c r="AC21" s="1">
-        <v>0.1771015226840973</v>
+        <v>0.1771015524864197</v>
       </c>
       <c r="AD21" s="1">
         <v>0.3673492968082428</v>
@@ -54462,19 +54462,19 @@
         <v>1.105737924575806</v>
       </c>
       <c r="P23" s="1">
-        <v>4.298717021942139</v>
+        <v>4.298717498779297</v>
       </c>
       <c r="Q23" s="1">
         <v>1.199331283569336</v>
       </c>
       <c r="R23" s="1">
-        <v>18.07206916809082</v>
+        <v>18.07206726074219</v>
       </c>
       <c r="S23" s="1">
-        <v>4.629428386688232</v>
+        <v>4.629427909851074</v>
       </c>
       <c r="T23" s="1">
-        <v>1.918597340583801</v>
+        <v>1.918597936630249</v>
       </c>
       <c r="U23" s="1">
         <v>2.417031764984131</v>
@@ -54501,7 +54501,7 @@
         <v>0.9504320621490479</v>
       </c>
       <c r="AC23" s="1">
-        <v>6.910717964172363</v>
+        <v>6.91071891784668</v>
       </c>
       <c r="AD23" s="1">
         <v>12.36485862731934</v>
@@ -54676,19 +54676,19 @@
         <v>11.1410026550293</v>
       </c>
       <c r="P25" s="1">
-        <v>27.35426330566406</v>
+        <v>27.35426712036133</v>
       </c>
       <c r="Q25" s="1">
         <v>2.352976560592651</v>
       </c>
       <c r="R25" s="1">
-        <v>40.32114791870117</v>
+        <v>40.32114410400391</v>
       </c>
       <c r="S25" s="1">
         <v>4.059228420257568</v>
       </c>
       <c r="T25" s="1">
-        <v>2.388211727142334</v>
+        <v>2.388212442398071</v>
       </c>
       <c r="U25" s="1">
         <v>29.09491539001465</v>
@@ -54715,7 +54715,7 @@
         <v>38.18877792358398</v>
       </c>
       <c r="AC25" s="1">
-        <v>1.491736531257629</v>
+        <v>1.491736769676208</v>
       </c>
       <c r="AD25" s="1">
         <v>3.688868284225464</v>
@@ -54724,16 +54724,16 @@
         <v>0</v>
       </c>
       <c r="AF25" s="1">
-        <v>607.3419799804688</v>
+        <v>607.342041015625</v>
       </c>
       <c r="AG25" s="1">
-        <v>286.74072265625</v>
+        <v>286.7407531738281</v>
       </c>
       <c r="AH25" s="1">
         <v>177.5636749267578</v>
       </c>
       <c r="AI25" s="1">
-        <v>1071.646362304688</v>
+        <v>1071.646484375</v>
       </c>
     </row>
     <row r="26" spans="1:35">
@@ -54789,10 +54789,10 @@
         <v>0.04491947963833809</v>
       </c>
       <c r="R26" s="1">
-        <v>1.934152722358704</v>
+        <v>1.934152483940125</v>
       </c>
       <c r="S26" s="1">
-        <v>1.543088436126709</v>
+        <v>1.543088316917419</v>
       </c>
       <c r="T26" s="1">
         <v>0</v>
@@ -54902,7 +54902,7 @@
         <v>0</v>
       </c>
       <c r="T27" s="1">
-        <v>1.845142006874084</v>
+        <v>1.845142602920532</v>
       </c>
       <c r="U27" s="1">
         <v>0</v>
@@ -55143,7 +55143,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="1">
-        <v>976.671630859375</v>
+        <v>976.6717529296875</v>
       </c>
       <c r="AD29" s="1">
         <v>0</v>
@@ -55152,16 +55152,16 @@
         <v>0</v>
       </c>
       <c r="AF29" s="1">
-        <v>981.186767578125</v>
+        <v>981.1868896484375</v>
       </c>
       <c r="AG29" s="1">
-        <v>29.01089286804199</v>
+        <v>29.01082992553711</v>
       </c>
       <c r="AH29" s="1">
         <v>0.3096736073493958</v>
       </c>
       <c r="AI29" s="1">
-        <v>1010.50732421875</v>
+        <v>1010.507385253906</v>
       </c>
     </row>
     <row r="30" spans="1:35">
@@ -55217,7 +55217,7 @@
         <v>0</v>
       </c>
       <c r="R30" s="1">
-        <v>5.446553707122803</v>
+        <v>5.446553230285645</v>
       </c>
       <c r="S30" s="1">
         <v>0</v>
@@ -55425,19 +55425,19 @@
         <v>290.2544250488281</v>
       </c>
       <c r="P32" s="1">
-        <v>407.17529296875</v>
+        <v>407.1753845214844</v>
       </c>
       <c r="Q32" s="1">
         <v>984.0513916015625</v>
       </c>
       <c r="R32" s="1">
-        <v>978.3984375</v>
+        <v>978.3983154296875</v>
       </c>
       <c r="S32" s="1">
-        <v>533.7874145507812</v>
+        <v>533.787353515625</v>
       </c>
       <c r="T32" s="1">
-        <v>242.1337432861328</v>
+        <v>242.1338348388672</v>
       </c>
       <c r="U32" s="1">
         <v>264.0166625976562</v>
@@ -55464,7 +55464,7 @@
         <v>424.5057678222656</v>
       </c>
       <c r="AC32" s="1">
-        <v>985.8900146484375</v>
+        <v>985.8901977539062</v>
       </c>
       <c r="AD32" s="1">
         <v>366.7642517089844</v>
@@ -55476,7 +55476,7 @@
         <v>11234.431640625</v>
       </c>
       <c r="AG32" s="1">
-        <v>4005.40576171875</v>
+        <v>4005.4052734375</v>
       </c>
       <c r="AH32" s="1">
         <v>2229.86669921875</v>
@@ -56056,7 +56056,7 @@
         <v>0.007104191929101944</v>
       </c>
       <c r="H6" s="1">
-        <v>0.9102424383163452</v>
+        <v>0.9102423787117004</v>
       </c>
       <c r="I6" s="1">
         <v>0.5471490621566772</v>
@@ -56270,7 +56270,7 @@
         <v>0.0129085062071681</v>
       </c>
       <c r="H8" s="1">
-        <v>1667.4638671875</v>
+        <v>1667.463745117188</v>
       </c>
       <c r="I8" s="1">
         <v>2.930050373077393</v>
@@ -56342,7 +56342,7 @@
         <v>0</v>
       </c>
       <c r="AF8" s="1">
-        <v>1670.447143554688</v>
+        <v>1670.447021484375</v>
       </c>
       <c r="AG8" s="1">
         <v>193.314208984375</v>
@@ -56351,7 +56351,7 @@
         <v>82.59273529052734</v>
       </c>
       <c r="AI8" s="1">
-        <v>1946.354125976562</v>
+        <v>1946.35400390625</v>
       </c>
     </row>
     <row r="9" spans="1:35">
@@ -56591,7 +56591,7 @@
         <v>0.2097424864768982</v>
       </c>
       <c r="H11" s="1">
-        <v>6.801985740661621</v>
+        <v>6.801985263824463</v>
       </c>
       <c r="I11" s="1">
         <v>3.673556804656982</v>
@@ -56621,7 +56621,7 @@
         <v>0</v>
       </c>
       <c r="R11" s="1">
-        <v>0.08070795238018036</v>
+        <v>0.08070793747901917</v>
       </c>
       <c r="S11" s="1">
         <v>0</v>
@@ -56990,10 +56990,10 @@
         <v>154.792724609375</v>
       </c>
       <c r="AH14" s="1">
-        <v>220.7694244384766</v>
+        <v>220.7694396972656</v>
       </c>
       <c r="AI14" s="1">
-        <v>403.0781860351562</v>
+        <v>403.0782165527344</v>
       </c>
     </row>
     <row r="15" spans="1:35">
@@ -57019,7 +57019,7 @@
         <v>0.6911575198173523</v>
       </c>
       <c r="H15" s="1">
-        <v>0.9202274680137634</v>
+        <v>0.9202274084091187</v>
       </c>
       <c r="I15" s="1">
         <v>21.43635177612305</v>
@@ -57049,7 +57049,7 @@
         <v>2.022016525268555</v>
       </c>
       <c r="R15" s="1">
-        <v>0.5859174132347107</v>
+        <v>0.5859172940254211</v>
       </c>
       <c r="S15" s="1">
         <v>0.08926247805356979</v>
@@ -57097,7 +57097,7 @@
         <v>159.7315673828125</v>
       </c>
       <c r="AH15" s="1">
-        <v>82.95455169677734</v>
+        <v>82.95454406738281</v>
       </c>
       <c r="AI15" s="1">
         <v>465.09326171875</v>
@@ -57126,7 +57126,7 @@
         <v>0.71952223777771</v>
       </c>
       <c r="H16" s="1">
-        <v>34.28899383544922</v>
+        <v>34.28899002075195</v>
       </c>
       <c r="I16" s="1">
         <v>1.327209234237671</v>
@@ -57150,7 +57150,7 @@
         <v>0.02726105973124504</v>
       </c>
       <c r="P16" s="1">
-        <v>407.64208984375</v>
+        <v>407.6421203613281</v>
       </c>
       <c r="Q16" s="1">
         <v>0</v>
@@ -57198,16 +57198,16 @@
         <v>0</v>
       </c>
       <c r="AF16" s="1">
-        <v>444.5625915527344</v>
+        <v>444.5626220703125</v>
       </c>
       <c r="AG16" s="1">
-        <v>20.42566680908203</v>
+        <v>20.42569732666016</v>
       </c>
       <c r="AH16" s="1">
         <v>52.23883056640625</v>
       </c>
       <c r="AI16" s="1">
-        <v>517.2271118164062</v>
+        <v>517.2271728515625</v>
       </c>
     </row>
     <row r="17" spans="1:35">
@@ -57257,13 +57257,13 @@
         <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>10.59957122802734</v>
+        <v>10.59957218170166</v>
       </c>
       <c r="Q17" s="1">
         <v>935.393798828125</v>
       </c>
       <c r="R17" s="1">
-        <v>0.6649376749992371</v>
+        <v>0.6649375557899475</v>
       </c>
       <c r="S17" s="1">
         <v>2.761921882629395</v>
@@ -57340,7 +57340,7 @@
         <v>1.410614252090454</v>
       </c>
       <c r="H18" s="1">
-        <v>106.8808898925781</v>
+        <v>106.8808822631836</v>
       </c>
       <c r="I18" s="1">
         <v>6.569323539733887</v>
@@ -57370,13 +57370,13 @@
         <v>0.2793585956096649</v>
       </c>
       <c r="R18" s="1">
-        <v>598.3289794921875</v>
+        <v>598.328857421875</v>
       </c>
       <c r="S18" s="1">
         <v>7.155468940734863</v>
       </c>
       <c r="T18" s="1">
-        <v>-2.394568400632124e-05</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
         <v>27.14909172058105</v>
@@ -57403,7 +57403,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="1">
-        <v>-6.159521581139416e-05</v>
+        <v>0</v>
       </c>
       <c r="AD18" s="1">
         <v>1.604005336761475</v>
@@ -57415,13 +57415,13 @@
         <v>774.6306762695312</v>
       </c>
       <c r="AG18" s="1">
-        <v>1071.454345703125</v>
+        <v>1071.455200195312</v>
       </c>
       <c r="AH18" s="1">
         <v>39.03424072265625</v>
       </c>
       <c r="AI18" s="1">
-        <v>1885.119140625</v>
+        <v>1885.1201171875</v>
       </c>
     </row>
     <row r="19" spans="1:35">
@@ -57522,7 +57522,7 @@
         <v>983.671630859375</v>
       </c>
       <c r="AG19" s="1">
-        <v>346.6036376953125</v>
+        <v>346.6036682128906</v>
       </c>
       <c r="AH19" s="1">
         <v>140.7728271484375</v>
@@ -57584,13 +57584,13 @@
         <v>0</v>
       </c>
       <c r="R20" s="1">
-        <v>0.4613758325576782</v>
+        <v>0.4613757431507111</v>
       </c>
       <c r="S20" s="1">
         <v>12.48884963989258</v>
       </c>
       <c r="T20" s="1">
-        <v>174.5624542236328</v>
+        <v>174.5624389648438</v>
       </c>
       <c r="U20" s="1">
         <v>0</v>
@@ -57626,16 +57626,16 @@
         <v>0</v>
       </c>
       <c r="AF20" s="1">
-        <v>232.2975006103516</v>
+        <v>232.2974853515625</v>
       </c>
       <c r="AG20" s="1">
-        <v>109.7328414916992</v>
+        <v>109.7328186035156</v>
       </c>
       <c r="AH20" s="1">
         <v>9.997219085693359</v>
       </c>
       <c r="AI20" s="1">
-        <v>352.0275573730469</v>
+        <v>352.0275268554688</v>
       </c>
     </row>
     <row r="21" spans="1:35">
@@ -57661,7 +57661,7 @@
         <v>0.1105767488479614</v>
       </c>
       <c r="H21" s="1">
-        <v>1.636828899383545</v>
+        <v>1.636828780174255</v>
       </c>
       <c r="I21" s="1">
         <v>1.663541674613953</v>
@@ -57685,13 +57685,13 @@
         <v>1.184470891952515</v>
       </c>
       <c r="P21" s="1">
-        <v>3.855309247970581</v>
+        <v>3.85530948638916</v>
       </c>
       <c r="Q21" s="1">
         <v>0.372266948223114</v>
       </c>
       <c r="R21" s="1">
-        <v>1.227850079536438</v>
+        <v>1.227849841117859</v>
       </c>
       <c r="S21" s="1">
         <v>0.4445492029190063</v>
@@ -57724,7 +57724,7 @@
         <v>0.9052959680557251</v>
       </c>
       <c r="AC21" s="1">
-        <v>0.1539050042629242</v>
+        <v>0.153904989361763</v>
       </c>
       <c r="AD21" s="1">
         <v>0.2798023819923401</v>
@@ -57905,13 +57905,13 @@
         <v>1.14748203754425</v>
       </c>
       <c r="R23" s="1">
-        <v>11.90811157226562</v>
+        <v>11.90810966491699</v>
       </c>
       <c r="S23" s="1">
         <v>8.791679382324219</v>
       </c>
       <c r="T23" s="1">
-        <v>1.419240951538086</v>
+        <v>1.419240713119507</v>
       </c>
       <c r="U23" s="1">
         <v>8.908256530761719</v>
@@ -57938,7 +57938,7 @@
         <v>0.7745949029922485</v>
       </c>
       <c r="AC23" s="1">
-        <v>6.005561828613281</v>
+        <v>6.005561351776123</v>
       </c>
       <c r="AD23" s="1">
         <v>9.418057441711426</v>
@@ -58089,7 +58089,7 @@
         <v>3.206824541091919</v>
       </c>
       <c r="H25" s="1">
-        <v>53.18856048583984</v>
+        <v>53.18855667114258</v>
       </c>
       <c r="I25" s="1">
         <v>21.79717063903809</v>
@@ -58113,19 +58113,19 @@
         <v>6.697447776794434</v>
       </c>
       <c r="P25" s="1">
-        <v>31.09385108947754</v>
+        <v>31.09385299682617</v>
       </c>
       <c r="Q25" s="1">
         <v>2.251253366470337</v>
       </c>
       <c r="R25" s="1">
-        <v>26.56855201721191</v>
+        <v>26.56854629516602</v>
       </c>
       <c r="S25" s="1">
         <v>7.708822250366211</v>
       </c>
       <c r="T25" s="1">
-        <v>1.766627907752991</v>
+        <v>1.766627669334412</v>
       </c>
       <c r="U25" s="1">
         <v>107.2327499389648</v>
@@ -58196,7 +58196,7 @@
         <v>0</v>
       </c>
       <c r="H26" s="1">
-        <v>6.37996244430542</v>
+        <v>6.379961967468262</v>
       </c>
       <c r="I26" s="1">
         <v>2.08480978012085</v>
@@ -58226,7 +58226,7 @@
         <v>0.04297753423452377</v>
       </c>
       <c r="R26" s="1">
-        <v>1.274458646774292</v>
+        <v>1.274458408355713</v>
       </c>
       <c r="S26" s="1">
         <v>2.930456399917603</v>
@@ -58339,7 +58339,7 @@
         <v>0</v>
       </c>
       <c r="T27" s="1">
-        <v>1.364904046058655</v>
+        <v>1.364903926849365</v>
       </c>
       <c r="U27" s="1">
         <v>0</v>
@@ -58580,7 +58580,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="1">
-        <v>848.7484741210938</v>
+        <v>848.7484130859375</v>
       </c>
       <c r="AD29" s="1">
         <v>0</v>
@@ -58589,10 +58589,10 @@
         <v>0</v>
       </c>
       <c r="AF29" s="1">
-        <v>857.3692016601562</v>
+        <v>857.369140625</v>
       </c>
       <c r="AG29" s="1">
-        <v>45.55337142944336</v>
+        <v>45.55343246459961</v>
       </c>
       <c r="AH29" s="1">
         <v>0.277230829000473</v>
@@ -58654,7 +58654,7 @@
         <v>0</v>
       </c>
       <c r="R30" s="1">
-        <v>3.588862180709839</v>
+        <v>3.588861465454102</v>
       </c>
       <c r="S30" s="1">
         <v>0</v>
@@ -58838,7 +58838,7 @@
         <v>156.0777587890625</v>
       </c>
       <c r="H32" s="1">
-        <v>1930.252075195312</v>
+        <v>1930.251953125</v>
       </c>
       <c r="I32" s="1">
         <v>586.8485107421875</v>
@@ -58862,19 +58862,19 @@
         <v>174.4873352050781</v>
       </c>
       <c r="P32" s="1">
-        <v>462.8400573730469</v>
+        <v>462.840087890625</v>
       </c>
       <c r="Q32" s="1">
         <v>941.5091552734375</v>
       </c>
       <c r="R32" s="1">
-        <v>644.689697265625</v>
+        <v>644.6895751953125</v>
       </c>
       <c r="S32" s="1">
         <v>1013.707824707031</v>
       </c>
       <c r="T32" s="1">
-        <v>179.1131896972656</v>
+        <v>179.1132049560547</v>
       </c>
       <c r="U32" s="1">
         <v>973.0645751953125</v>
@@ -58913,7 +58913,7 @@
         <v>11896.2958984375</v>
       </c>
       <c r="AG32" s="1">
-        <v>7524.90625</v>
+        <v>7524.9072265625</v>
       </c>
       <c r="AH32" s="1">
         <v>3277.55615234375</v>
@@ -59354,13 +59354,13 @@
         <v>51.16436767578125</v>
       </c>
       <c r="AG4" s="1">
-        <v>20.00981712341309</v>
+        <v>20.00977897644043</v>
       </c>
       <c r="AH4" s="1">
         <v>123.0190124511719</v>
       </c>
       <c r="AI4" s="1">
-        <v>194.1931915283203</v>
+        <v>194.1931610107422</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -59892,7 +59892,7 @@
         <v>216.1802520751953</v>
       </c>
       <c r="AH9" s="1">
-        <v>333.4305419921875</v>
+        <v>333.4305114746094</v>
       </c>
       <c r="AI9" s="1">
         <v>926.2310791015625</v>
@@ -60186,7 +60186,7 @@
         <v>0</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.0001802038750611246</v>
+        <v>0.0001802038605092093</v>
       </c>
       <c r="Z12" s="1">
         <v>0</v>
@@ -60480,7 +60480,7 @@
         <v>133.9168395996094</v>
       </c>
       <c r="P15" s="1">
-        <v>3.566144704818726</v>
+        <v>3.566145181655884</v>
       </c>
       <c r="Q15" s="1">
         <v>1.330865740776062</v>
@@ -60507,7 +60507,7 @@
         <v>0</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.1816368848085403</v>
+        <v>0.1816368699073792</v>
       </c>
       <c r="Z15" s="1">
         <v>0.05063090473413467</v>
@@ -60694,7 +60694,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>7.936360359191895</v>
+        <v>7.936360836029053</v>
       </c>
       <c r="Q17" s="1">
         <v>615.6644897460938</v>
@@ -60721,7 +60721,7 @@
         <v>0</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.1035351306200027</v>
+        <v>0.1035351231694221</v>
       </c>
       <c r="Z17" s="1">
         <v>0.3923298418521881</v>
@@ -60813,7 +60813,7 @@
         <v>3.136152267456055</v>
       </c>
       <c r="T18" s="1">
-        <v>-2.43288632191252e-05</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
         <v>4.320687294006348</v>
@@ -60828,7 +60828,7 @@
         <v>0</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.3753984868526459</v>
+        <v>0.3753984570503235</v>
       </c>
       <c r="Z18" s="1">
         <v>0.6397732496261597</v>
@@ -60840,7 +60840,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="1">
-        <v>-4.583718327921815e-05</v>
+        <v>0</v>
       </c>
       <c r="AD18" s="1">
         <v>1.220761299133301</v>
@@ -60849,10 +60849,10 @@
         <v>0</v>
       </c>
       <c r="AF18" s="1">
-        <v>950.4794311523438</v>
+        <v>950.4794921875</v>
       </c>
       <c r="AG18" s="1">
-        <v>169.9233245849609</v>
+        <v>169.92333984375</v>
       </c>
       <c r="AH18" s="1">
         <v>17.39093399047852</v>
@@ -61066,13 +61066,13 @@
         <v>213.6183624267578</v>
       </c>
       <c r="AG20" s="1">
-        <v>31.24732780456543</v>
+        <v>31.24733734130859</v>
       </c>
       <c r="AH20" s="1">
         <v>7.050282001495361</v>
       </c>
       <c r="AI20" s="1">
-        <v>251.9159698486328</v>
+        <v>251.9159851074219</v>
       </c>
     </row>
     <row r="21" spans="1:35">
@@ -61122,7 +61122,7 @@
         <v>1.029160380363464</v>
       </c>
       <c r="P21" s="1">
-        <v>2.886637926101685</v>
+        <v>2.886638164520264</v>
       </c>
       <c r="Q21" s="1">
         <v>0.2450214028358459</v>
@@ -61149,7 +61149,7 @@
         <v>0</v>
       </c>
       <c r="Y21" s="1">
-        <v>11.59193420410156</v>
+        <v>11.59193325042725</v>
       </c>
       <c r="Z21" s="1">
         <v>0.2861064970493317</v>
@@ -61336,7 +61336,7 @@
         <v>0.5775585174560547</v>
       </c>
       <c r="P23" s="1">
-        <v>3.658654689788818</v>
+        <v>3.658655166625977</v>
       </c>
       <c r="Q23" s="1">
         <v>0.7552582025527954</v>
@@ -61348,7 +61348,7 @@
         <v>3.853282928466797</v>
       </c>
       <c r="T23" s="1">
-        <v>1.441951513290405</v>
+        <v>1.441951632499695</v>
       </c>
       <c r="U23" s="1">
         <v>1.41771936416626</v>
@@ -61363,7 +61363,7 @@
         <v>2.028175354003906</v>
       </c>
       <c r="Y23" s="1">
-        <v>1.076128244400024</v>
+        <v>1.076128125190735</v>
       </c>
       <c r="Z23" s="1">
         <v>0.9783349633216858</v>
@@ -61550,7 +61550,7 @@
         <v>5.819263458251953</v>
       </c>
       <c r="P25" s="1">
-        <v>23.28132057189941</v>
+        <v>23.28132247924805</v>
       </c>
       <c r="Q25" s="1">
         <v>1.481746554374695</v>
@@ -61562,7 +61562,7 @@
         <v>3.378680229187012</v>
       </c>
       <c r="T25" s="1">
-        <v>1.794897437095642</v>
+        <v>1.794897556304932</v>
       </c>
       <c r="U25" s="1">
         <v>17.06573486328125</v>
@@ -61577,7 +61577,7 @@
         <v>0</v>
       </c>
       <c r="Y25" s="1">
-        <v>195.515380859375</v>
+        <v>195.5153656005859</v>
       </c>
       <c r="Z25" s="1">
         <v>1.188190460205078</v>
@@ -61601,13 +61601,13 @@
         <v>454.4165344238281</v>
       </c>
       <c r="AG25" s="1">
-        <v>208.3970642089844</v>
+        <v>208.3970794677734</v>
       </c>
       <c r="AH25" s="1">
         <v>132.2445678710938</v>
       </c>
       <c r="AI25" s="1">
-        <v>795.0581665039062</v>
+        <v>795.0582275390625</v>
       </c>
     </row>
     <row r="26" spans="1:35">
@@ -61684,7 +61684,7 @@
         <v>0</v>
       </c>
       <c r="Y26" s="1">
-        <v>1.042541861534119</v>
+        <v>1.042541742324829</v>
       </c>
       <c r="Z26" s="1">
         <v>162.3196258544922</v>
@@ -61898,7 +61898,7 @@
         <v>0</v>
       </c>
       <c r="Y28" s="1">
-        <v>0.9818192720413208</v>
+        <v>0.981819212436676</v>
       </c>
       <c r="Z28" s="1">
         <v>0</v>
@@ -62029,10 +62029,10 @@
         <v>637.2550659179688</v>
       </c>
       <c r="AG29" s="1">
-        <v>22.00473213195801</v>
+        <v>22.00472831726074</v>
       </c>
       <c r="AH29" s="1">
-        <v>0.2022399753332138</v>
+        <v>0.2022399604320526</v>
       </c>
       <c r="AI29" s="1">
         <v>659.4620361328125</v>
@@ -62112,7 +62112,7 @@
         <v>0</v>
       </c>
       <c r="Y30" s="1">
-        <v>0.002129935193806887</v>
+        <v>0.002129934960976243</v>
       </c>
       <c r="Z30" s="1">
         <v>0</v>
@@ -62311,7 +62311,7 @@
         <v>444.2954711914062</v>
       </c>
       <c r="T32" s="1">
-        <v>181.9793701171875</v>
+        <v>181.9794006347656</v>
       </c>
       <c r="U32" s="1">
         <v>154.8600006103516</v>
@@ -62326,7 +62326,7 @@
         <v>328.44580078125</v>
       </c>
       <c r="Y32" s="1">
-        <v>210.8706970214844</v>
+        <v>210.8706817626953</v>
       </c>
       <c r="Z32" s="1">
         <v>168.7672576904297</v>
@@ -62338,7 +62338,7 @@
         <v>327.2804870605469</v>
       </c>
       <c r="AC32" s="1">
-        <v>637.5728759765625</v>
+        <v>637.5729370117188</v>
       </c>
       <c r="AD32" s="1">
         <v>212.6102294921875</v>
@@ -62791,7 +62791,7 @@
         <v>27.38490295410156</v>
       </c>
       <c r="AG4" s="1">
-        <v>11.20608711242676</v>
+        <v>11.20608520507812</v>
       </c>
       <c r="AH4" s="1">
         <v>61.58893966674805</v>
@@ -63034,7 +63034,7 @@
         <v>0.01797876693308353</v>
       </c>
       <c r="G7" s="1">
-        <v>510.6683654785156</v>
+        <v>510.6683349609375</v>
       </c>
       <c r="H7" s="1">
         <v>0.1339404433965683</v>
@@ -63109,7 +63109,7 @@
         <v>0</v>
       </c>
       <c r="AF7" s="1">
-        <v>511.9792785644531</v>
+        <v>511.979248046875</v>
       </c>
       <c r="AG7" s="1">
         <v>14.59509754180908</v>
@@ -63118,7 +63118,7 @@
         <v>11.66094779968262</v>
       </c>
       <c r="AI7" s="1">
-        <v>538.2353515625</v>
+        <v>538.2352905273438</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -63355,7 +63355,7 @@
         <v>0.009674711152911186</v>
       </c>
       <c r="G10" s="1">
-        <v>0.02736950106918812</v>
+        <v>0.02736949920654297</v>
       </c>
       <c r="H10" s="1">
         <v>0</v>
@@ -63923,7 +63923,7 @@
         <v>1.288215756416321</v>
       </c>
       <c r="R15" s="1">
-        <v>0.4718306064605713</v>
+        <v>0.4718305766582489</v>
       </c>
       <c r="S15" s="1">
         <v>0.03163760900497437</v>
@@ -64075,13 +64075,13 @@
         <v>229.9095001220703</v>
       </c>
       <c r="AG16" s="1">
-        <v>14.16190719604492</v>
+        <v>14.16187572479248</v>
       </c>
       <c r="AH16" s="1">
         <v>26.9426441192627</v>
       </c>
       <c r="AI16" s="1">
-        <v>271.0140380859375</v>
+        <v>271.0140075683594</v>
       </c>
     </row>
     <row r="17" spans="1:35">
@@ -64140,7 +64140,7 @@
         <v>0.5354644060134888</v>
       </c>
       <c r="S17" s="1">
-        <v>0.9789173603057861</v>
+        <v>0.9789174795150757</v>
       </c>
       <c r="T17" s="1">
         <v>0</v>
@@ -64158,7 +64158,7 @@
         <v>0</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.0951022207736969</v>
+        <v>0.0951022133231163</v>
       </c>
       <c r="Z17" s="1">
         <v>0.2588160336017609</v>
@@ -64244,13 +64244,13 @@
         <v>0.1779778450727463</v>
       </c>
       <c r="R18" s="1">
-        <v>481.8254699707031</v>
+        <v>481.825439453125</v>
       </c>
       <c r="S18" s="1">
         <v>2.536137342453003</v>
       </c>
       <c r="T18" s="1">
-        <v>-2.48364158323966e-05</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
         <v>3.045216083526611</v>
@@ -64277,7 +64277,7 @@
         <v>0</v>
       </c>
       <c r="AC18" s="1">
-        <v>-5.644018528982997e-05</v>
+        <v>0</v>
       </c>
       <c r="AD18" s="1">
         <v>1.457881927490234</v>
@@ -64286,16 +64286,16 @@
         <v>0</v>
       </c>
       <c r="AF18" s="1">
-        <v>518.1422119140625</v>
+        <v>518.1422729492188</v>
       </c>
       <c r="AG18" s="1">
-        <v>393.5582885742188</v>
+        <v>393.5596923828125</v>
       </c>
       <c r="AH18" s="1">
         <v>12.25455665588379</v>
       </c>
       <c r="AI18" s="1">
-        <v>923.955078125</v>
+        <v>923.95654296875</v>
       </c>
     </row>
     <row r="19" spans="1:35">
@@ -64396,7 +64396,7 @@
         <v>350.5787048339844</v>
       </c>
       <c r="AG19" s="1">
-        <v>145.4032440185547</v>
+        <v>145.4031982421875</v>
       </c>
       <c r="AH19" s="1">
         <v>48.94030380249023</v>
@@ -64464,7 +64464,7 @@
         <v>4.42646598815918</v>
       </c>
       <c r="T20" s="1">
-        <v>181.0558319091797</v>
+        <v>181.0559692382812</v>
       </c>
       <c r="U20" s="1">
         <v>0</v>
@@ -64491,7 +64491,7 @@
         <v>0.1362733542919159</v>
       </c>
       <c r="AC20" s="1">
-        <v>0.5087517499923706</v>
+        <v>0.5087518095970154</v>
       </c>
       <c r="AD20" s="1">
         <v>5.227579593658447</v>
@@ -64500,16 +64500,16 @@
         <v>0</v>
       </c>
       <c r="AF20" s="1">
-        <v>211.9963684082031</v>
+        <v>211.9965057373047</v>
       </c>
       <c r="AG20" s="1">
-        <v>45.30860137939453</v>
+        <v>45.30857849121094</v>
       </c>
       <c r="AH20" s="1">
         <v>7.764183521270752</v>
       </c>
       <c r="AI20" s="1">
-        <v>265.0691528320312</v>
+        <v>265.0692749023438</v>
       </c>
     </row>
     <row r="21" spans="1:35">
@@ -64565,7 +64565,7 @@
         <v>0.2371692657470703</v>
       </c>
       <c r="R21" s="1">
-        <v>0.98876953125</v>
+        <v>0.9887694716453552</v>
       </c>
       <c r="S21" s="1">
         <v>0.157563105225563</v>
@@ -64720,7 +64720,7 @@
         <v>173.3398895263672</v>
       </c>
       <c r="AH22" s="1">
-        <v>29.47991371154785</v>
+        <v>29.47991180419922</v>
       </c>
       <c r="AI22" s="1">
         <v>328.93505859375</v>
@@ -64782,10 +64782,10 @@
         <v>9.589425086975098</v>
       </c>
       <c r="S23" s="1">
-        <v>3.116064786911011</v>
+        <v>3.116065263748169</v>
       </c>
       <c r="T23" s="1">
-        <v>1.472033739089966</v>
+        <v>1.472034931182861</v>
       </c>
       <c r="U23" s="1">
         <v>0.9992071390151978</v>
@@ -64800,7 +64800,7 @@
         <v>2.218545436859131</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.9884779453277588</v>
+        <v>0.988477885723114</v>
       </c>
       <c r="Z23" s="1">
         <v>0.6453976035118103</v>
@@ -64999,7 +64999,7 @@
         <v>2.732264280319214</v>
       </c>
       <c r="T25" s="1">
-        <v>1.832342863082886</v>
+        <v>1.83234429359436</v>
       </c>
       <c r="U25" s="1">
         <v>12.02791213989258</v>
@@ -65026,7 +65026,7 @@
         <v>28.87526321411133</v>
       </c>
       <c r="AC25" s="1">
-        <v>1.187856554985046</v>
+        <v>1.187856674194336</v>
       </c>
       <c r="AD25" s="1">
         <v>2.553770780563354</v>
@@ -65121,7 +65121,7 @@
         <v>0</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.9576271176338196</v>
+        <v>0.9576270580291748</v>
       </c>
       <c r="Z26" s="1">
         <v>107.0805969238281</v>
@@ -65213,7 +65213,7 @@
         <v>0</v>
       </c>
       <c r="T27" s="1">
-        <v>1.415675640106201</v>
+        <v>1.415676712989807</v>
       </c>
       <c r="U27" s="1">
         <v>0</v>
@@ -65335,7 +65335,7 @@
         <v>0</v>
       </c>
       <c r="Y28" s="1">
-        <v>0.9018504619598389</v>
+        <v>0.9018504023551941</v>
       </c>
       <c r="Z28" s="1">
         <v>0</v>
@@ -65454,7 +65454,7 @@
         <v>0</v>
       </c>
       <c r="AC29" s="1">
-        <v>777.7149658203125</v>
+        <v>777.7150268554688</v>
       </c>
       <c r="AD29" s="1">
         <v>0</v>
@@ -65463,16 +65463,16 @@
         <v>0</v>
       </c>
       <c r="AF29" s="1">
-        <v>781.9946899414062</v>
+        <v>781.9947509765625</v>
       </c>
       <c r="AG29" s="1">
-        <v>2.295168161392212</v>
+        <v>2.295164108276367</v>
       </c>
       <c r="AH29" s="1">
         <v>0.2313332706689835</v>
       </c>
       <c r="AI29" s="1">
-        <v>784.5211791992188</v>
+        <v>784.521240234375</v>
       </c>
     </row>
     <row r="30" spans="1:35">
@@ -65748,7 +65748,7 @@
         <v>359.2919616699219</v>
       </c>
       <c r="T32" s="1">
-        <v>185.7758483886719</v>
+        <v>185.7760314941406</v>
       </c>
       <c r="U32" s="1">
         <v>109.1451568603516</v>
@@ -65775,7 +65775,7 @@
         <v>320.9769592285156</v>
       </c>
       <c r="AC32" s="1">
-        <v>785.0554809570312</v>
+        <v>785.0556030273438</v>
       </c>
       <c r="AD32" s="1">
         <v>253.9076385498047</v>
@@ -65787,13 +65787,13 @@
         <v>7180.63916015625</v>
       </c>
       <c r="AG32" s="1">
-        <v>2587.03857421875</v>
+        <v>2587.039794921875</v>
       </c>
       <c r="AH32" s="1">
         <v>1145.544677734375</v>
       </c>
       <c r="AI32" s="1">
-        <v>10913.22265625</v>
+        <v>10913.224609375</v>
       </c>
     </row>
   </sheetData>
